--- a/input/上課記錄 (回覆).xlsx
+++ b/input/上課記錄 (回覆).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="239">
   <si>
     <t>時間戳記</t>
   </si>
@@ -523,6 +523,9 @@
     <t>數學：檢討第2單元三角函數考卷及作業、3-1向量及其基本運算</t>
   </si>
   <si>
+    <t>80 70 35 70 95 65 50</t>
+  </si>
+  <si>
     <t>講義第2單元-統測考古題</t>
   </si>
   <si>
@@ -563,6 +566,188 @@
   </si>
   <si>
     <t>考試考得不錯，但上課有點不專心</t>
+  </si>
+  <si>
+    <t>包敘恩</t>
+  </si>
+  <si>
+    <t>基本電學第八章全</t>
+  </si>
+  <si>
+    <t>回：80    考：75</t>
+  </si>
+  <si>
+    <t>基本電學第八張考卷，後半選擇</t>
+  </si>
+  <si>
+    <t>還不錯，但轉換方式還是要記熟</t>
+  </si>
+  <si>
+    <t>數位邏輯4-3，4-4</t>
+  </si>
+  <si>
+    <t>第四章綜合模擬試題+歷屆</t>
+  </si>
+  <si>
+    <t>熟悉卡諾圖化簡</t>
+  </si>
+  <si>
+    <t>陳宇翔</t>
+  </si>
+  <si>
+    <t>數位邏輯綜合模擬測驗+歷屆</t>
+  </si>
+  <si>
+    <t>卡諾圖化簡非常不熟悉，最大項最小項觀念不清楚，需多練習</t>
+  </si>
+  <si>
+    <t>黃紳富</t>
+  </si>
+  <si>
+    <t>觀念清楚，卡諾圖化簡偶爾卡頓</t>
+  </si>
+  <si>
+    <t>邱康齊</t>
+  </si>
+  <si>
+    <t>基本電學複雜電路檢討，重疊定理</t>
+  </si>
+  <si>
+    <t>基本電學複雜電路題目</t>
+  </si>
+  <si>
+    <t>基本觀念不好，有點難進到新進度</t>
+  </si>
+  <si>
+    <t>數位邏輯地二張</t>
+  </si>
+  <si>
+    <t>第二章題目</t>
+  </si>
+  <si>
+    <t>數位邏輯第二章</t>
+  </si>
+  <si>
+    <t>張新岳</t>
+  </si>
+  <si>
+    <t>陳冠亦, 陳冠辰, 黃睿心</t>
+  </si>
+  <si>
+    <t>基本電學戴維寧</t>
+  </si>
+  <si>
+    <t>戴維寧40題</t>
+  </si>
+  <si>
+    <t>學生狀況皆良好,要寫回家作業</t>
+  </si>
+  <si>
+    <t>鄭名佑</t>
+  </si>
+  <si>
+    <t>三角函數完</t>
+  </si>
+  <si>
+    <t>考試兩個part 55 80</t>
+  </si>
+  <si>
+    <t>考卷剩餘題目+0722考卷</t>
+  </si>
+  <si>
+    <t>三角函數前面重要的餘弦定理和正弦定理要知道使用的時機，算是三角函數重要的章節，針對相關題目練習。另外一些基本的三角函數運算，正負號等等也不要搞錯了。</t>
+  </si>
+  <si>
+    <t>電子學3-1</t>
+  </si>
+  <si>
+    <t>回：70  考：60</t>
+  </si>
+  <si>
+    <t>電子學講義選擇22題</t>
+  </si>
+  <si>
+    <t>還行，元素要背</t>
+  </si>
+  <si>
+    <t xml:space="preserve">數位邏輯複習5-1 5-2 </t>
+  </si>
+  <si>
+    <t>5-2 精選範例 學生演練 9~14</t>
+  </si>
+  <si>
+    <t>上週教的內容有點忘記，學校實習的部分好像沒有再教或著沒上實習，導致實習的題目都不知道怎麼寫，還有儀器的按鍵功能之類的常識也不是很了解</t>
+  </si>
+  <si>
+    <t>劉冠緯</t>
+  </si>
+  <si>
+    <t>電子學第四章 共射極</t>
+  </si>
+  <si>
+    <t>4-2習題</t>
+  </si>
+  <si>
+    <t>內容都能吸收 公式很繁雜需要多熟悉</t>
+  </si>
+  <si>
+    <t>回家作業(3/30):10分</t>
+  </si>
+  <si>
+    <t>ch3考卷20題</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.態度消極
+2.回家作業一樣沒寫計算過程，因為全部都用猜的，所以基本全錯(30題對3題)，上課檢討作業每一題都要講，很浪費時間。
+3.錯的題目很多，每一題都要講，回應又很差，就像是我自己在唸經。
+4.串並聯不會看。
+</t>
+  </si>
+  <si>
+    <t>1.上次上課唸完他，今天他就要上不上的。
+2.希望教一個不是由爸媽叫他來補習的學生，而是自己想要補的。</t>
+  </si>
+  <si>
+    <t>基電第四章</t>
+  </si>
+  <si>
+    <t>90*4</t>
+  </si>
+  <si>
+    <t>基地考卷</t>
+  </si>
+  <si>
+    <t>還行，計算錯誤要注意</t>
+  </si>
+  <si>
+    <t>朱恩霆</t>
+  </si>
+  <si>
+    <t>基本電學3-1</t>
+  </si>
+  <si>
+    <t>機電考卷選擇10題</t>
+  </si>
+  <si>
+    <t>計算速度太慢，需要再加強</t>
+  </si>
+  <si>
+    <t>作業檢討 / 2-6 P.102~P.104 / 3-1 P.112~P.115</t>
+  </si>
+  <si>
+    <t>(1/6)</t>
+  </si>
+  <si>
+    <t>2-6 學習成效驗收(全)</t>
+  </si>
+  <si>
+    <t>某些基本觀念沒有搞懂所以導致作業正確率低，在上課時的學習演練基本上都能寫出來，可能需要靠勤練來把正確率拉高，因此這次有出多一點作業</t>
+  </si>
+  <si>
+    <t>電阻串並聯、第一章</t>
+  </si>
+  <si>
+    <t>考卷20題</t>
   </si>
 </sst>
 </file>
@@ -842,7 +1027,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="18.88"/>
-    <col customWidth="1" min="3" max="3" width="29.75"/>
+    <col customWidth="1" min="3" max="3" width="41.5"/>
     <col customWidth="1" min="4" max="4" width="18.88"/>
     <col customWidth="1" min="5" max="5" width="23.38"/>
     <col customWidth="1" min="6" max="17" width="18.88"/>
@@ -1967,8 +2152,8 @@
       <c r="D36" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E36" s="4">
-        <v>8.070357095655E13</v>
+      <c r="E36" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="F36" s="5">
         <v>45507.0</v>
@@ -1980,10 +2165,10 @@
         <v>0.5208333333357587</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37">
@@ -1994,13 +2179,13 @@
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F37" s="5">
         <v>45509.0</v>
@@ -2012,10 +2197,10 @@
         <v>0.6666666666642413</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38">
@@ -2026,10 +2211,10 @@
         <v>88</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E38" s="4">
         <v>68.6</v>
@@ -2044,10 +2229,10 @@
         <v>0.6979166666642413</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39">
@@ -2061,7 +2246,7 @@
         <v>89</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E39" s="4">
         <v>83.0</v>
@@ -2076,17 +2261,543 @@
         <v>0.6145833333357587</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="A40" s="3">
+        <v>45509.774276261574</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" s="5">
+        <v>45509.0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3">
+        <v>45509.81053538194</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" s="4">
+        <v>72.0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>45509.0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0.33333333333575865</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3">
+        <v>45509.81241724537</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>45509.0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3">
+        <v>45509.81403400463</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="4">
+        <v>72.0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>45509.0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3">
+        <v>45509.82423449074</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" s="4">
+        <v>57.5</v>
+      </c>
+      <c r="F44" s="5">
+        <v>45509.0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3">
+        <v>45509.84567969908</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F45" s="5">
+        <v>45509.0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3">
+        <v>45509.84639634259</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="5">
+        <v>45509.0</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3">
+        <v>45509.85890449074</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="5">
+        <v>45509.0</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3">
+        <v>45509.86399034722</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" s="5">
+        <v>45509.0</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.7777777777810115</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0.8611111111094942</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3">
+        <v>45509.878249421294</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" s="5">
+        <v>45509.0</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3">
+        <v>45509.89092421296</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="5">
+        <v>45509.0</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3">
+        <v>45509.90540013889</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="5">
+        <v>45509.0</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3">
+        <v>45510.712372395836</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F52" s="5">
+        <v>45510.0</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0.7083333333357587</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3">
+        <v>45510.71800728009</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F53" s="5">
+        <v>45510.0</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3">
+        <v>45510.721646562495</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F54" s="5">
+        <v>45510.0</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3">
+        <v>45510.75437385417</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F55" s="5">
+        <v>45510.0</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.6666666666642413</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3">
+        <v>45510.818692835644</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F56" s="5">
+        <v>45510.0</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0.8125</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/input/上課記錄 (回覆).xlsx
+++ b/input/上課記錄 (回覆).xlsx
@@ -5,13 +5,15 @@
   <sheets>
     <sheet state="visible" name="表單回應 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'表單回應 1'!$A$1:$Q$96</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="379">
   <si>
     <t>時間戳記</t>
   </si>
@@ -749,6 +751,430 @@
   <si>
     <t>考卷20題</t>
   </si>
+  <si>
+    <t>許永暉</t>
+  </si>
+  <si>
+    <t>黃閔詮</t>
+  </si>
+  <si>
+    <t>力學第一章+第二章一點點</t>
+  </si>
+  <si>
+    <t>力學第一章</t>
+  </si>
+  <si>
+    <t>精神不錯 棒</t>
+  </si>
+  <si>
+    <t>許景崴</t>
+  </si>
+  <si>
+    <t>複習第二章</t>
+  </si>
+  <si>
+    <t>蔡辰哲</t>
+  </si>
+  <si>
+    <t>基本電學第三章電路，歷屆統測題</t>
+  </si>
+  <si>
+    <t>50,60,50</t>
+  </si>
+  <si>
+    <t>基本電學第一章基礎題</t>
+  </si>
+  <si>
+    <t>基本題型要再加強，計算能力要再練習</t>
+  </si>
+  <si>
+    <t>70 70</t>
+  </si>
+  <si>
+    <t>基本電學第三章講義基礎題</t>
+  </si>
+  <si>
+    <t>觀念蠻齊全，但計算要加強，多練題目會更熟</t>
+  </si>
+  <si>
+    <t>3-3 KVL 電壓定律 檢討作業</t>
+  </si>
+  <si>
+    <t>3-3 hot試題 4~12</t>
+  </si>
+  <si>
+    <t>以前教過的內容基本上是忘光了，節點跟密爾們會搞錯，戴維寧分析時算的方法也不知道自己在寫什麼，所以以前學過的不是忘記，就是混再一起寫，解題的步驟也是幾乎不記得，需要一提一題帶著寫，後面的單元很多都是連貫的，往後問也答不出基本的觀念，考過了就忘記了，這樣沒辦法考大範圍的考試(統測、模擬考)</t>
+  </si>
+  <si>
+    <t>黃僅佑</t>
+  </si>
+  <si>
+    <t>檢討回家作業和講義ch3-6</t>
+  </si>
+  <si>
+    <t>回家作業考卷(34/50):68分</t>
+  </si>
+  <si>
+    <t>基本電學講義統合模擬測驗1~33題</t>
+  </si>
+  <si>
+    <t>1.串並聯電路的題目還不太會。
+2.多個電源的電路不太會解題。</t>
+  </si>
+  <si>
+    <t>陳柏宇</t>
+  </si>
+  <si>
+    <t>葉宗澔</t>
+  </si>
+  <si>
+    <t>分析化學第一、二章</t>
+  </si>
+  <si>
+    <t>分析化學第一、二章考卷練習</t>
+  </si>
+  <si>
+    <t>回答問題 有時觀念沒有很清楚，會陷入毫無頭緒的狀態中。</t>
+  </si>
+  <si>
+    <t>2024/8/6 下午13:30</t>
+  </si>
+  <si>
+    <t>歷史第二章</t>
+  </si>
+  <si>
+    <t>歷史第二章+第一章</t>
+  </si>
+  <si>
+    <t>上課認真、積極配合</t>
+  </si>
+  <si>
+    <t>吳恪臣, 廖翊銘, 江學甫, 陳泓鍇, 黃鈺程</t>
+  </si>
+  <si>
+    <t>電子學 4-1~4-2 雙極性接面電晶體放大器工作原理&amp;交流等效電路</t>
+  </si>
+  <si>
+    <t>講義 第3章精選試題30題</t>
+  </si>
+  <si>
+    <t>上課認真，但之前多以公式解題，細節推導部分需另多加理解</t>
+  </si>
+  <si>
+    <t>賴威宏</t>
+  </si>
+  <si>
+    <t>吳恪臣</t>
+  </si>
+  <si>
+    <t>電工機械第五章</t>
+  </si>
+  <si>
+    <t>第五章剩下習題</t>
+  </si>
+  <si>
+    <t>題目多練錯的題目不要再錯了</t>
+  </si>
+  <si>
+    <t>戴維寧進度</t>
+  </si>
+  <si>
+    <t>基礎電路分數50分</t>
+  </si>
+  <si>
+    <t>戴維寧剩下習題</t>
+  </si>
+  <si>
+    <t>新題目比較多要多練習</t>
+  </si>
+  <si>
+    <t>基電3-3講解7</t>
+  </si>
+  <si>
+    <t>作業：73</t>
+  </si>
+  <si>
+    <t>3-1試題16-34題</t>
+  </si>
+  <si>
+    <t>回答狀況都ok，計算速度可以再慢慢提升</t>
+  </si>
+  <si>
+    <t>電子學ch3-1,3-2</t>
+  </si>
+  <si>
+    <t>4/5+17/22</t>
+  </si>
+  <si>
+    <t>ch3-1、3-2試題*50</t>
+  </si>
+  <si>
+    <t>基本的BJT結構跟解題步驟都來記得</t>
+  </si>
+  <si>
+    <t>基本電學9-1</t>
+  </si>
+  <si>
+    <t>回：80   考：70、80</t>
+  </si>
+  <si>
+    <t>基本電學考卷10～25</t>
+  </si>
+  <si>
+    <t>還行,但要記熟公式</t>
+  </si>
+  <si>
+    <t>數學第一冊2-4到最後一題</t>
+  </si>
+  <si>
+    <t>2-3成效驗收</t>
+  </si>
+  <si>
+    <t>回答跟寫題目的狀況良好</t>
+  </si>
+  <si>
+    <t>數位邏輯3-5 4-1</t>
+  </si>
+  <si>
+    <t>85分 78分</t>
+  </si>
+  <si>
+    <t>一二章習題+第三章全</t>
+  </si>
+  <si>
+    <t>第一章多背，基礎閘偶爾看錯</t>
+  </si>
+  <si>
+    <t>基電第四章結點</t>
+  </si>
+  <si>
+    <t>基電考卷</t>
+  </si>
+  <si>
+    <t>公式要背熟</t>
+  </si>
+  <si>
+    <t>數學三角函數角度徑度換算</t>
+  </si>
+  <si>
+    <t>數80 四則運算60</t>
+  </si>
+  <si>
+    <t>講義練習題</t>
+  </si>
+  <si>
+    <t>計算速度跟準確度要在加強</t>
+  </si>
+  <si>
+    <t>回家作業考卷(3/20):15分</t>
+  </si>
+  <si>
+    <t>考卷選擇26題和計算題10題</t>
+  </si>
+  <si>
+    <t>1.上課會回覆了，但是題型的觀念還是不太會。
+2.回家作業全部猜的，20題只對3題，上課都變成我在講。
+3.已經叮嚀要寫計算過程，一樣不寫。</t>
+  </si>
+  <si>
+    <t>國文112題目</t>
+  </si>
+  <si>
+    <t>完成112剩餘題目（不加作文）+複習上課檢討的題目</t>
+  </si>
+  <si>
+    <t>上課認真積極</t>
+  </si>
+  <si>
+    <t>張士庭</t>
+  </si>
+  <si>
+    <t>謝芷妍</t>
+  </si>
+  <si>
+    <t>1-3~1-4主題3</t>
+  </si>
+  <si>
+    <t>考卷一張，1-3講義剩下的題目</t>
+  </si>
+  <si>
+    <t>很專心，理解很快</t>
+  </si>
+  <si>
+    <t>第三章主題1~3</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
+    <t>考卷兩張剩下的題目，講義類題</t>
+  </si>
+  <si>
+    <t>很專心，會發問，速度比較快</t>
+  </si>
+  <si>
+    <t>莊珺婷</t>
+  </si>
+  <si>
+    <t>第三章主題1~主題3</t>
+  </si>
+  <si>
+    <t>4/5</t>
+  </si>
+  <si>
+    <t>一直想睡覺，比較不專心，題目寫得稍慢</t>
+  </si>
+  <si>
+    <t>節點電壓法</t>
+  </si>
+  <si>
+    <t>題目20題</t>
+  </si>
+  <si>
+    <t>第二冊 1/5三角餘弦</t>
+  </si>
+  <si>
+    <t>14/16</t>
+  </si>
+  <si>
+    <t>p99-102</t>
+  </si>
+  <si>
+    <t>有回應 舉一反三</t>
+  </si>
+  <si>
+    <t>何宥嶙</t>
+  </si>
+  <si>
+    <t>電工第一章</t>
+  </si>
+  <si>
+    <t>96/60</t>
+  </si>
+  <si>
+    <t>0805戴維寧考卷 0722電工考卷</t>
+  </si>
+  <si>
+    <t>非常好舉一反三</t>
+  </si>
+  <si>
+    <t>數學第四章</t>
+  </si>
+  <si>
+    <t>電子學第三章完</t>
+  </si>
+  <si>
+    <t>電子學講義第三章題目</t>
+  </si>
+  <si>
+    <t>基本觀念不太熟，要多複習寫題目</t>
+  </si>
+  <si>
+    <t>黃睿心</t>
+  </si>
+  <si>
+    <t>考電子學2-1~2-3,教電子學3-1完</t>
+  </si>
+  <si>
+    <t>100,85,65</t>
+  </si>
+  <si>
+    <t>電子學第三章講義題目</t>
+  </si>
+  <si>
+    <t>能快速吸收新觀念，多寫題目可加深熟練度</t>
+  </si>
+  <si>
+    <t>電子學第二章 整流電路</t>
+  </si>
+  <si>
+    <t>2-6 同步練習23 隨堂練習 歷屆試題</t>
+  </si>
+  <si>
+    <t>狀況比上週好許多，這週問的問題和題目的解題上反映有變快，沒有向上週依樣什麼都說不出來，可以的話繼續保持，會對自己比較有幫助</t>
+  </si>
+  <si>
+    <t>三角函數基礎複習 / 1-1 P.3~P.10</t>
+  </si>
+  <si>
+    <t>他說檔案不見</t>
+  </si>
+  <si>
+    <t>1-1學習成效驗收第3、4、5、6、8、10、11、13、16、17、19題</t>
+  </si>
+  <si>
+    <t>學習速度蠻快的，計算基礎稍弱，多練習可改善</t>
+  </si>
+  <si>
+    <t>數位邏輯 4-3重點二</t>
+  </si>
+  <si>
+    <t>作業：75</t>
+  </si>
+  <si>
+    <t>4-3立即練習、綜合測驗 共15題</t>
+  </si>
+  <si>
+    <t>回答狀況良好，寫題速度也ok</t>
+  </si>
+  <si>
+    <t>數位邏輯ch4-1～4-2</t>
+  </si>
+  <si>
+    <t>score:9/9（20分鐘），上次回家作業：11/15</t>
+  </si>
+  <si>
+    <t>ch4-1試題*5</t>
+  </si>
+  <si>
+    <t>手動化簡需要記熟原理</t>
+  </si>
+  <si>
+    <t>化工裝置第二章2-1~2-4</t>
+  </si>
+  <si>
+    <t>預習化工裝置2-5~2-6</t>
+  </si>
+  <si>
+    <t>學校的裝置老師大多細節未提，對於多處觀念細節無印象，以題目多練習的方式來增強記憶</t>
+  </si>
+  <si>
+    <t>檢討回家作業，講義Ch3-5~ch3-7觀念和習題</t>
+  </si>
+  <si>
+    <t>回家作業分數(31/38):81.5分</t>
+  </si>
+  <si>
+    <t>歷屆試題ch3-5~ch3-6，統合模擬測驗ch3-1~ch3-6</t>
+  </si>
+  <si>
+    <t>1.基本概念都能理解，比較難的題目只有稍微提醒一下就會了。
+2.對於較新的題目比較不會。</t>
+  </si>
+  <si>
+    <t>鄭名哲</t>
+  </si>
+  <si>
+    <t>力學2-1~2-3</t>
+  </si>
+  <si>
+    <t>2-1~2-3</t>
+  </si>
+  <si>
+    <t>三角函數要背</t>
+  </si>
+  <si>
+    <t>數位邏輯 第三單元完、4-1 ㄧ</t>
+  </si>
+  <si>
+    <t>作業50</t>
+  </si>
+  <si>
+    <t>4-1立即練習、課後習題</t>
+  </si>
+  <si>
+    <t>上週作業寫的不太好，花比較多時間訂正跟講解</t>
+  </si>
 </sst>
 </file>
 
@@ -757,7 +1183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -769,22 +1195,57 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+    </font>
+    <font>
+      <sz val="13.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -792,11 +1253,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -804,9 +1265,38 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1026,11 +1516,15 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="18.88"/>
-    <col customWidth="1" min="3" max="3" width="41.5"/>
-    <col customWidth="1" min="4" max="4" width="18.88"/>
-    <col customWidth="1" min="5" max="5" width="23.38"/>
-    <col customWidth="1" min="6" max="17" width="18.88"/>
+    <col customWidth="1" min="1" max="1" width="23.0"/>
+    <col customWidth="1" min="2" max="2" width="18.88"/>
+    <col customWidth="1" min="3" max="3" width="31.0"/>
+    <col customWidth="1" min="4" max="4" width="34.13"/>
+    <col customWidth="1" min="5" max="5" width="36.88"/>
+    <col customWidth="1" min="6" max="8" width="18.88"/>
+    <col customWidth="1" min="9" max="9" width="35.38"/>
+    <col customWidth="1" min="10" max="10" width="55.0"/>
+    <col customWidth="1" min="11" max="17" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1091,10 +1585,10 @@
       <c r="H2" s="6">
         <v>0.8333333333333334</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1123,7 +1617,7 @@
       <c r="H3" s="6">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1152,11 +1646,11 @@
       <c r="H4" s="6">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="127.5" customHeight="1">
       <c r="A5" s="3">
         <v>45505.717487835645</v>
       </c>
@@ -1181,10 +1675,10 @@
       <c r="H5" s="6">
         <v>0.7083333333357587</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1213,10 +1707,10 @@
       <c r="H6" s="6">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1245,10 +1739,10 @@
       <c r="H7" s="6">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1265,7 +1759,7 @@
       <c r="D8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="5">
@@ -1277,10 +1771,10 @@
       <c r="H8" s="6">
         <v>0.6458333333357587</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1309,10 +1803,10 @@
       <c r="H9" s="6">
         <v>0.8194444444452529</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1341,10 +1835,10 @@
       <c r="H10" s="6">
         <v>0.8611111111094942</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1373,10 +1867,10 @@
       <c r="H11" s="6">
         <v>0.8541666666642413</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1405,10 +1899,10 @@
       <c r="H12" s="6">
         <v>0.6458333333333334</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1437,10 +1931,10 @@
       <c r="H13" s="6">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1469,10 +1963,10 @@
       <c r="H14" s="6">
         <v>0.875</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1501,10 +1995,10 @@
       <c r="H15" s="6">
         <v>0.875</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1533,10 +2027,10 @@
       <c r="H16" s="6">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="7" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1565,10 +2059,10 @@
       <c r="H17" s="6">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="7" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1597,10 +2091,10 @@
       <c r="H18" s="6">
         <v>0.625</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="7" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1629,10 +2123,10 @@
       <c r="H19" s="6">
         <v>0.6458333333357587</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="7" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1661,10 +2155,10 @@
       <c r="H20" s="6">
         <v>0.6666666666642413</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1681,6 +2175,7 @@
       <c r="D21" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="5">
         <v>45506.0</v>
       </c>
@@ -1690,10 +2185,10 @@
       <c r="H21" s="6">
         <v>0.6666666666642413</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1710,6 +2205,7 @@
       <c r="D22" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="E22" s="9"/>
       <c r="F22" s="5">
         <v>45506.0</v>
       </c>
@@ -1719,7 +2215,7 @@
       <c r="H22" s="6">
         <v>0.6979166666642413</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1748,13 +2244,13 @@
       <c r="H23" s="6">
         <v>0.7569444444452529</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1783,10 +2279,10 @@
       <c r="H24" s="6">
         <v>0.6875</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="7" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1803,6 +2299,7 @@
       <c r="D25" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="5">
         <v>45506.0</v>
       </c>
@@ -1812,10 +2309,10 @@
       <c r="H25" s="6">
         <v>0.7083333333357587</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="7" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1832,6 +2329,7 @@
       <c r="D26" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="E26" s="9"/>
       <c r="F26" s="5">
         <v>45506.0</v>
       </c>
@@ -1841,10 +2339,10 @@
       <c r="H26" s="6">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="7" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1873,10 +2371,10 @@
       <c r="H27" s="6">
         <v>0.5</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="7" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1905,10 +2403,10 @@
       <c r="H28" s="6">
         <v>0.5</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="7" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1937,10 +2435,10 @@
       <c r="H29" s="6">
         <v>0.5208333333357587</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1969,10 +2467,10 @@
       <c r="H30" s="6">
         <v>0.5208333333357587</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="7" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2001,10 +2499,10 @@
       <c r="H31" s="6">
         <v>0.875</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="7" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2033,13 +2531,13 @@
       <c r="H32" s="6">
         <v>0.875</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="7" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2068,10 +2566,10 @@
       <c r="H33" s="6">
         <v>0.6701388888905058</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2100,10 +2598,10 @@
       <c r="H34" s="6">
         <v>0.45833333333575865</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="7" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2132,10 +2630,10 @@
       <c r="H35" s="6">
         <v>0.6458333333357587</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="7" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2164,10 +2662,10 @@
       <c r="H36" s="6">
         <v>0.5208333333357587</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="7" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2196,10 +2694,10 @@
       <c r="H37" s="6">
         <v>0.6666666666642413</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" s="7" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2228,10 +2726,10 @@
       <c r="H38" s="6">
         <v>0.6979166666642413</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="7" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2260,10 +2758,10 @@
       <c r="H39" s="6">
         <v>0.6145833333357587</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" s="7" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2292,10 +2790,10 @@
       <c r="H40" s="6">
         <v>0.5</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="7" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2322,12 +2820,12 @@
         <v>0.7291666666642413</v>
       </c>
       <c r="H41" s="6">
-        <v>0.33333333333575865</v>
-      </c>
-      <c r="I41" s="4" t="s">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I41" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="7" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2356,10 +2854,10 @@
       <c r="H42" s="6">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="7" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2388,10 +2886,10 @@
       <c r="H43" s="6">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="7" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2420,10 +2918,10 @@
       <c r="H44" s="6">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="7" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2440,6 +2938,7 @@
       <c r="D45" s="4" t="s">
         <v>197</v>
       </c>
+      <c r="E45" s="9"/>
       <c r="F45" s="5">
         <v>45509.0</v>
       </c>
@@ -2449,7 +2948,7 @@
       <c r="H45" s="6">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="7" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2466,6 +2965,7 @@
       <c r="D46" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="E46" s="9"/>
       <c r="F46" s="5">
         <v>45509.0</v>
       </c>
@@ -2475,7 +2975,7 @@
       <c r="H46" s="6">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="7" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2504,10 +3004,10 @@
       <c r="H47" s="6">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J47" s="7" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2536,10 +3036,10 @@
       <c r="H48" s="6">
         <v>0.8611111111094942</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J48" s="7" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2568,10 +3068,10 @@
       <c r="H49" s="6">
         <v>0.875</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J49" s="7" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2600,10 +3100,10 @@
       <c r="H50" s="6">
         <v>0.875</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" s="7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2632,10 +3132,10 @@
       <c r="H51" s="6">
         <v>0.875</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="J51" s="7" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2664,13 +3164,13 @@
       <c r="H52" s="6">
         <v>0.7083333333357587</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J52" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="7" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2699,10 +3199,10 @@
       <c r="H53" s="6">
         <v>0.6875</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="J53" s="7" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2719,6 +3219,7 @@
       <c r="D54" s="4" t="s">
         <v>230</v>
       </c>
+      <c r="E54" s="9"/>
       <c r="F54" s="5">
         <v>45510.0</v>
       </c>
@@ -2728,10 +3229,10 @@
       <c r="H54" s="6">
         <v>0.6875</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="J54" s="7" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2760,10 +3261,10 @@
       <c r="H55" s="6">
         <v>0.75</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I55" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="J55" s="7" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2780,6 +3281,7 @@
       <c r="D56" s="4" t="s">
         <v>237</v>
       </c>
+      <c r="E56" s="9"/>
       <c r="F56" s="5">
         <v>45510.0</v>
       </c>
@@ -2789,17 +3291,1397 @@
       <c r="H56" s="6">
         <v>0.8125</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="A57" s="3">
+        <v>45510.835785</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="5">
+        <v>45510.0</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3">
+        <v>45510.84185724537</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E58" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="F58" s="5">
+        <v>45510.0</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3">
+        <v>45510.84254329861</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E59" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>45510.0</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3">
+        <v>45510.843193796296</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E60" s="4">
+        <v>72.0</v>
+      </c>
+      <c r="F60" s="5">
+        <v>45510.0</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3">
+        <v>45510.85132635417</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F61" s="5">
+        <v>45510.0</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3">
+        <v>45510.85229707176</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F62" s="5">
+        <v>45510.0</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3">
+        <v>45510.87866071759</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="5">
+        <v>45510.0</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3">
+        <v>45511.646784965276</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F64" s="5">
+        <v>45511.0</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0.6458333333357587</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3">
+        <v>45511.65950715278</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="5">
+        <v>45511.0</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0.6458333333357587</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E66" s="11">
+        <v>90.0</v>
+      </c>
+      <c r="F66" s="12">
+        <v>45510.0</v>
+      </c>
+      <c r="G66" s="13">
+        <v>0.5638888888934162</v>
+      </c>
+      <c r="H66" s="13">
+        <v>0.65625</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3">
+        <v>45511.82169896991</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E67" s="4">
+        <v>7.58585805E9</v>
+      </c>
+      <c r="F67" s="5">
+        <v>45510.0</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3">
+        <v>45511.83680295139</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E68" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="F68" s="5">
+        <v>45511.0</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3">
+        <v>45511.83815024306</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F69" s="5">
+        <v>45511.0</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H69" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3">
+        <v>45511.878455266204</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F70" s="5">
+        <v>45511.0</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="H70" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3">
+        <v>45512.42045942129</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F71" s="5">
+        <v>45511.0</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="H71" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3">
+        <v>45512.60275451389</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F72" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="H72" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3">
+        <v>45512.63213428241</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F73" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0.5416666666642413</v>
+      </c>
+      <c r="H73" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3">
+        <v>45512.69596978009</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F74" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H74" s="6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3">
+        <v>45512.69859368056</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E75" s="4">
+        <v>9.0100706E8</v>
+      </c>
+      <c r="F75" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G75" s="6">
+        <v>0.6041666666642413</v>
+      </c>
+      <c r="H75" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3">
+        <v>45512.70045671296</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F76" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G76" s="6">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0.6937499999985448</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3">
+        <v>45512.71122597222</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F77" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G77" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="H77" s="6">
+        <v>0.7083333333357587</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="16">
+        <v>45512.71421289352</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G78" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="H78" s="6">
+        <v>0.6527777777810115</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="16">
+        <v>45512.735423136575</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F79" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G79" s="6">
+        <v>0.5416666666642413</v>
+      </c>
+      <c r="H79" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="16">
+        <v>45512.736704675925</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="F80" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G80" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="H80" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="16">
+        <v>45512.737649166666</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="F81" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G81" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="H81" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="16">
+        <v>45512.82361603009</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F82" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G82" s="6">
+        <v>0.7312499999970896</v>
+      </c>
+      <c r="H82" s="6">
+        <v>0.8145833333328483</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="16">
+        <v>45512.82577055556</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F83" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G83" s="6">
+        <v>0.7361111111094942</v>
+      </c>
+      <c r="H83" s="6">
+        <v>0.8194444444452529</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="16">
+        <v>45512.82885111111</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F84" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G84" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H84" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="16">
+        <v>45512.832905243056</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F85" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G85" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H85" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="16">
+        <v>45512.833527546296</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F86" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G86" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H86" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="16">
+        <v>45512.83682524305</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E87" s="7">
+        <v>76.0</v>
+      </c>
+      <c r="F87" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G87" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H87" s="6">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="16">
+        <v>45512.83873013889</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F88" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G88" s="6">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H88" s="6">
+        <v>0.8541666666642413</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="16">
+        <v>45512.85888971065</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G89" s="6">
+        <v>0.7708333333357587</v>
+      </c>
+      <c r="H89" s="6">
+        <v>0.8541666666642413</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="16">
+        <v>45512.87948270833</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F90" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G90" s="6">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="H90" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="16">
+        <v>45512.88242925926</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F91" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G91" s="6">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="H91" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="16">
+        <v>45512.90771625</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F92" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="G92" s="6">
+        <v>0.8125</v>
+      </c>
+      <c r="H92" s="6">
+        <v>0.8125</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="16">
+        <v>45513.64799361111</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F93" s="5">
+        <v>45513.0</v>
+      </c>
+      <c r="G93" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="H93" s="6">
+        <v>0.6458333333357587</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="16">
+        <v>45513.67226403936</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F94" s="5">
+        <v>45513.0</v>
+      </c>
+      <c r="G94" s="6">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H94" s="6">
+        <v>0.6666666666642413</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="16">
+        <v>45513.678024583336</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F95" s="5">
+        <v>45513.0</v>
+      </c>
+      <c r="G95" s="6">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H95" s="6">
+        <v>0.6736111111094942</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="16">
+        <v>45513.67839369213</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F96" s="5">
+        <v>45513.0</v>
+      </c>
+      <c r="G96" s="6">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H96" s="6">
+        <v>0.6666666666642413</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="18"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="18"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="18"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="18"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$Q$96"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/上課記錄 (回覆).xlsx
+++ b/input/上課記錄 (回覆).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="608">
   <si>
     <t>時間戳記</t>
   </si>
@@ -538,19 +538,28 @@
     <t>傅俊翔</t>
   </si>
   <si>
-    <t>吳恪臣, 廖翊銘, 李品諭, 林品言, 林政諺, 陳泓鍇, 黃鈺程</t>
+    <t>吳恪臣</t>
   </si>
   <si>
     <t>數學：檢討第2單元三角函數考卷及作業、3-1向量及其基本運算</t>
   </si>
   <si>
-    <t>80 70 35 70 95 65 50</t>
-  </si>
-  <si>
     <t>講義第2單元-統測考古題</t>
   </si>
   <si>
     <t>上課尚認真，但三角函數單元較不熟練，需多加練習</t>
+  </si>
+  <si>
+    <t>廖翊銘</t>
+  </si>
+  <si>
+    <t>林品言</t>
+  </si>
+  <si>
+    <t>林政諺</t>
+  </si>
+  <si>
+    <t>陳泓鍇</t>
   </si>
   <si>
     <t>陳言珉</t>
@@ -883,9 +892,6 @@
     <t>賴威宏</t>
   </si>
   <si>
-    <t>吳恪臣</t>
-  </si>
-  <si>
     <t>電工機械第五章</t>
   </si>
   <si>
@@ -1237,9 +1243,6 @@
     <t>20題</t>
   </si>
   <si>
-    <t>廖翊銘</t>
-  </si>
-  <si>
     <t>程式設計 指標及陣列</t>
   </si>
   <si>
@@ -1261,9 +1264,6 @@
     <t>程式設計 變數及判斷 55分</t>
   </si>
   <si>
-    <t>陳泓鍇</t>
-  </si>
-  <si>
     <t>程式設計 變數及判斷 70分</t>
   </si>
   <si>
@@ -1369,9 +1369,6 @@
     <t>上課認真，解題速度快，但經度可能要再提升</t>
   </si>
   <si>
-    <t>林品言</t>
-  </si>
-  <si>
     <t>50 補考60分</t>
   </si>
   <si>
@@ -1396,19 +1393,16 @@
     <t>第二單元的公式多 容易搞混，需要多練習，計算速度也可以再提升</t>
   </si>
   <si>
-    <t>吳恪臣, 廖翊銘, 李品諭, 林品言, 陳泓鍇, 黃鈺程</t>
-  </si>
-  <si>
     <t>數學：檢討考卷及作業、第3單元 3-1向量基本運算~3-2向量內積</t>
   </si>
   <si>
-    <t>75、95、40、75、55(補考75)、50</t>
-  </si>
-  <si>
     <t>講義3-1及3-2段落測驗</t>
   </si>
   <si>
     <t>三角函數問題較多，向量問題較少，考試及複習將穿插三角函數題目以做練習</t>
+  </si>
+  <si>
+    <t>55(補考75)</t>
   </si>
   <si>
     <t>電子學：4-1電晶體工作原理~4-2電晶體交流等校電路</t>
@@ -1719,6 +1713,157 @@
   </si>
   <si>
     <t>能夠自己把完整過程寫出來</t>
+  </si>
+  <si>
+    <t>1-1、1-2複習、考試、檢討</t>
+  </si>
+  <si>
+    <t>1-3、1-4考卷</t>
+  </si>
+  <si>
+    <t>感覺回家未複習上課內容，大多觀念已講多次，卻時常錯誤</t>
+  </si>
+  <si>
+    <t>分析化學第二章考卷檢討、3-1、3-2</t>
+  </si>
+  <si>
+    <t>80分</t>
+  </si>
+  <si>
+    <t>分析第二章練習題</t>
+  </si>
+  <si>
+    <t>計算題答對率高，但觀念、理論題顯得較弱，應在原理部分多琢磨</t>
+  </si>
+  <si>
+    <t>112-2英文統測模擬試題1-16題，高頻率單字第六回30個</t>
+  </si>
+  <si>
+    <t>112-2英文統測模擬試題17-20題，背第五第六回單字</t>
+  </si>
+  <si>
+    <t>答題狀況中等，上單字有認真聽</t>
+  </si>
+  <si>
+    <t>直線與圓 指數</t>
+  </si>
+  <si>
+    <t>直線與圓習題全</t>
+  </si>
+  <si>
+    <t>精神很好，吸收也很快很專心</t>
+  </si>
+  <si>
+    <t>基本電學第三章</t>
+  </si>
+  <si>
+    <t>今天練習的題目</t>
+  </si>
+  <si>
+    <t>公式需要背熟
+數學運算要理解</t>
+  </si>
+  <si>
+    <t>電子學2-1~2-3考試，教3-1~3-2一半</t>
+  </si>
+  <si>
+    <t>50 85</t>
+  </si>
+  <si>
+    <t>電子學講義3-1題目</t>
+  </si>
+  <si>
+    <t>要多複習，基礎要打好才能進下個章節</t>
+  </si>
+  <si>
+    <t>賴依伶</t>
+  </si>
+  <si>
+    <t>70 80</t>
+  </si>
+  <si>
+    <t>新進度可以吸收，但第二章基礎還不夠熟，要多自己讀書</t>
+  </si>
+  <si>
+    <t>90 85</t>
+  </si>
+  <si>
+    <t>第二章精熟，能順利銜接新進度，表現認真</t>
+  </si>
+  <si>
+    <t>基本電學 4-5~4-7</t>
+  </si>
+  <si>
+    <t>基本電學第一章~第四章 60分</t>
+  </si>
+  <si>
+    <t>基礎題16~56</t>
+  </si>
+  <si>
+    <t>需要多練習題目</t>
+  </si>
+  <si>
+    <t>基本電學4-5~4-7</t>
+  </si>
+  <si>
+    <t>基本電學第一章~第四章 50分</t>
+  </si>
+  <si>
+    <t>基本電學16~56題</t>
+  </si>
+  <si>
+    <t>可以</t>
+  </si>
+  <si>
+    <t>基本電學第一章~第四章 30分</t>
+  </si>
+  <si>
+    <t>題目需多練習</t>
+  </si>
+  <si>
+    <t>基本電學第一章~第四章 65分</t>
+  </si>
+  <si>
+    <t>基本電學基礎題全</t>
+  </si>
+  <si>
+    <t>戴維寧需要多練習</t>
+  </si>
+  <si>
+    <t>會主動問問題</t>
+  </si>
+  <si>
+    <t>電子學3-2</t>
+  </si>
+  <si>
+    <t>70分、60分</t>
+  </si>
+  <si>
+    <t>電子學3-1~3-2考卷選擇31~50題</t>
+  </si>
+  <si>
+    <t>公式與觀念還不太熟悉，要記熟</t>
+  </si>
+  <si>
+    <t>電子學ch3-3</t>
+  </si>
+  <si>
+    <t>score:10/10（花費10m)，上次回家作業：33/50</t>
+  </si>
+  <si>
+    <t>ch3-2~3-2*30</t>
+  </si>
+  <si>
+    <t>解題速度快</t>
+  </si>
+  <si>
+    <t>基電9-2交流RL串連</t>
+  </si>
+  <si>
+    <t>基電考卷選擇1~20題</t>
+  </si>
+  <si>
+    <t>還行，但基本公式要背熟</t>
   </si>
 </sst>
 </file>
@@ -1907,10 +2052,10 @@
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -1918,13 +2063,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -1934,7 +2079,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2013,6 +2158,21 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2020,7 +2180,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -2028,23 +2188,11 @@
     <xf borderId="5" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -2159,7 +2307,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Q162" displayName="表_1" name="表_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Q189" displayName="表_1" name="表_1" id="1">
   <tableColumns count="17">
     <tableColumn name="時間戳記" id="1"/>
     <tableColumn name="老師姓名" id="2"/>
@@ -3778,8 +3926,8 @@
       <c r="D36" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>172</v>
+      <c r="E36" s="7">
+        <v>80.0</v>
       </c>
       <c r="F36" s="8">
         <v>45507.0</v>
@@ -3791,10 +3939,10 @@
         <v>0.5208333333357587</v>
       </c>
       <c r="I36" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J36" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
@@ -3806,34 +3954,34 @@
     </row>
     <row r="37">
       <c r="A37" s="12">
-        <v>45509.67155097223</v>
+        <v>45509.653293020834</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>177</v>
+        <v>171</v>
+      </c>
+      <c r="E37" s="14">
+        <v>70.0</v>
       </c>
       <c r="F37" s="15">
-        <v>45509.0</v>
+        <v>45507.0</v>
       </c>
       <c r="G37" s="16">
-        <v>0.6041666666642413</v>
+        <v>0.41666666666424135</v>
       </c>
       <c r="H37" s="16">
-        <v>0.6666666666642413</v>
+        <v>0.5208333333357587</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
@@ -3845,34 +3993,34 @@
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>45509.702451296296</v>
+        <v>45509.653293020834</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E38" s="7">
-        <v>68.6</v>
+        <v>35.0</v>
       </c>
       <c r="F38" s="8">
-        <v>45509.0</v>
+        <v>45507.0</v>
       </c>
       <c r="G38" s="9">
-        <v>0.6145833333357587</v>
+        <v>0.41666666666424135</v>
       </c>
       <c r="H38" s="9">
-        <v>0.6979166666642413</v>
+        <v>0.5208333333357587</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
@@ -3884,34 +4032,34 @@
     </row>
     <row r="39">
       <c r="A39" s="12">
-        <v>45509.703719490746</v>
+        <v>45509.653293020834</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E39" s="14">
-        <v>83.0</v>
+        <v>70.0</v>
       </c>
       <c r="F39" s="15">
-        <v>45509.0</v>
+        <v>45507.0</v>
       </c>
       <c r="G39" s="16">
-        <v>0.53125</v>
+        <v>0.41666666666424135</v>
       </c>
       <c r="H39" s="16">
-        <v>0.6145833333357587</v>
+        <v>0.5208333333357587</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
@@ -3923,34 +4071,34 @@
     </row>
     <row r="40">
       <c r="A40" s="5">
-        <v>45509.774276261574</v>
+        <v>45509.653293020834</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
+      </c>
+      <c r="E40" s="7">
+        <v>95.0</v>
       </c>
       <c r="F40" s="8">
-        <v>45509.0</v>
+        <v>45507.0</v>
       </c>
       <c r="G40" s="9">
         <v>0.41666666666424135</v>
       </c>
       <c r="H40" s="9">
-        <v>0.5</v>
+        <v>0.5208333333357587</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
@@ -3962,34 +4110,34 @@
     </row>
     <row r="41">
       <c r="A41" s="12">
-        <v>45509.81053538194</v>
+        <v>45509.653293020834</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="E41" s="14">
-        <v>72.0</v>
+        <v>65.0</v>
       </c>
       <c r="F41" s="15">
-        <v>45509.0</v>
+        <v>45507.0</v>
       </c>
       <c r="G41" s="16">
-        <v>0.7291666666642413</v>
+        <v>0.41666666666424135</v>
       </c>
       <c r="H41" s="16">
-        <v>0.8333333333357587</v>
+        <v>0.5208333333357587</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
@@ -4001,34 +4149,34 @@
     </row>
     <row r="42">
       <c r="A42" s="5">
-        <v>45509.81241724537</v>
+        <v>45509.653293020834</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="E42" s="7">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
       <c r="F42" s="8">
-        <v>45509.0</v>
+        <v>45507.0</v>
       </c>
       <c r="G42" s="9">
-        <v>0.7291666666642413</v>
+        <v>0.41666666666424135</v>
       </c>
       <c r="H42" s="9">
-        <v>0.8333333333357587</v>
+        <v>0.5208333333357587</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
@@ -4040,34 +4188,34 @@
     </row>
     <row r="43">
       <c r="A43" s="12">
-        <v>45509.81403400463</v>
+        <v>45509.67155097223</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E43" s="14">
-        <v>72.0</v>
+        <v>179</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="F43" s="15">
         <v>45509.0</v>
       </c>
       <c r="G43" s="16">
-        <v>0.7291666666642413</v>
+        <v>0.6041666666642413</v>
       </c>
       <c r="H43" s="16">
-        <v>0.8333333333357587</v>
+        <v>0.6666666666642413</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
@@ -4079,34 +4227,34 @@
     </row>
     <row r="44">
       <c r="A44" s="5">
-        <v>45509.82423449074</v>
+        <v>45509.702451296296</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E44" s="7">
-        <v>57.5</v>
+        <v>68.6</v>
       </c>
       <c r="F44" s="8">
         <v>45509.0</v>
       </c>
       <c r="G44" s="9">
-        <v>0.7291666666642413</v>
+        <v>0.6145833333357587</v>
       </c>
       <c r="H44" s="9">
-        <v>0.8333333333357587</v>
+        <v>0.6979166666642413</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
@@ -4118,31 +4266,35 @@
     </row>
     <row r="45">
       <c r="A45" s="12">
-        <v>45509.84567969908</v>
+        <v>45509.703719490746</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="E45" s="20"/>
+        <v>187</v>
+      </c>
+      <c r="E45" s="14">
+        <v>83.0</v>
+      </c>
       <c r="F45" s="15">
         <v>45509.0</v>
       </c>
       <c r="G45" s="16">
-        <v>0.7291666666642413</v>
+        <v>0.53125</v>
       </c>
       <c r="H45" s="16">
-        <v>0.8333333333357587</v>
+        <v>0.6145833333357587</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="J45" s="17"/>
+        <v>188</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>189</v>
+      </c>
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
@@ -4153,31 +4305,35 @@
     </row>
     <row r="46">
       <c r="A46" s="5">
-        <v>45509.84639634259</v>
+        <v>45509.774276261574</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E46" s="21"/>
+        <v>191</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="F46" s="8">
         <v>45509.0</v>
       </c>
       <c r="G46" s="9">
-        <v>0.75</v>
+        <v>0.41666666666424135</v>
       </c>
       <c r="H46" s="9">
-        <v>0.8333333333357587</v>
+        <v>0.5</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="J46" s="10"/>
+        <v>193</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
@@ -4188,19 +4344,19 @@
     </row>
     <row r="47">
       <c r="A47" s="12">
-        <v>45509.85890449074</v>
+        <v>45509.81053538194</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>62</v>
+        <v>195</v>
+      </c>
+      <c r="E47" s="14">
+        <v>72.0</v>
       </c>
       <c r="F47" s="15">
         <v>45509.0</v>
@@ -4212,10 +4368,10 @@
         <v>0.8333333333357587</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
@@ -4227,34 +4383,34 @@
     </row>
     <row r="48">
       <c r="A48" s="5">
-        <v>45509.86399034722</v>
+        <v>45509.81241724537</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>214</v>
+        <v>195</v>
+      </c>
+      <c r="E48" s="7">
+        <v>57.0</v>
       </c>
       <c r="F48" s="8">
         <v>45509.0</v>
       </c>
       <c r="G48" s="9">
-        <v>0.7777777777810115</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H48" s="9">
-        <v>0.8611111111094942</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
@@ -4266,34 +4422,34 @@
     </row>
     <row r="49">
       <c r="A49" s="12">
-        <v>45509.878249421294</v>
+        <v>45509.81403400463</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>218</v>
+        <v>195</v>
+      </c>
+      <c r="E49" s="14">
+        <v>72.0</v>
       </c>
       <c r="F49" s="15">
         <v>45509.0</v>
       </c>
       <c r="G49" s="16">
-        <v>0.7916666666642413</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H49" s="16">
-        <v>0.875</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
@@ -4305,32 +4461,34 @@
     </row>
     <row r="50">
       <c r="A50" s="5">
-        <v>45509.89092421296</v>
+        <v>45509.82423449074</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E50" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="E50" s="7">
+        <v>57.5</v>
+      </c>
       <c r="F50" s="8">
         <v>45509.0</v>
       </c>
       <c r="G50" s="9">
-        <v>0.7916666666642413</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H50" s="9">
-        <v>0.875</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -4342,35 +4500,31 @@
     </row>
     <row r="51">
       <c r="A51" s="12">
-        <v>45509.90540013889</v>
+        <v>45509.84567969908</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>62</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E51" s="20"/>
       <c r="F51" s="15">
         <v>45509.0</v>
       </c>
       <c r="G51" s="16">
-        <v>0.7916666666642413</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H51" s="16">
-        <v>0.875</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>227</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="J51" s="17"/>
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
@@ -4381,38 +4535,32 @@
     </row>
     <row r="52">
       <c r="A52" s="5">
-        <v>45510.712372395836</v>
+        <v>45509.84639634259</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>228</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E52" s="21"/>
       <c r="F52" s="8">
-        <v>45510.0</v>
+        <v>45509.0</v>
       </c>
       <c r="G52" s="9">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="H52" s="9">
-        <v>0.7083333333357587</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>231</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
@@ -4422,34 +4570,34 @@
     </row>
     <row r="53">
       <c r="A53" s="12">
-        <v>45510.71800728009</v>
+        <v>45509.85890449074</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>233</v>
+        <v>62</v>
       </c>
       <c r="F53" s="15">
-        <v>45510.0</v>
+        <v>45509.0</v>
       </c>
       <c r="G53" s="16">
-        <v>0.5833333333357587</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H53" s="16">
-        <v>0.6875</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
@@ -4461,32 +4609,34 @@
     </row>
     <row r="54">
       <c r="A54" s="5">
-        <v>45510.721646562495</v>
+        <v>45509.86399034722</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E54" s="21"/>
+        <v>216</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="F54" s="8">
-        <v>45510.0</v>
+        <v>45509.0</v>
       </c>
       <c r="G54" s="9">
-        <v>0.5833333333357587</v>
+        <v>0.7777777777810115</v>
       </c>
       <c r="H54" s="9">
-        <v>0.6875</v>
+        <v>0.8611111111094942</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
@@ -4498,34 +4648,34 @@
     </row>
     <row r="55">
       <c r="A55" s="12">
-        <v>45510.75437385417</v>
+        <v>45509.878249421294</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="F55" s="15">
-        <v>45510.0</v>
+        <v>45509.0</v>
       </c>
       <c r="G55" s="16">
-        <v>0.6666666666642413</v>
+        <v>0.7916666666642413</v>
       </c>
       <c r="H55" s="16">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
@@ -4537,31 +4687,33 @@
     </row>
     <row r="56">
       <c r="A56" s="5">
-        <v>45510.818692835644</v>
+        <v>45509.89092421296</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E56" s="21"/>
+        <v>224</v>
+      </c>
+      <c r="E56" s="7"/>
       <c r="F56" s="8">
-        <v>45510.0</v>
+        <v>45509.0</v>
       </c>
       <c r="G56" s="9">
-        <v>0.75</v>
+        <v>0.7916666666642413</v>
       </c>
       <c r="H56" s="9">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="J56" s="10"/>
+        <v>225</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
@@ -4572,32 +4724,34 @@
     </row>
     <row r="57">
       <c r="A57" s="12">
-        <v>45510.835785</v>
+        <v>45509.90540013889</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>247</v>
+        <v>105</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E57" s="20"/>
+        <v>228</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="F57" s="15">
-        <v>45510.0</v>
+        <v>45509.0</v>
       </c>
       <c r="G57" s="16">
-        <v>0.7291666666642413</v>
+        <v>0.7916666666642413</v>
       </c>
       <c r="H57" s="16">
-        <v>0.8333333333357587</v>
+        <v>0.875</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
@@ -4609,34 +4763,38 @@
     </row>
     <row r="58">
       <c r="A58" s="5">
-        <v>45510.84185724537</v>
+        <v>45510.712372395836</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E58" s="7">
-        <v>65.0</v>
+        <v>30</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="F58" s="8">
         <v>45510.0</v>
       </c>
       <c r="G58" s="9">
-        <v>0.7291666666642413</v>
+        <v>0.625</v>
       </c>
       <c r="H58" s="9">
-        <v>0.8333333333357587</v>
+        <v>0.7083333333357587</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
+        <v>232</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
@@ -4646,33 +4804,35 @@
     </row>
     <row r="59">
       <c r="A59" s="12">
-        <v>45510.84254329861</v>
+        <v>45510.71800728009</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E59" s="14">
-        <v>62.0</v>
+        <v>235</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>236</v>
       </c>
       <c r="F59" s="15">
         <v>45510.0</v>
       </c>
       <c r="G59" s="16">
-        <v>0.7291666666642413</v>
+        <v>0.5833333333357587</v>
       </c>
       <c r="H59" s="16">
-        <v>0.8333333333357587</v>
+        <v>0.6875</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J59" s="17"/>
+        <v>237</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>238</v>
+      </c>
       <c r="K59" s="17"/>
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
@@ -4683,33 +4843,33 @@
     </row>
     <row r="60">
       <c r="A60" s="5">
-        <v>45510.843193796296</v>
+        <v>45510.721646562495</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E60" s="7">
-        <v>72.0</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E60" s="21"/>
       <c r="F60" s="8">
         <v>45510.0</v>
       </c>
       <c r="G60" s="9">
-        <v>0.7291666666642413</v>
+        <v>0.5833333333357587</v>
       </c>
       <c r="H60" s="9">
-        <v>0.8333333333357587</v>
+        <v>0.6875</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J60" s="10"/>
+        <v>241</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
@@ -4720,34 +4880,34 @@
     </row>
     <row r="61">
       <c r="A61" s="12">
-        <v>45510.85132635417</v>
+        <v>45510.75437385417</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F61" s="15">
         <v>45510.0</v>
       </c>
       <c r="G61" s="16">
-        <v>0.7291666666642413</v>
+        <v>0.6666666666642413</v>
       </c>
       <c r="H61" s="16">
-        <v>0.8333333333357587</v>
+        <v>0.75</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
@@ -4759,35 +4919,31 @@
     </row>
     <row r="62">
       <c r="A62" s="5">
-        <v>45510.85229707176</v>
+        <v>45510.818692835644</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>258</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="E62" s="21"/>
       <c r="F62" s="8">
         <v>45510.0</v>
       </c>
       <c r="G62" s="9">
-        <v>0.7291666666642413</v>
+        <v>0.75</v>
       </c>
       <c r="H62" s="9">
-        <v>0.8333333333357587</v>
+        <v>0.8125</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>260</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="J62" s="10"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
@@ -4798,32 +4954,32 @@
     </row>
     <row r="63">
       <c r="A63" s="12">
-        <v>45510.87866071759</v>
+        <v>45510.835785</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>59</v>
+        <v>249</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="E63" s="14"/>
+        <v>251</v>
+      </c>
+      <c r="E63" s="20"/>
       <c r="F63" s="15">
         <v>45510.0</v>
       </c>
       <c r="G63" s="16">
-        <v>0.7916666666642413</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H63" s="16">
-        <v>0.875</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="K63" s="17"/>
       <c r="L63" s="17"/>
@@ -4835,35 +4991,33 @@
     </row>
     <row r="64">
       <c r="A64" s="5">
-        <v>45511.646784965276</v>
+        <v>45510.84185724537</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>264</v>
+        <v>201</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
+      </c>
+      <c r="E64" s="7">
+        <v>65.0</v>
       </c>
       <c r="F64" s="8">
-        <v>45511.0</v>
+        <v>45510.0</v>
       </c>
       <c r="G64" s="9">
-        <v>0.5625</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H64" s="9">
-        <v>0.6458333333357587</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>268</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J64" s="10"/>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
@@ -4874,33 +5028,33 @@
     </row>
     <row r="65">
       <c r="A65" s="12">
-        <v>45511.65950715278</v>
+        <v>45510.84254329861</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="E65" s="20"/>
+        <v>255</v>
+      </c>
+      <c r="E65" s="14">
+        <v>62.0</v>
+      </c>
       <c r="F65" s="15">
-        <v>45511.0</v>
+        <v>45510.0</v>
       </c>
       <c r="G65" s="16">
-        <v>0.5625</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H65" s="16">
-        <v>0.6458333333357587</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="J65" s="13" t="s">
-        <v>273</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J65" s="17"/>
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
       <c r="M65" s="17"/>
@@ -4910,36 +5064,34 @@
       <c r="Q65" s="18"/>
     </row>
     <row r="66">
-      <c r="A66" s="22" t="s">
-        <v>274</v>
+      <c r="A66" s="5">
+        <v>45510.843193796296</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E66" s="7">
-        <v>90.0</v>
+        <v>72.0</v>
       </c>
       <c r="F66" s="8">
         <v>45510.0</v>
       </c>
       <c r="G66" s="9">
-        <v>0.5638888888934162</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H66" s="9">
-        <v>0.65625</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>277</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J66" s="10"/>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
@@ -4950,34 +5102,34 @@
     </row>
     <row r="67">
       <c r="A67" s="12">
-        <v>45511.82169896991</v>
+        <v>45510.85132635417</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>278</v>
+        <v>23</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E67" s="14">
-        <v>7.58585805E9</v>
+        <v>257</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>258</v>
       </c>
       <c r="F67" s="15">
         <v>45510.0</v>
       </c>
       <c r="G67" s="16">
-        <v>0.5833333333357587</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H67" s="16">
-        <v>0.6875</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="K67" s="17"/>
       <c r="L67" s="17"/>
@@ -4989,22 +5141,22 @@
     </row>
     <row r="68">
       <c r="A68" s="5">
-        <v>45511.83680295139</v>
+        <v>45510.85229707176</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>282</v>
+        <v>86</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>283</v>
+        <v>123</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E68" s="7">
-        <v>67.5</v>
+        <v>257</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>261</v>
       </c>
       <c r="F68" s="8">
-        <v>45511.0</v>
+        <v>45510.0</v>
       </c>
       <c r="G68" s="9">
         <v>0.7291666666642413</v>
@@ -5013,10 +5165,10 @@
         <v>0.8333333333357587</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
@@ -5028,34 +5180,32 @@
     </row>
     <row r="69">
       <c r="A69" s="12">
-        <v>45511.83815024306</v>
+        <v>45510.87866071759</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>282</v>
+        <v>59</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>288</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="E69" s="14"/>
       <c r="F69" s="15">
-        <v>45511.0</v>
+        <v>45510.0</v>
       </c>
       <c r="G69" s="16">
-        <v>0.7291666666642413</v>
+        <v>0.7916666666642413</v>
       </c>
       <c r="H69" s="16">
-        <v>0.8333333333357587</v>
+        <v>0.875</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="K69" s="17"/>
       <c r="L69" s="17"/>
@@ -5067,34 +5217,34 @@
     </row>
     <row r="70">
       <c r="A70" s="5">
-        <v>45511.878455266204</v>
+        <v>45511.646784965276</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="F70" s="8">
         <v>45511.0</v>
       </c>
       <c r="G70" s="9">
-        <v>0.7916666666642413</v>
+        <v>0.5625</v>
       </c>
       <c r="H70" s="9">
-        <v>0.875</v>
+        <v>0.6458333333357587</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
@@ -5106,34 +5256,32 @@
     </row>
     <row r="71">
       <c r="A71" s="12">
-        <v>45512.42045942129</v>
+        <v>45511.65950715278</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>296</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="E71" s="20"/>
       <c r="F71" s="15">
         <v>45511.0</v>
       </c>
       <c r="G71" s="16">
-        <v>0.7916666666642413</v>
+        <v>0.5625</v>
       </c>
       <c r="H71" s="16">
-        <v>0.875</v>
+        <v>0.6458333333357587</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
@@ -5144,35 +5292,35 @@
       <c r="Q71" s="18"/>
     </row>
     <row r="72">
-      <c r="A72" s="5">
-        <v>45512.60275451389</v>
+      <c r="A72" s="22" t="s">
+        <v>277</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>300</v>
+        <v>278</v>
+      </c>
+      <c r="E72" s="7">
+        <v>90.0</v>
       </c>
       <c r="F72" s="8">
-        <v>45512.0</v>
+        <v>45510.0</v>
       </c>
       <c r="G72" s="9">
-        <v>0.41666666666424135</v>
+        <v>0.5638888888934162</v>
       </c>
       <c r="H72" s="9">
-        <v>0.5</v>
+        <v>0.65625</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
@@ -5184,34 +5332,34 @@
     </row>
     <row r="73">
       <c r="A73" s="12">
-        <v>45512.63213428241</v>
+        <v>45511.82169896991</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>158</v>
+        <v>281</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>292</v>
+        <v>282</v>
+      </c>
+      <c r="E73" s="14">
+        <v>7.58585805E9</v>
       </c>
       <c r="F73" s="15">
-        <v>45512.0</v>
+        <v>45510.0</v>
       </c>
       <c r="G73" s="16">
-        <v>0.5416666666642413</v>
+        <v>0.5833333333357587</v>
       </c>
       <c r="H73" s="16">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
@@ -5223,34 +5371,34 @@
     </row>
     <row r="74">
       <c r="A74" s="5">
-        <v>45512.69596978009</v>
+        <v>45511.83680295139</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>307</v>
+        <v>286</v>
+      </c>
+      <c r="E74" s="7">
+        <v>67.5</v>
       </c>
       <c r="F74" s="8">
-        <v>45512.0</v>
+        <v>45511.0</v>
       </c>
       <c r="G74" s="9">
-        <v>0.5833333333357587</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H74" s="9">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
@@ -5262,34 +5410,34 @@
     </row>
     <row r="75">
       <c r="A75" s="12">
-        <v>45512.69859368056</v>
+        <v>45511.83815024306</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>65</v>
+        <v>285</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E75" s="14">
-        <v>9.0100706E8</v>
+        <v>289</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>290</v>
       </c>
       <c r="F75" s="15">
-        <v>45512.0</v>
+        <v>45511.0</v>
       </c>
       <c r="G75" s="16">
-        <v>0.6041666666642413</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H75" s="16">
-        <v>0.6875</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="K75" s="17"/>
       <c r="L75" s="17"/>
@@ -5301,34 +5449,34 @@
     </row>
     <row r="76">
       <c r="A76" s="5">
-        <v>45512.70045671296</v>
+        <v>45511.878455266204</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="F76" s="8">
-        <v>45512.0</v>
+        <v>45511.0</v>
       </c>
       <c r="G76" s="9">
-        <v>0.5833333333357587</v>
+        <v>0.7916666666642413</v>
       </c>
       <c r="H76" s="9">
-        <v>0.6937499999985448</v>
+        <v>0.875</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
@@ -5340,34 +5488,34 @@
     </row>
     <row r="77">
       <c r="A77" s="12">
-        <v>45512.71122597222</v>
+        <v>45512.42045942129</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F77" s="15">
-        <v>45512.0</v>
+        <v>45511.0</v>
       </c>
       <c r="G77" s="16">
-        <v>0.625</v>
+        <v>0.7916666666642413</v>
       </c>
       <c r="H77" s="16">
-        <v>0.7083333333357587</v>
+        <v>0.875</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="K77" s="17"/>
       <c r="L77" s="17"/>
@@ -5379,32 +5527,34 @@
     </row>
     <row r="78">
       <c r="A78" s="5">
-        <v>45512.71421289352</v>
+        <v>45512.60275451389</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="E78" s="7"/>
+        <v>301</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="F78" s="8">
         <v>45512.0</v>
       </c>
       <c r="G78" s="9">
-        <v>0.5625</v>
+        <v>0.41666666666424135</v>
       </c>
       <c r="H78" s="9">
-        <v>0.6527777777810115</v>
+        <v>0.5</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
@@ -5416,18 +5566,20 @@
     </row>
     <row r="79">
       <c r="A79" s="12">
-        <v>45512.735423136575</v>
+        <v>45512.63213428241</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>324</v>
+        <v>158</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="E79" s="20"/>
+        <v>305</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>294</v>
+      </c>
       <c r="F79" s="15">
         <v>45512.0</v>
       </c>
@@ -5438,10 +5590,10 @@
         <v>0.625</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="K79" s="17"/>
       <c r="L79" s="17"/>
@@ -5453,34 +5605,34 @@
     </row>
     <row r="80">
       <c r="A80" s="5">
-        <v>45512.736704675925</v>
+        <v>45512.69596978009</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>323</v>
+        <v>17</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>329</v>
+        <v>308</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="F80" s="8">
         <v>45512.0</v>
       </c>
       <c r="G80" s="9">
-        <v>0.625</v>
+        <v>0.5833333333357587</v>
       </c>
       <c r="H80" s="9">
-        <v>0.7291666666642413</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
@@ -5492,34 +5644,34 @@
     </row>
     <row r="81">
       <c r="A81" s="12">
-        <v>45512.737649166666</v>
+        <v>45512.69859368056</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>323</v>
+        <v>65</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>332</v>
+        <v>71</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>334</v>
+        <v>312</v>
+      </c>
+      <c r="E81" s="14">
+        <v>9.0100706E8</v>
       </c>
       <c r="F81" s="15">
         <v>45512.0</v>
       </c>
       <c r="G81" s="16">
-        <v>0.625</v>
+        <v>0.6041666666642413</v>
       </c>
       <c r="H81" s="16">
-        <v>0.7291666666642413</v>
+        <v>0.6875</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="K81" s="17"/>
       <c r="L81" s="17"/>
@@ -5531,31 +5683,35 @@
     </row>
     <row r="82">
       <c r="A82" s="5">
-        <v>45512.82361603009</v>
+        <v>45512.70045671296</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>115</v>
+        <v>239</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="E82" s="21"/>
+        <v>315</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="F82" s="8">
         <v>45512.0</v>
       </c>
       <c r="G82" s="9">
-        <v>0.7312499999970896</v>
+        <v>0.5833333333357587</v>
       </c>
       <c r="H82" s="9">
-        <v>0.8145833333328483</v>
+        <v>0.6937499999985448</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="J82" s="10"/>
+        <v>317</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
       <c r="M82" s="10"/>
@@ -5566,34 +5722,34 @@
     </row>
     <row r="83">
       <c r="A83" s="12">
-        <v>45512.82577055556</v>
+        <v>45512.71122597222</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>338</v>
+        <v>30</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="F83" s="15">
         <v>45512.0</v>
       </c>
       <c r="G83" s="16">
-        <v>0.7361111111094942</v>
+        <v>0.625</v>
       </c>
       <c r="H83" s="16">
-        <v>0.8194444444452529</v>
+        <v>0.7083333333357587</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="K83" s="17"/>
       <c r="L83" s="17"/>
@@ -5605,34 +5761,32 @@
     </row>
     <row r="84">
       <c r="A84" s="5">
-        <v>45512.82885111111</v>
+        <v>45512.71421289352</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>342</v>
+        <v>118</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>344</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="E84" s="7"/>
       <c r="F84" s="8">
         <v>45512.0</v>
       </c>
       <c r="G84" s="9">
-        <v>0.7291666666642413</v>
+        <v>0.5625</v>
       </c>
       <c r="H84" s="9">
-        <v>0.8333333333357587</v>
+        <v>0.6527777777810115</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
@@ -5644,33 +5798,33 @@
     </row>
     <row r="85">
       <c r="A85" s="12">
-        <v>45512.832905243056</v>
+        <v>45512.735423136575</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>22</v>
+        <v>325</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>23</v>
+        <v>326</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>348</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="E85" s="20"/>
       <c r="F85" s="15">
         <v>45512.0</v>
       </c>
       <c r="G85" s="16">
-        <v>0.7291666666642413</v>
+        <v>0.5416666666642413</v>
       </c>
       <c r="H85" s="16">
-        <v>0.8333333333357587</v>
+        <v>0.625</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J85" s="17"/>
+        <v>328</v>
+      </c>
+      <c r="J85" s="13" t="s">
+        <v>329</v>
+      </c>
       <c r="K85" s="17"/>
       <c r="L85" s="17"/>
       <c r="M85" s="17"/>
@@ -5681,31 +5835,35 @@
     </row>
     <row r="86">
       <c r="A86" s="5">
-        <v>45512.833527546296</v>
+        <v>45512.736704675925</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>22</v>
+        <v>325</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E86" s="21"/>
+        <v>330</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>331</v>
+      </c>
       <c r="F86" s="8">
         <v>45512.0</v>
       </c>
       <c r="G86" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="H86" s="9">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H86" s="9">
-        <v>0.8333333333357587</v>
-      </c>
       <c r="I86" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J86" s="10"/>
+        <v>332</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>333</v>
+      </c>
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
       <c r="M86" s="10"/>
@@ -5716,34 +5874,34 @@
     </row>
     <row r="87">
       <c r="A87" s="12">
-        <v>45512.83682524305</v>
+        <v>45512.737649166666</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>86</v>
+        <v>325</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>35</v>
+        <v>334</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>350</v>
+        <v>335</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>336</v>
       </c>
       <c r="F87" s="15">
         <v>45512.0</v>
       </c>
       <c r="G87" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="H87" s="16">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H87" s="16">
-        <v>0.8333333333357587</v>
-      </c>
       <c r="I87" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="K87" s="17"/>
       <c r="L87" s="17"/>
@@ -5755,35 +5913,31 @@
     </row>
     <row r="88">
       <c r="A88" s="5">
-        <v>45512.83873013889</v>
+        <v>45512.82361603009</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>353</v>
+        <v>115</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>355</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="E88" s="21"/>
       <c r="F88" s="8">
         <v>45512.0</v>
       </c>
       <c r="G88" s="9">
-        <v>0.7291666666642413</v>
+        <v>0.7312499999970896</v>
       </c>
       <c r="H88" s="9">
-        <v>0.8541666666642413</v>
+        <v>0.8145833333328483</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>357</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="J88" s="10"/>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
@@ -5794,34 +5948,34 @@
     </row>
     <row r="89">
       <c r="A89" s="12">
-        <v>45512.85888971065</v>
+        <v>45512.82577055556</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>62</v>
+        <v>341</v>
       </c>
       <c r="F89" s="15">
         <v>45512.0</v>
       </c>
       <c r="G89" s="16">
-        <v>0.7708333333357587</v>
+        <v>0.7361111111094942</v>
       </c>
       <c r="H89" s="16">
-        <v>0.8541666666642413</v>
+        <v>0.8194444444452529</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
@@ -5833,34 +5987,34 @@
     </row>
     <row r="90">
       <c r="A90" s="5">
-        <v>45512.87948270833</v>
+        <v>45512.82885111111</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>42</v>
+        <v>344</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="F90" s="8">
         <v>45512.0</v>
       </c>
       <c r="G90" s="9">
-        <v>0.7916666666642413</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H90" s="9">
-        <v>0.875</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
@@ -5872,35 +6026,33 @@
     </row>
     <row r="91">
       <c r="A91" s="12">
-        <v>45512.88242925926</v>
+        <v>45512.832905243056</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="F91" s="15">
         <v>45512.0</v>
       </c>
       <c r="G91" s="16">
-        <v>0.7916666666642413</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H91" s="16">
-        <v>0.875</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="J91" s="13" t="s">
-        <v>368</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J91" s="17"/>
       <c r="K91" s="17"/>
       <c r="L91" s="17"/>
       <c r="M91" s="17"/>
@@ -5911,35 +6063,31 @@
     </row>
     <row r="92">
       <c r="A92" s="5">
-        <v>45512.90771625</v>
+        <v>45512.833527546296</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>370</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="E92" s="21"/>
       <c r="F92" s="8">
         <v>45512.0</v>
       </c>
       <c r="G92" s="9">
-        <v>0.8125</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H92" s="9">
-        <v>0.8125</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>372</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J92" s="10"/>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
@@ -5950,32 +6098,34 @@
     </row>
     <row r="93">
       <c r="A93" s="12">
-        <v>45513.64799361111</v>
+        <v>45512.83682524305</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>269</v>
+        <v>86</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E93" s="20"/>
+        <v>351</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>352</v>
+      </c>
       <c r="F93" s="15">
-        <v>45513.0</v>
+        <v>45512.0</v>
       </c>
       <c r="G93" s="16">
-        <v>0.5625</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H93" s="16">
-        <v>0.6458333333357587</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="J93" s="13" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="K93" s="17"/>
       <c r="L93" s="17"/>
@@ -5987,34 +6137,34 @@
     </row>
     <row r="94">
       <c r="A94" s="5">
-        <v>45513.67226403936</v>
+        <v>45512.83873013889</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>60</v>
+        <v>355</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="F94" s="8">
-        <v>45513.0</v>
+        <v>45512.0</v>
       </c>
       <c r="G94" s="9">
-        <v>0.5833333333357587</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H94" s="9">
-        <v>0.6666666666642413</v>
+        <v>0.8541666666642413</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
@@ -6026,32 +6176,34 @@
     </row>
     <row r="95">
       <c r="A95" s="12">
-        <v>45513.678024583336</v>
+        <v>45512.85888971065</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>246</v>
+        <v>59</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>380</v>
+        <v>60</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="E95" s="20"/>
+        <v>360</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="F95" s="15">
-        <v>45513.0</v>
+        <v>45512.0</v>
       </c>
       <c r="G95" s="16">
-        <v>0.5833333333357587</v>
+        <v>0.7708333333357587</v>
       </c>
       <c r="H95" s="16">
-        <v>0.6736111111094942</v>
+        <v>0.8541666666642413</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="J95" s="13" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="K95" s="17"/>
       <c r="L95" s="17"/>
@@ -6063,34 +6215,34 @@
     </row>
     <row r="96">
       <c r="A96" s="5">
-        <v>45513.67839369213</v>
+        <v>45512.87948270833</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="F96" s="8">
-        <v>45513.0</v>
+        <v>45512.0</v>
       </c>
       <c r="G96" s="9">
-        <v>0.5833333333357587</v>
+        <v>0.7916666666642413</v>
       </c>
       <c r="H96" s="9">
-        <v>0.6666666666642413</v>
+        <v>0.875</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
@@ -6102,33 +6254,35 @@
     </row>
     <row r="97">
       <c r="A97" s="12">
-        <v>45513.75280109954</v>
+        <v>45512.88242925926</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>143</v>
+        <v>368</v>
       </c>
       <c r="F97" s="15">
-        <v>45513.0</v>
+        <v>45512.0</v>
       </c>
       <c r="G97" s="16">
-        <v>0.6666666666642413</v>
+        <v>0.7916666666642413</v>
       </c>
       <c r="H97" s="16">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="J97" s="17"/>
+        <v>369</v>
+      </c>
+      <c r="J97" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="K97" s="17"/>
       <c r="L97" s="17"/>
       <c r="M97" s="17"/>
@@ -6139,32 +6293,34 @@
     </row>
     <row r="98">
       <c r="A98" s="5">
-        <v>45513.7892478125</v>
+        <v>45512.90771625</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>390</v>
+        <v>43</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="E98" s="7"/>
+        <v>371</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>372</v>
+      </c>
       <c r="F98" s="8">
-        <v>45513.0</v>
+        <v>45512.0</v>
       </c>
       <c r="G98" s="9">
-        <v>0.625</v>
+        <v>0.8125</v>
       </c>
       <c r="H98" s="9">
-        <v>0.7083333333333334</v>
+        <v>0.8125</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>62</v>
+        <v>373</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>62</v>
+        <v>374</v>
       </c>
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
@@ -6176,34 +6332,32 @@
     </row>
     <row r="99">
       <c r="A99" s="12">
-        <v>45513.8453788426</v>
+        <v>45513.64799361111</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>392</v>
+        <v>273</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="E99" s="14">
-        <v>70.0</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="E99" s="20"/>
       <c r="F99" s="15">
         <v>45513.0</v>
       </c>
       <c r="G99" s="16">
-        <v>0.7291666666642413</v>
+        <v>0.5625</v>
       </c>
       <c r="H99" s="16">
-        <v>0.8333333333357587</v>
+        <v>0.6458333333357587</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="K99" s="17"/>
       <c r="L99" s="17"/>
@@ -6215,34 +6369,34 @@
     </row>
     <row r="100">
       <c r="A100" s="5">
-        <v>45513.84630472222</v>
+        <v>45513.67226403936</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E100" s="7">
-        <v>90.0</v>
+        <v>378</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>379</v>
       </c>
       <c r="F100" s="8">
         <v>45513.0</v>
       </c>
       <c r="G100" s="9">
-        <v>0.7291666666642413</v>
+        <v>0.5833333333357587</v>
       </c>
       <c r="H100" s="9">
-        <v>0.8333333333357587</v>
+        <v>0.6666666666642413</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
@@ -6254,34 +6408,32 @@
     </row>
     <row r="101">
       <c r="A101" s="12">
-        <v>45513.847293321756</v>
+        <v>45513.678024583336</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>195</v>
+        <v>382</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="E101" s="14">
-        <v>75.0</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="E101" s="20"/>
       <c r="F101" s="15">
         <v>45513.0</v>
       </c>
       <c r="G101" s="16">
-        <v>0.7291666666642413</v>
+        <v>0.5833333333357587</v>
       </c>
       <c r="H101" s="16">
-        <v>0.8333333333357587</v>
+        <v>0.6736111111094942</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="K101" s="17"/>
       <c r="L101" s="17"/>
@@ -6293,31 +6445,35 @@
     </row>
     <row r="102">
       <c r="A102" s="5">
-        <v>45513.848660081014</v>
+        <v>45513.67839369213</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="E102" s="21"/>
+        <v>386</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>387</v>
+      </c>
       <c r="F102" s="8">
         <v>45513.0</v>
       </c>
       <c r="G102" s="9">
-        <v>0.7291666666642413</v>
+        <v>0.5833333333357587</v>
       </c>
       <c r="H102" s="9">
-        <v>0.8333333333357587</v>
+        <v>0.6666666666642413</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="J102" s="10"/>
+        <v>388</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>389</v>
+      </c>
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
@@ -6328,35 +6484,33 @@
     </row>
     <row r="103">
       <c r="A103" s="12">
-        <v>45513.853297071764</v>
+        <v>45513.75280109954</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>400</v>
+        <v>43</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>402</v>
+        <v>143</v>
       </c>
       <c r="F103" s="15">
         <v>45513.0</v>
       </c>
       <c r="G103" s="16">
-        <v>0.7291666666642413</v>
+        <v>0.6666666666642413</v>
       </c>
       <c r="H103" s="16">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J103" s="13" t="s">
-        <v>403</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="J103" s="17"/>
       <c r="K103" s="17"/>
       <c r="L103" s="17"/>
       <c r="M103" s="17"/>
@@ -6367,34 +6521,32 @@
     </row>
     <row r="104">
       <c r="A104" s="5">
-        <v>45513.853297071764</v>
+        <v>45513.7892478125</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>35</v>
+        <v>392</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>404</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="E104" s="7"/>
       <c r="F104" s="8">
         <v>45513.0</v>
       </c>
       <c r="G104" s="9">
-        <v>0.7291666666642413</v>
+        <v>0.625</v>
       </c>
       <c r="H104" s="9">
-        <v>0.8333333333333334</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>62</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>403</v>
+        <v>62</v>
       </c>
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
@@ -6406,19 +6558,19 @@
     </row>
     <row r="105">
       <c r="A105" s="12">
-        <v>45513.853297071764</v>
+        <v>45513.8453788426</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="E105" s="14" t="s">
-        <v>406</v>
+        <v>395</v>
+      </c>
+      <c r="E105" s="14">
+        <v>70.0</v>
       </c>
       <c r="F105" s="15">
         <v>45513.0</v>
@@ -6427,13 +6579,13 @@
         <v>0.7291666666642413</v>
       </c>
       <c r="H105" s="16">
-        <v>0.8333333333333334</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>62</v>
+        <v>396</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K105" s="17"/>
       <c r="L105" s="17"/>
@@ -6445,19 +6597,19 @@
     </row>
     <row r="106">
       <c r="A106" s="5">
-        <v>45513.853297071764</v>
+        <v>45513.84630472222</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
+      </c>
+      <c r="E106" s="7">
+        <v>90.0</v>
       </c>
       <c r="F106" s="8">
         <v>45513.0</v>
@@ -6466,13 +6618,13 @@
         <v>0.7291666666642413</v>
       </c>
       <c r="H106" s="9">
-        <v>0.8333333333333334</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>62</v>
+        <v>396</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
@@ -6484,19 +6636,19 @@
     </row>
     <row r="107">
       <c r="A107" s="12">
-        <v>45513.853297071764</v>
+        <v>45513.847293321756</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>408</v>
+        <v>198</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>409</v>
+        <v>395</v>
+      </c>
+      <c r="E107" s="14">
+        <v>75.0</v>
       </c>
       <c r="F107" s="15">
         <v>45513.0</v>
@@ -6505,13 +6657,13 @@
         <v>0.7291666666642413</v>
       </c>
       <c r="H107" s="16">
-        <v>0.8333333333333334</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>62</v>
+        <v>396</v>
       </c>
       <c r="J107" s="13" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="K107" s="17"/>
       <c r="L107" s="17"/>
@@ -6523,20 +6675,18 @@
     </row>
     <row r="108">
       <c r="A108" s="5">
-        <v>45513.853297071764</v>
+        <v>45513.848660081014</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>409</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="E108" s="21"/>
       <c r="F108" s="8">
         <v>45513.0</v>
       </c>
@@ -6544,14 +6694,12 @@
         <v>0.7291666666642413</v>
       </c>
       <c r="H108" s="9">
-        <v>0.8333333333333334</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J108" s="6" t="s">
-        <v>403</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="J108" s="10"/>
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
@@ -6562,32 +6710,34 @@
     </row>
     <row r="109">
       <c r="A109" s="12">
-        <v>45513.864865625</v>
+        <v>45513.853297071764</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="E109" s="14"/>
+        <v>402</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>403</v>
+      </c>
       <c r="F109" s="15">
         <v>45513.0</v>
       </c>
       <c r="G109" s="16">
-        <v>0.7986111111094942</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H109" s="16">
-        <v>0.8611111111094942</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>412</v>
+        <v>62</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K109" s="17"/>
       <c r="L109" s="17"/>
@@ -6599,34 +6749,34 @@
     </row>
     <row r="110">
       <c r="A110" s="5">
-        <v>45514.52490616898</v>
+        <v>45513.853297071764</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F110" s="8">
-        <v>45514.0</v>
+        <v>45513.0</v>
       </c>
       <c r="G110" s="9">
-        <v>0.4375</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H110" s="9">
-        <v>0.020833333335758653</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>416</v>
+        <v>62</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="K110" s="10"/>
       <c r="L110" s="10"/>
@@ -6638,34 +6788,34 @@
     </row>
     <row r="111">
       <c r="A111" s="12">
-        <v>45514.52627266204</v>
+        <v>45513.853297071764</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>27</v>
+        <v>406</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="F111" s="15">
-        <v>45514.0</v>
+        <v>45513.0</v>
       </c>
       <c r="G111" s="16">
-        <v>0.4375</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H111" s="16">
-        <v>0.020833333335758653</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>416</v>
+        <v>62</v>
       </c>
       <c r="J111" s="13" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="K111" s="17"/>
       <c r="L111" s="17"/>
@@ -6677,34 +6827,34 @@
     </row>
     <row r="112">
       <c r="A112" s="5">
-        <v>45514.52696320602</v>
+        <v>45513.853297071764</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>142</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F112" s="8">
-        <v>45514.0</v>
+        <v>45513.0</v>
       </c>
       <c r="G112" s="9">
-        <v>0.4375</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H112" s="9">
-        <v>0.020833333335758653</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>416</v>
+        <v>62</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="K112" s="10"/>
       <c r="L112" s="10"/>
@@ -6715,35 +6865,35 @@
       <c r="Q112" s="11"/>
     </row>
     <row r="113">
-      <c r="A113" s="24">
-        <v>45509.0</v>
+      <c r="A113" s="12">
+        <v>45513.853297071764</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>421</v>
+        <v>110</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>408</v>
+        <v>177</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="E113" s="14">
-        <v>55.0</v>
+        <v>402</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>409</v>
       </c>
       <c r="F113" s="15">
-        <v>45508.0</v>
+        <v>45513.0</v>
       </c>
       <c r="G113" s="16">
         <v>0.7291666666642413</v>
       </c>
       <c r="H113" s="16">
-        <v>0.8333333333357587</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>423</v>
+        <v>62</v>
       </c>
       <c r="J113" s="13" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="K113" s="17"/>
       <c r="L113" s="17"/>
@@ -6755,34 +6905,34 @@
     </row>
     <row r="114">
       <c r="A114" s="5">
-        <v>45514.54665954861</v>
+        <v>45513.853297071764</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="E114" s="7">
-        <v>73.0</v>
+        <v>402</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="F114" s="8">
-        <v>45514.0</v>
+        <v>45513.0</v>
       </c>
       <c r="G114" s="9">
-        <v>0.41666666666424135</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H114" s="9">
-        <v>0.5243055555547471</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>426</v>
+        <v>62</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="K114" s="10"/>
       <c r="L114" s="10"/>
@@ -6794,34 +6944,32 @@
     </row>
     <row r="115">
       <c r="A115" s="12">
-        <v>45514.548096597224</v>
+        <v>45513.864865625</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>136</v>
+        <v>410</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="E115" s="14">
-        <v>93.0</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="E115" s="14"/>
       <c r="F115" s="15">
-        <v>45514.0</v>
+        <v>45513.0</v>
       </c>
       <c r="G115" s="16">
-        <v>0.41666666666424135</v>
+        <v>0.7986111111094942</v>
       </c>
       <c r="H115" s="16">
-        <v>0.5243055555547471</v>
+        <v>0.8611111111094942</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="J115" s="13" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="K115" s="17"/>
       <c r="L115" s="17"/>
@@ -6833,32 +6981,34 @@
     </row>
     <row r="116">
       <c r="A116" s="5">
-        <v>45514.59499596065</v>
+        <v>45514.52490616898</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="E116" s="21"/>
+        <v>414</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>415</v>
+      </c>
       <c r="F116" s="8">
-        <v>45510.0</v>
+        <v>45514.0</v>
       </c>
       <c r="G116" s="9">
-        <v>0.7916666666642413</v>
+        <v>0.4375</v>
       </c>
       <c r="H116" s="9">
-        <v>0.875</v>
+        <v>0.020833333335758653</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="K116" s="10"/>
       <c r="L116" s="10"/>
@@ -6870,34 +7020,34 @@
     </row>
     <row r="117">
       <c r="A117" s="12">
-        <v>45514.59681599537</v>
+        <v>45514.52627266204</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>434</v>
+        <v>27</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="E117" s="14">
-        <v>90.0</v>
+        <v>414</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>418</v>
       </c>
       <c r="F117" s="15">
-        <v>45511.0</v>
+        <v>45514.0</v>
       </c>
       <c r="G117" s="16">
-        <v>0.7916666666642413</v>
+        <v>0.4375</v>
       </c>
       <c r="H117" s="16">
-        <v>0.875</v>
+        <v>0.020833333335758653</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>62</v>
+        <v>416</v>
       </c>
       <c r="J117" s="13" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="K117" s="17"/>
       <c r="L117" s="17"/>
@@ -6909,34 +7059,34 @@
     </row>
     <row r="118">
       <c r="A118" s="5">
-        <v>45514.59829300926</v>
+        <v>45514.52696320602</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="E118" s="7">
-        <v>67.0</v>
+        <v>414</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>420</v>
       </c>
       <c r="F118" s="8">
-        <v>45513.0</v>
+        <v>45514.0</v>
       </c>
       <c r="G118" s="9">
-        <v>0.7916666666642413</v>
+        <v>0.4375</v>
       </c>
       <c r="H118" s="9">
-        <v>0.875</v>
+        <v>0.020833333335758653</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="K118" s="10"/>
       <c r="L118" s="10"/>
@@ -6954,16 +7104,16 @@
         <v>421</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>438</v>
+        <v>422</v>
+      </c>
+      <c r="E119" s="14">
+        <v>55.0</v>
       </c>
       <c r="F119" s="15">
-        <v>45509.0</v>
+        <v>45508.0</v>
       </c>
       <c r="G119" s="16">
         <v>0.7291666666642413</v>
@@ -6975,7 +7125,7 @@
         <v>423</v>
       </c>
       <c r="J119" s="13" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="K119" s="17"/>
       <c r="L119" s="17"/>
@@ -6986,35 +7136,35 @@
       <c r="Q119" s="18"/>
     </row>
     <row r="120">
-      <c r="A120" s="25">
-        <v>45509.0</v>
+      <c r="A120" s="5">
+        <v>45514.54665954861</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>421</v>
+        <v>136</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E120" s="7">
-        <v>60.0</v>
+        <v>73.0</v>
       </c>
       <c r="F120" s="8">
-        <v>45509.0</v>
+        <v>45514.0</v>
       </c>
       <c r="G120" s="9">
-        <v>0.7291666666642413</v>
+        <v>0.41666666666424135</v>
       </c>
       <c r="H120" s="9">
-        <v>0.8333333333357587</v>
+        <v>0.5243055555547471</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
@@ -7025,35 +7175,35 @@
       <c r="Q120" s="11"/>
     </row>
     <row r="121">
-      <c r="A121" s="24">
-        <v>45509.0</v>
+      <c r="A121" s="12">
+        <v>45514.548096597224</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>421</v>
+        <v>136</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>405</v>
+        <v>96</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>441</v>
+        <v>425</v>
+      </c>
+      <c r="E121" s="14">
+        <v>93.0</v>
       </c>
       <c r="F121" s="15">
-        <v>45509.0</v>
+        <v>45514.0</v>
       </c>
       <c r="G121" s="16">
-        <v>0.7291666666642413</v>
+        <v>0.41666666666424135</v>
       </c>
       <c r="H121" s="16">
-        <v>0.8333333333357587</v>
+        <v>0.5243055555547471</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="J121" s="13" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="K121" s="17"/>
       <c r="L121" s="17"/>
@@ -7064,35 +7214,33 @@
       <c r="Q121" s="18"/>
     </row>
     <row r="122">
-      <c r="A122" s="25">
-        <v>45509.0</v>
+      <c r="A122" s="5">
+        <v>45514.59499596065</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>444</v>
+        <v>77</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>445</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="E122" s="21"/>
       <c r="F122" s="8">
-        <v>45509.0</v>
+        <v>45510.0</v>
       </c>
       <c r="G122" s="9">
-        <v>0.7291666666642413</v>
+        <v>0.7916666666642413</v>
       </c>
       <c r="H122" s="9">
-        <v>0.8333333333357587</v>
+        <v>0.875</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="K122" s="10"/>
       <c r="L122" s="10"/>
@@ -7103,35 +7251,35 @@
       <c r="Q122" s="11"/>
     </row>
     <row r="123">
-      <c r="A123" s="24">
-        <v>45509.0</v>
+      <c r="A123" s="12">
+        <v>45514.59681599537</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>283</v>
+        <v>434</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>336</v>
+        <v>431</v>
       </c>
       <c r="E123" s="14">
-        <v>80.0</v>
+        <v>90.0</v>
       </c>
       <c r="F123" s="15">
-        <v>45509.0</v>
+        <v>45511.0</v>
       </c>
       <c r="G123" s="16">
-        <v>0.7291666666642413</v>
+        <v>0.7916666666642413</v>
       </c>
       <c r="H123" s="16">
-        <v>0.8333333333357587</v>
+        <v>0.875</v>
       </c>
       <c r="I123" s="13" t="s">
-        <v>442</v>
+        <v>62</v>
       </c>
       <c r="J123" s="13" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="K123" s="17"/>
       <c r="L123" s="17"/>
@@ -7142,35 +7290,35 @@
       <c r="Q123" s="18"/>
     </row>
     <row r="124">
-      <c r="A124" s="25">
-        <v>45509.0</v>
+      <c r="A124" s="5">
+        <v>45514.59829300926</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>400</v>
+        <v>152</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>336</v>
+        <v>431</v>
       </c>
       <c r="E124" s="7">
-        <v>80.0</v>
+        <v>67.0</v>
       </c>
       <c r="F124" s="8">
-        <v>45509.0</v>
+        <v>45513.0</v>
       </c>
       <c r="G124" s="9">
-        <v>0.7291666666642413</v>
+        <v>0.7916666666642413</v>
       </c>
       <c r="H124" s="9">
-        <v>0.8333333333357587</v>
+        <v>0.875</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="K124" s="10"/>
       <c r="L124" s="10"/>
@@ -7181,35 +7329,35 @@
       <c r="Q124" s="11"/>
     </row>
     <row r="125">
-      <c r="A125" s="12">
-        <v>45514.67274840278</v>
+      <c r="A125" s="24">
+        <v>45509.0</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>76</v>
+        <v>421</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F125" s="15">
-        <v>45514.0</v>
+        <v>45509.0</v>
       </c>
       <c r="G125" s="16">
-        <v>0.5833333333357587</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H125" s="16">
-        <v>0.6666666666642413</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="J125" s="13" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="K125" s="17"/>
       <c r="L125" s="17"/>
@@ -7220,35 +7368,35 @@
       <c r="Q125" s="18"/>
     </row>
     <row r="126">
-      <c r="A126" s="5">
-        <v>45514.67393909722</v>
+      <c r="A126" s="25">
+        <v>45509.0</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>169</v>
+        <v>421</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>453</v>
+        <v>40</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>455</v>
+        <v>437</v>
+      </c>
+      <c r="E126" s="7">
+        <v>60.0</v>
       </c>
       <c r="F126" s="8">
-        <v>45514.0</v>
+        <v>45509.0</v>
       </c>
       <c r="G126" s="9">
-        <v>0.41666666666424135</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H126" s="9">
-        <v>0.5208333333357587</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
@@ -7259,35 +7407,35 @@
       <c r="Q126" s="11"/>
     </row>
     <row r="127">
-      <c r="A127" s="12">
-        <v>45514.678795</v>
+      <c r="A127" s="24">
+        <v>45509.0</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>169</v>
+        <v>421</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>458</v>
+        <v>338</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>62</v>
+        <v>441</v>
       </c>
       <c r="F127" s="15">
-        <v>45514.0</v>
+        <v>45509.0</v>
       </c>
       <c r="G127" s="16">
-        <v>0.5208333333357587</v>
+        <v>0.7291666666642413</v>
       </c>
       <c r="H127" s="16">
-        <v>0.5625</v>
+        <v>0.8333333333357587</v>
       </c>
       <c r="I127" s="13" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="J127" s="13" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="K127" s="17"/>
       <c r="L127" s="17"/>
@@ -7298,2187 +7446,3121 @@
       <c r="Q127" s="18"/>
     </row>
     <row r="128">
-      <c r="A128" s="26">
+      <c r="A128" s="25">
+        <v>45509.0</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F128" s="8">
+        <v>45509.0</v>
+      </c>
+      <c r="G128" s="9">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H128" s="9">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
+      <c r="O128" s="10"/>
+      <c r="P128" s="10"/>
+      <c r="Q128" s="11"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="24">
+        <v>45509.0</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E129" s="14">
+        <v>80.0</v>
+      </c>
+      <c r="F129" s="15">
+        <v>45509.0</v>
+      </c>
+      <c r="G129" s="16">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H129" s="16">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I129" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="J129" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="K129" s="17"/>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="18"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="25">
+        <v>45509.0</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E130" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="F130" s="8">
+        <v>45509.0</v>
+      </c>
+      <c r="G130" s="9">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H130" s="9">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="K130" s="10"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10"/>
+      <c r="O130" s="10"/>
+      <c r="P130" s="10"/>
+      <c r="Q130" s="11"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="12">
+        <v>45514.67274840278</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="F131" s="15">
+        <v>45514.0</v>
+      </c>
+      <c r="G131" s="16">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H131" s="16">
+        <v>0.6666666666642413</v>
+      </c>
+      <c r="I131" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="J131" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="18"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="5">
+        <v>45514.67393909722</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E132" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="F132" s="8">
+        <v>45514.0</v>
+      </c>
+      <c r="G132" s="9">
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="H132" s="9">
+        <v>0.5208333333357587</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="10"/>
+      <c r="O132" s="10"/>
+      <c r="P132" s="10"/>
+      <c r="Q132" s="11"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="12">
+        <v>45514.67393909722</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="E133" s="14">
+        <v>95.0</v>
+      </c>
+      <c r="F133" s="15">
+        <v>45514.0</v>
+      </c>
+      <c r="G133" s="16">
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="H133" s="16">
+        <v>0.5208333333357587</v>
+      </c>
+      <c r="I133" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="J133" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="18"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="5">
+        <v>45514.67393909722</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E134" s="7">
+        <v>40.0</v>
+      </c>
+      <c r="F134" s="8">
+        <v>45514.0</v>
+      </c>
+      <c r="G134" s="9">
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="H134" s="9">
+        <v>0.5208333333357587</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="K134" s="10"/>
+      <c r="L134" s="10"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="10"/>
+      <c r="O134" s="10"/>
+      <c r="P134" s="10"/>
+      <c r="Q134" s="11"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="12">
+        <v>45514.67393909722</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="E135" s="14">
+        <v>75.0</v>
+      </c>
+      <c r="F135" s="15">
+        <v>45514.0</v>
+      </c>
+      <c r="G135" s="16">
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="H135" s="16">
+        <v>0.5208333333357587</v>
+      </c>
+      <c r="I135" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="J135" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="K135" s="17"/>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="18"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="5">
+        <v>45514.67393909722</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F136" s="8">
+        <v>45514.0</v>
+      </c>
+      <c r="G136" s="9">
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="H136" s="9">
+        <v>0.5208333333357587</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="K136" s="10"/>
+      <c r="L136" s="10"/>
+      <c r="M136" s="10"/>
+      <c r="N136" s="10"/>
+      <c r="O136" s="10"/>
+      <c r="P136" s="10"/>
+      <c r="Q136" s="11"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="12">
+        <v>45514.67393909722</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="E137" s="14">
+        <v>50.0</v>
+      </c>
+      <c r="F137" s="15">
+        <v>45514.0</v>
+      </c>
+      <c r="G137" s="16">
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="H137" s="16">
+        <v>0.5208333333357587</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="J137" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="18"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="5">
+        <v>45514.678795</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F138" s="8">
+        <v>45514.0</v>
+      </c>
+      <c r="G138" s="9">
+        <v>0.5208333333357587</v>
+      </c>
+      <c r="H138" s="9">
+        <v>0.5625</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="10"/>
+      <c r="O138" s="10"/>
+      <c r="P138" s="10"/>
+      <c r="Q138" s="11"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="26">
         <v>45514.89057618055</v>
       </c>
-      <c r="B128" s="27" t="s">
+      <c r="B139" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C128" s="27" t="s">
+      <c r="C139" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D128" s="27" t="s">
+      <c r="D139" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="E139" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="F139" s="29">
+        <v>45514.0</v>
+      </c>
+      <c r="G139" s="30">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="H139" s="30">
+        <v>0.875</v>
+      </c>
+      <c r="I139" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="E128" s="28" t="s">
+      <c r="J139" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="F128" s="29">
-        <v>45514.0</v>
-      </c>
-      <c r="G128" s="30">
+    </row>
+    <row r="140">
+      <c r="A140" s="31">
+        <v>45516.648869282406</v>
+      </c>
+      <c r="B140" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D140" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="E140" s="33"/>
+      <c r="F140" s="34">
+        <v>45516.0</v>
+      </c>
+      <c r="G140" s="35">
+        <v>0.5625</v>
+      </c>
+      <c r="H140" s="35">
+        <v>0.6493055555547471</v>
+      </c>
+      <c r="I140" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="J140" s="32" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="26">
+        <v>45516.71282509259</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C141" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D141" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="E141" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="F141" s="29">
+        <v>45516.0</v>
+      </c>
+      <c r="G141" s="30">
+        <v>0.5416666666642413</v>
+      </c>
+      <c r="H141" s="30">
+        <v>0.625</v>
+      </c>
+      <c r="I141" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="J141" s="27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="31">
+        <v>45516.714361018516</v>
+      </c>
+      <c r="B142" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D142" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="E142" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="F142" s="34">
+        <v>45516.0</v>
+      </c>
+      <c r="G142" s="35">
+        <v>0.625</v>
+      </c>
+      <c r="H142" s="35">
+        <v>0.7083333333357587</v>
+      </c>
+      <c r="I142" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="J142" s="32" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="26">
+        <v>45516.81033378472</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="C143" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D143" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="E143" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="F143" s="29">
+        <v>45516.0</v>
+      </c>
+      <c r="G143" s="30">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H143" s="30">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I143" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="J143" s="27" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="31">
+        <v>45516.811678240745</v>
+      </c>
+      <c r="B144" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D144" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="E144" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="F144" s="34">
+        <v>45516.0</v>
+      </c>
+      <c r="G144" s="35">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H144" s="35">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I144" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="J144" s="32" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="26">
+        <v>45516.84125747685</v>
+      </c>
+      <c r="B145" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E145" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="F145" s="29">
+        <v>45516.0</v>
+      </c>
+      <c r="G145" s="30">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H145" s="30">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I145" s="27" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="31">
+        <v>45516.84203814815</v>
+      </c>
+      <c r="B146" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D146" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E146" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="F146" s="34">
+        <v>45516.0</v>
+      </c>
+      <c r="G146" s="35">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H146" s="35">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I146" s="32" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="26">
+        <v>45516.855319814815</v>
+      </c>
+      <c r="B147" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C147" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="D147" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E147" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="F147" s="29">
+        <v>45516.0</v>
+      </c>
+      <c r="G147" s="30">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H147" s="30">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I147" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="J147" s="27" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="31">
+        <v>45516.856278437495</v>
+      </c>
+      <c r="B148" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C148" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="D148" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E148" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="F148" s="34">
+        <v>45516.0</v>
+      </c>
+      <c r="G148" s="35">
+        <v>0.22916666666424135</v>
+      </c>
+      <c r="H148" s="35">
+        <v>0.33333333333575865</v>
+      </c>
+      <c r="I148" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="J148" s="32" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="26">
+        <v>45516.86252967593</v>
+      </c>
+      <c r="B149" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C149" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D149" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="E149" s="28">
+        <v>64.0</v>
+      </c>
+      <c r="F149" s="29">
+        <v>45516.0</v>
+      </c>
+      <c r="G149" s="30">
+        <v>0.7708333333357587</v>
+      </c>
+      <c r="H149" s="30">
+        <v>0.8541666666642413</v>
+      </c>
+      <c r="I149" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="J149" s="27" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="31">
+        <v>45516.86600916667</v>
+      </c>
+      <c r="B150" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C150" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D150" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="E150" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="F150" s="34">
+        <v>45516.0</v>
+      </c>
+      <c r="G150" s="35">
+        <v>0.7986111111094942</v>
+      </c>
+      <c r="H150" s="35">
+        <v>0.8611111111094942</v>
+      </c>
+      <c r="I150" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="J150" s="32" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="26">
+        <v>45516.87146578704</v>
+      </c>
+      <c r="B151" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C151" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D151" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="E151" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="F151" s="29">
+        <v>45516.0</v>
+      </c>
+      <c r="G151" s="30">
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="H151" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I151" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="J151" s="27" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="31">
+        <v>45516.87527689815</v>
+      </c>
+      <c r="B152" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D152" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="E152" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="F152" s="34">
+        <v>45516.0</v>
+      </c>
+      <c r="G152" s="35">
         <v>0.7916666666642413</v>
       </c>
-      <c r="H128" s="30">
+      <c r="H152" s="35">
         <v>0.875</v>
       </c>
-      <c r="I128" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="J128" s="27" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="31">
-        <v>45516.648869282406</v>
-      </c>
-      <c r="B129" s="32" t="s">
+      <c r="I152" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="J152" s="32" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="26">
+        <v>45516.89688393519</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C153" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D153" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="E153" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="F153" s="29">
+        <v>45516.0</v>
+      </c>
+      <c r="G153" s="30">
+        <v>0.8125</v>
+      </c>
+      <c r="H153" s="30">
+        <v>0.8958333333357587</v>
+      </c>
+      <c r="I153" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="J153" s="27" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="31">
+        <v>45517.65541280093</v>
+      </c>
+      <c r="B154" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C129" s="32" t="s">
+      <c r="C154" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D129" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="E129" s="33"/>
-      <c r="F129" s="34">
-        <v>45516.0</v>
-      </c>
-      <c r="G129" s="35">
+      <c r="D154" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="E154" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="F154" s="34">
+        <v>45517.0</v>
+      </c>
+      <c r="G154" s="35">
         <v>0.5625</v>
       </c>
-      <c r="H129" s="35">
-        <v>0.6493055555547471</v>
-      </c>
-      <c r="I129" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="J129" s="32" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="26">
-        <v>45516.71282509259</v>
-      </c>
-      <c r="B130" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C130" s="27" t="s">
+      <c r="H154" s="35">
+        <v>0.6527777777810115</v>
+      </c>
+      <c r="I154" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="J154" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="K154" s="32" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="26">
+        <v>45517.71076173611</v>
+      </c>
+      <c r="B155" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C155" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D155" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="E155" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F155" s="29">
+        <v>45517.0</v>
+      </c>
+      <c r="G155" s="30">
+        <v>0.625</v>
+      </c>
+      <c r="H155" s="30">
+        <v>0.7083333333357587</v>
+      </c>
+      <c r="I155" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="J155" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="K155" s="27" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="31">
+        <v>45517.75225017361</v>
+      </c>
+      <c r="B156" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C156" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D156" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="E156" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="F156" s="34">
+        <v>45517.0</v>
+      </c>
+      <c r="G156" s="35">
+        <v>0.6666666666642413</v>
+      </c>
+      <c r="H156" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="I156" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="J156" s="32" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="26">
+        <v>45517.77386902778</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C157" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D157" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="E157" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="F157" s="29">
+        <v>45517.0</v>
+      </c>
+      <c r="G157" s="30">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H157" s="30">
+        <v>0.6875</v>
+      </c>
+      <c r="I157" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="J157" s="27" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="31">
+        <v>45517.7750893287</v>
+      </c>
+      <c r="B158" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C158" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D158" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="E158" s="36" t="s">
+        <v>521</v>
+      </c>
+      <c r="F158" s="34">
+        <v>45517.0</v>
+      </c>
+      <c r="G158" s="35">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H158" s="35">
+        <v>0.6875</v>
+      </c>
+      <c r="I158" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="J158" s="32" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="26">
+        <v>45517.77706332176</v>
+      </c>
+      <c r="B159" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C159" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D159" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="E159" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="F159" s="29">
+        <v>45517.0</v>
+      </c>
+      <c r="G159" s="30">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H159" s="30">
+        <v>0.6875</v>
+      </c>
+      <c r="I159" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="J159" s="27" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="31">
+        <v>45517.77767351852</v>
+      </c>
+      <c r="B160" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C160" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="D160" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="E160" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="F160" s="34">
+        <v>45517.0</v>
+      </c>
+      <c r="G160" s="35">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H160" s="35">
+        <v>0.6875</v>
+      </c>
+      <c r="I160" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="J160" s="32" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="26">
+        <v>45517.778264016204</v>
+      </c>
+      <c r="B161" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C161" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D161" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="E161" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="F161" s="29">
+        <v>45517.0</v>
+      </c>
+      <c r="G161" s="30">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H161" s="30">
+        <v>0.6875</v>
+      </c>
+      <c r="I161" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="J161" s="27" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="31">
+        <v>45517.778748067125</v>
+      </c>
+      <c r="B162" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C162" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D162" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="E162" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="F162" s="34">
+        <v>45517.0</v>
+      </c>
+      <c r="G162" s="35">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H162" s="35">
+        <v>0.6875</v>
+      </c>
+      <c r="I162" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="J162" s="32" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="26">
+        <v>45517.821123229165</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C163" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D163" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E163" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="F163" s="29">
+        <v>45517.0</v>
+      </c>
+      <c r="G163" s="30">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H163" s="30">
+        <v>0.8125</v>
+      </c>
+      <c r="I163" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J163" s="27" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="31">
+        <v>45517.822803125004</v>
+      </c>
+      <c r="B164" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C164" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D164" s="32" t="s">
+        <v>533</v>
+      </c>
+      <c r="E164" s="33"/>
+      <c r="F164" s="34">
+        <v>45517.0</v>
+      </c>
+      <c r="G164" s="35">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H164" s="35">
+        <v>0.6875</v>
+      </c>
+      <c r="I164" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="J164" s="32" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="26">
+        <v>45517.82645143519</v>
+      </c>
+      <c r="B165" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C165" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D165" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="E165" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="F165" s="29">
+        <v>45517.0</v>
+      </c>
+      <c r="G165" s="30">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H165" s="30">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I165" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="J165" s="27" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="31">
+        <v>45517.82822041667</v>
+      </c>
+      <c r="B166" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C166" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166" s="32" t="s">
+        <v>536</v>
+      </c>
+      <c r="E166" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="F166" s="34">
+        <v>45517.0</v>
+      </c>
+      <c r="G166" s="35">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H166" s="35">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I166" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="J166" s="32" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="26">
+        <v>45517.83464716435</v>
+      </c>
+      <c r="B167" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="C167" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="D167" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="E167" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="F167" s="29">
+        <v>45517.0</v>
+      </c>
+      <c r="G167" s="30">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H167" s="30">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I167" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="J167" s="27" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="31">
+        <v>45517.83745584491</v>
+      </c>
+      <c r="B168" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C168" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D168" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E168" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="F168" s="34">
+        <v>45517.0</v>
+      </c>
+      <c r="G168" s="35">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H168" s="35">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I168" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="26">
+        <v>45517.837965150466</v>
+      </c>
+      <c r="B169" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C169" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D169" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E169" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="F169" s="29">
+        <v>45517.0</v>
+      </c>
+      <c r="G169" s="30">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H169" s="30">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I169" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="31">
+        <v>45517.83871653935</v>
+      </c>
+      <c r="B170" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C170" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="D170" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E170" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="F170" s="34">
+        <v>45517.0</v>
+      </c>
+      <c r="G170" s="35">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H170" s="35">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I170" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="26">
+        <v>45517.86126445602</v>
+      </c>
+      <c r="B171" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="C171" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D171" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E171" s="37"/>
+      <c r="F171" s="29">
+        <v>45517.0</v>
+      </c>
+      <c r="G171" s="30">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="H171" s="30">
+        <v>0.8541666666642413</v>
+      </c>
+      <c r="I171" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="J171" s="27" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="31">
+        <v>45517.87722201389</v>
+      </c>
+      <c r="B172" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C172" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D172" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="E172" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="F172" s="34">
+        <v>45517.0</v>
+      </c>
+      <c r="G172" s="35">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="H172" s="35">
+        <v>0.875</v>
+      </c>
+      <c r="I172" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="J172" s="32" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="26">
+        <v>45517.87846309028</v>
+      </c>
+      <c r="B173" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C173" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D173" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="E173" s="28"/>
+      <c r="F173" s="29">
+        <v>45517.0</v>
+      </c>
+      <c r="G173" s="30">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="H173" s="30">
+        <v>0.875</v>
+      </c>
+      <c r="I173" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="J173" s="27" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="31">
+        <v>45518.633394502314</v>
+      </c>
+      <c r="B174" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C174" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D130" s="27" t="s">
-        <v>468</v>
-      </c>
-      <c r="E130" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="F130" s="29">
-        <v>45516.0</v>
-      </c>
-      <c r="G130" s="30">
+      <c r="D174" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="E174" s="33"/>
+      <c r="F174" s="34">
+        <v>45518.0</v>
+      </c>
+      <c r="G174" s="35">
+        <v>0.44791666666424135</v>
+      </c>
+      <c r="H174" s="35">
+        <v>0.03125</v>
+      </c>
+      <c r="I174" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="J174" s="32" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="26">
+        <v>45518.63520597223</v>
+      </c>
+      <c r="B175" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C175" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="D175" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="E175" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="F175" s="29">
+        <v>45518.0</v>
+      </c>
+      <c r="G175" s="30">
         <v>0.5416666666642413</v>
       </c>
-      <c r="H130" s="30">
-        <v>0.625</v>
-      </c>
-      <c r="I130" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="J130" s="27" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="31">
-        <v>45516.714361018516</v>
-      </c>
-      <c r="B131" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C131" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="D131" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="E131" s="36" t="s">
-        <v>472</v>
-      </c>
-      <c r="F131" s="34">
-        <v>45516.0</v>
-      </c>
-      <c r="G131" s="35">
-        <v>0.625</v>
-      </c>
-      <c r="H131" s="35">
-        <v>0.7083333333357587</v>
-      </c>
-      <c r="I131" s="32" t="s">
-        <v>473</v>
-      </c>
-      <c r="J131" s="32" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="26">
-        <v>45516.81033378472</v>
-      </c>
-      <c r="B132" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="C132" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="D132" s="27" t="s">
-        <v>475</v>
-      </c>
-      <c r="E132" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="F132" s="29">
-        <v>45516.0</v>
-      </c>
-      <c r="G132" s="30">
+      <c r="H175" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="I175" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="J175" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="31">
+        <v>45518.64749122685</v>
+      </c>
+      <c r="B176" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C176" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D176" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="E176" s="36">
+        <v>90.0</v>
+      </c>
+      <c r="F176" s="34">
+        <v>45518.0</v>
+      </c>
+      <c r="G176" s="35">
+        <v>0.5625</v>
+      </c>
+      <c r="H176" s="35">
+        <v>0.6458333333357587</v>
+      </c>
+      <c r="I176" s="32" t="s">
+        <v>566</v>
+      </c>
+      <c r="J176" s="32" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="26">
+        <v>45518.66104313657</v>
+      </c>
+      <c r="B177" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C177" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D177" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="E177" s="37"/>
+      <c r="F177" s="29">
+        <v>45518.0</v>
+      </c>
+      <c r="G177" s="30">
+        <v>0.5625</v>
+      </c>
+      <c r="H177" s="30">
+        <v>0.6458333333357587</v>
+      </c>
+      <c r="I177" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="J177" s="27" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="31">
+        <v>45518.6923365625</v>
+      </c>
+      <c r="B178" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C178" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D178" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="E178" s="33"/>
+      <c r="F178" s="34">
+        <v>45518.0</v>
+      </c>
+      <c r="G178" s="35">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H178" s="35">
+        <v>0.6875</v>
+      </c>
+      <c r="I178" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="J178" s="32" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="26">
+        <v>45518.837842141205</v>
+      </c>
+      <c r="B179" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C179" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D179" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="E179" s="27" t="s">
+        <v>575</v>
+      </c>
+      <c r="F179" s="29">
+        <v>45518.0</v>
+      </c>
+      <c r="G179" s="30">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H132" s="30">
+      <c r="H179" s="30">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I132" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="J132" s="27" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="31">
-        <v>45516.811678240745</v>
-      </c>
-      <c r="B133" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="C133" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="D133" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="E133" s="36" t="s">
-        <v>479</v>
-      </c>
-      <c r="F133" s="34">
-        <v>45516.0</v>
-      </c>
-      <c r="G133" s="35">
+      <c r="I179" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="J179" s="27" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="31">
+        <v>45518.83897322917</v>
+      </c>
+      <c r="B180" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C180" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="D180" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="E180" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="F180" s="34">
+        <v>45518.0</v>
+      </c>
+      <c r="G180" s="35">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H133" s="35">
+      <c r="H180" s="35">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I133" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="J133" s="32" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="26">
-        <v>45516.84125747685</v>
-      </c>
-      <c r="B134" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C134" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D134" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E134" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="F134" s="29">
-        <v>45516.0</v>
-      </c>
-      <c r="G134" s="30">
+      <c r="I180" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="J180" s="32" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="26">
+        <v>45518.83982435185</v>
+      </c>
+      <c r="B181" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C181" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="D181" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="E181" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="F181" s="29">
+        <v>45518.0</v>
+      </c>
+      <c r="G181" s="30">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H134" s="30">
+      <c r="H181" s="30">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I134" s="27" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="31">
-        <v>45516.84203814815</v>
-      </c>
-      <c r="B135" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C135" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D135" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="E135" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="F135" s="34">
-        <v>45516.0</v>
-      </c>
-      <c r="G135" s="35">
+      <c r="I181" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="J181" s="27" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="31">
+        <v>45518.84678337963</v>
+      </c>
+      <c r="B182" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C182" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D182" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="E182" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="F182" s="34">
+        <v>45518.0</v>
+      </c>
+      <c r="G182" s="35">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H135" s="35">
+      <c r="H182" s="35">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I135" s="32" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="26">
-        <v>45516.855319814815</v>
-      </c>
-      <c r="B136" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="D136" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="E136" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="F136" s="29">
-        <v>45516.0</v>
-      </c>
-      <c r="G136" s="30">
+      <c r="I182" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="J182" s="32" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="26">
+        <v>45518.848245243054</v>
+      </c>
+      <c r="B183" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C183" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D183" s="27" t="s">
+        <v>587</v>
+      </c>
+      <c r="E183" s="27" t="s">
+        <v>588</v>
+      </c>
+      <c r="F183" s="29">
+        <v>45518.0</v>
+      </c>
+      <c r="G183" s="30">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H136" s="30">
+      <c r="H183" s="30">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I136" s="27" t="s">
-        <v>486</v>
-      </c>
-      <c r="J136" s="27" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="31">
-        <v>45516.856278437495</v>
-      </c>
-      <c r="B137" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="C137" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D137" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="E137" s="36" t="s">
-        <v>485</v>
-      </c>
-      <c r="F137" s="34">
-        <v>45516.0</v>
-      </c>
-      <c r="G137" s="35">
-        <v>0.22916666666424135</v>
-      </c>
-      <c r="H137" s="35">
-        <v>0.33333333333575865</v>
-      </c>
-      <c r="I137" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="J137" s="32" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="26">
-        <v>45516.86252967593</v>
-      </c>
-      <c r="B138" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="C138" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D138" s="27" t="s">
-        <v>489</v>
-      </c>
-      <c r="E138" s="28">
-        <v>64.0</v>
-      </c>
-      <c r="F138" s="29">
-        <v>45516.0</v>
-      </c>
-      <c r="G138" s="30">
-        <v>0.7708333333357587</v>
-      </c>
-      <c r="H138" s="30">
-        <v>0.8541666666642413</v>
-      </c>
-      <c r="I138" s="27" t="s">
-        <v>490</v>
-      </c>
-      <c r="J138" s="27" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="31">
-        <v>45516.86600916667</v>
-      </c>
-      <c r="B139" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C139" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="D139" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="E139" s="36" t="s">
-        <v>493</v>
-      </c>
-      <c r="F139" s="34">
-        <v>45516.0</v>
-      </c>
-      <c r="G139" s="35">
-        <v>0.7986111111094942</v>
-      </c>
-      <c r="H139" s="35">
-        <v>0.8611111111094942</v>
-      </c>
-      <c r="I139" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="J139" s="32" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="26">
-        <v>45516.87146578704</v>
-      </c>
-      <c r="B140" s="27" t="s">
+      <c r="I183" s="27" t="s">
+        <v>589</v>
+      </c>
+      <c r="J183" s="27" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="31">
+        <v>45518.84974282407</v>
+      </c>
+      <c r="B184" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C184" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D184" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="E184" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="F184" s="34">
+        <v>45518.0</v>
+      </c>
+      <c r="G184" s="35">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H184" s="35">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I184" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="J184" s="32" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="26">
+        <v>45518.85262627315</v>
+      </c>
+      <c r="B185" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C185" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D185" s="27" t="s">
+        <v>587</v>
+      </c>
+      <c r="E185" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="F185" s="29">
+        <v>45518.0</v>
+      </c>
+      <c r="G185" s="30">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H185" s="30">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I185" s="27" t="s">
+        <v>594</v>
+      </c>
+      <c r="J185" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="31">
+        <v>45518.85438916666</v>
+      </c>
+      <c r="B186" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C186" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="D186" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="E186" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="F186" s="34">
+        <v>45518.0</v>
+      </c>
+      <c r="G186" s="35">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H186" s="35">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I186" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="J186" s="32" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="26">
+        <v>45518.89217371528</v>
+      </c>
+      <c r="B187" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C140" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D140" s="27" t="s">
-        <v>496</v>
-      </c>
-      <c r="E140" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="F140" s="29">
-        <v>45516.0</v>
-      </c>
-      <c r="G140" s="30">
+      <c r="C187" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D187" s="27" t="s">
+        <v>597</v>
+      </c>
+      <c r="E187" s="27" t="s">
+        <v>598</v>
+      </c>
+      <c r="F187" s="29">
+        <v>45518.0</v>
+      </c>
+      <c r="G187" s="30">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="H187" s="30">
+        <v>0.875</v>
+      </c>
+      <c r="I187" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="J187" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="31">
+        <v>45518.8993009838</v>
+      </c>
+      <c r="B188" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C188" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D188" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="E188" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="F188" s="34">
+        <v>45518.0</v>
+      </c>
+      <c r="G188" s="35">
+        <v>0.8125</v>
+      </c>
+      <c r="H188" s="35">
+        <v>0.8958333333357587</v>
+      </c>
+      <c r="I188" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="J188" s="32" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="38">
+        <v>45519.58629415509</v>
+      </c>
+      <c r="B189" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C189" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D189" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="E189" s="39" t="s">
+        <v>598</v>
+      </c>
+      <c r="F189" s="40">
+        <v>45519.0</v>
+      </c>
+      <c r="G189" s="41">
         <v>0.41666666666424135</v>
       </c>
-      <c r="H140" s="30">
+      <c r="H189" s="41">
         <v>0.5</v>
       </c>
-      <c r="I140" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="J140" s="27" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="31">
-        <v>45516.87527689815</v>
-      </c>
-      <c r="B141" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C141" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D141" s="32" t="s">
-        <v>500</v>
-      </c>
-      <c r="E141" s="36" t="s">
-        <v>501</v>
-      </c>
-      <c r="F141" s="34">
-        <v>45516.0</v>
-      </c>
-      <c r="G141" s="35">
-        <v>0.7916666666642413</v>
-      </c>
-      <c r="H141" s="35">
-        <v>0.875</v>
-      </c>
-      <c r="I141" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="J141" s="32" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="26">
-        <v>45516.89688393519</v>
-      </c>
-      <c r="B142" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C142" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D142" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="E142" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="F142" s="29">
-        <v>45516.0</v>
-      </c>
-      <c r="G142" s="30">
-        <v>0.8125</v>
-      </c>
-      <c r="H142" s="30">
-        <v>0.8958333333357587</v>
-      </c>
-      <c r="I142" s="27" t="s">
-        <v>506</v>
-      </c>
-      <c r="J142" s="27" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="31">
-        <v>45517.65541280093</v>
-      </c>
-      <c r="B143" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C143" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D143" s="32" t="s">
-        <v>508</v>
-      </c>
-      <c r="E143" s="36" t="s">
-        <v>509</v>
-      </c>
-      <c r="F143" s="34">
-        <v>45517.0</v>
-      </c>
-      <c r="G143" s="35">
-        <v>0.5625</v>
-      </c>
-      <c r="H143" s="35">
-        <v>0.6527777777810115</v>
-      </c>
-      <c r="I143" s="32" t="s">
-        <v>510</v>
-      </c>
-      <c r="J143" s="32" t="s">
-        <v>511</v>
-      </c>
-      <c r="K143" s="32" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="26">
-        <v>45517.71076173611</v>
-      </c>
-      <c r="B144" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C144" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D144" s="27" t="s">
-        <v>513</v>
-      </c>
-      <c r="E144" s="28" t="s">
-        <v>514</v>
-      </c>
-      <c r="F144" s="29">
-        <v>45517.0</v>
-      </c>
-      <c r="G144" s="30">
-        <v>0.625</v>
-      </c>
-      <c r="H144" s="30">
-        <v>0.7083333333357587</v>
-      </c>
-      <c r="I144" s="27" t="s">
-        <v>515</v>
-      </c>
-      <c r="J144" s="27" t="s">
-        <v>516</v>
-      </c>
-      <c r="K144" s="27" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="31">
-        <v>45517.75225017361</v>
-      </c>
-      <c r="B145" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C145" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D145" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="E145" s="36" t="s">
-        <v>519</v>
-      </c>
-      <c r="F145" s="34">
-        <v>45517.0</v>
-      </c>
-      <c r="G145" s="35">
-        <v>0.6666666666642413</v>
-      </c>
-      <c r="H145" s="35">
-        <v>0.75</v>
-      </c>
-      <c r="I145" s="32" t="s">
-        <v>520</v>
-      </c>
-      <c r="J145" s="32" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="26">
-        <v>45517.77386902778</v>
-      </c>
-      <c r="B146" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C146" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="D146" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="E146" s="28" t="s">
-        <v>523</v>
-      </c>
-      <c r="F146" s="29">
-        <v>45517.0</v>
-      </c>
-      <c r="G146" s="30">
-        <v>0.5833333333357587</v>
-      </c>
-      <c r="H146" s="30">
-        <v>0.6875</v>
-      </c>
-      <c r="I146" s="27" t="s">
-        <v>524</v>
-      </c>
-      <c r="J146" s="27" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="31">
-        <v>45517.7750893287</v>
-      </c>
-      <c r="B147" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C147" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="D147" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="E147" s="36" t="s">
-        <v>523</v>
-      </c>
-      <c r="F147" s="34">
-        <v>45517.0</v>
-      </c>
-      <c r="G147" s="35">
-        <v>0.5833333333357587</v>
-      </c>
-      <c r="H147" s="35">
-        <v>0.6875</v>
-      </c>
-      <c r="I147" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="J147" s="32" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="26">
-        <v>45517.77706332176</v>
-      </c>
-      <c r="B148" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C148" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="D148" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="E148" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="F148" s="29">
-        <v>45517.0</v>
-      </c>
-      <c r="G148" s="30">
-        <v>0.5833333333357587</v>
-      </c>
-      <c r="H148" s="30">
-        <v>0.6875</v>
-      </c>
-      <c r="I148" s="27" t="s">
-        <v>524</v>
-      </c>
-      <c r="J148" s="27" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="31">
-        <v>45517.77767351852</v>
-      </c>
-      <c r="B149" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C149" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="D149" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="E149" s="36" t="s">
-        <v>529</v>
-      </c>
-      <c r="F149" s="34">
-        <v>45517.0</v>
-      </c>
-      <c r="G149" s="35">
-        <v>0.5833333333357587</v>
-      </c>
-      <c r="H149" s="35">
-        <v>0.6875</v>
-      </c>
-      <c r="I149" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="J149" s="32" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="26">
-        <v>45517.778264016204</v>
-      </c>
-      <c r="B150" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C150" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="D150" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="E150" s="28" t="s">
-        <v>530</v>
-      </c>
-      <c r="F150" s="29">
-        <v>45517.0</v>
-      </c>
-      <c r="G150" s="30">
-        <v>0.5833333333357587</v>
-      </c>
-      <c r="H150" s="30">
-        <v>0.6875</v>
-      </c>
-      <c r="I150" s="27" t="s">
-        <v>524</v>
-      </c>
-      <c r="J150" s="27" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="31">
-        <v>45517.778748067125</v>
-      </c>
-      <c r="B151" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C151" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D151" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="E151" s="36" t="s">
-        <v>531</v>
-      </c>
-      <c r="F151" s="34">
-        <v>45517.0</v>
-      </c>
-      <c r="G151" s="35">
-        <v>0.5833333333357587</v>
-      </c>
-      <c r="H151" s="35">
-        <v>0.6875</v>
-      </c>
-      <c r="I151" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="J151" s="32" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="26">
-        <v>45517.821123229165</v>
-      </c>
-      <c r="B152" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C152" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D152" s="27" t="s">
-        <v>532</v>
-      </c>
-      <c r="E152" s="28" t="s">
-        <v>533</v>
-      </c>
-      <c r="F152" s="29">
-        <v>45517.0</v>
-      </c>
-      <c r="G152" s="30">
-        <v>0.7291666666642413</v>
-      </c>
-      <c r="H152" s="30">
-        <v>0.8125</v>
-      </c>
-      <c r="I152" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="J152" s="27" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="31">
-        <v>45517.822803125004</v>
-      </c>
-      <c r="B153" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C153" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="D153" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="E153" s="33"/>
-      <c r="F153" s="34">
-        <v>45517.0</v>
-      </c>
-      <c r="G153" s="35">
-        <v>0.5833333333357587</v>
-      </c>
-      <c r="H153" s="35">
-        <v>0.6875</v>
-      </c>
-      <c r="I153" s="32" t="s">
-        <v>536</v>
-      </c>
-      <c r="J153" s="32" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="26">
-        <v>45517.82645143519</v>
-      </c>
-      <c r="B154" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C154" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D154" s="27" t="s">
-        <v>538</v>
-      </c>
-      <c r="E154" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="F154" s="29">
-        <v>45517.0</v>
-      </c>
-      <c r="G154" s="30">
-        <v>0.7291666666642413</v>
-      </c>
-      <c r="H154" s="30">
-        <v>0.8333333333357587</v>
-      </c>
-      <c r="I154" s="27" t="s">
-        <v>540</v>
-      </c>
-      <c r="J154" s="27" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="31">
-        <v>45517.82822041667</v>
-      </c>
-      <c r="B155" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C155" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D155" s="32" t="s">
-        <v>538</v>
-      </c>
-      <c r="E155" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="F155" s="34">
-        <v>45517.0</v>
-      </c>
-      <c r="G155" s="35">
-        <v>0.7291666666642413</v>
-      </c>
-      <c r="H155" s="35">
-        <v>0.8333333333357587</v>
-      </c>
-      <c r="I155" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="J155" s="32" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="26">
-        <v>45517.83464716435</v>
-      </c>
-      <c r="B156" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="C156" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="D156" s="27" t="s">
-        <v>545</v>
-      </c>
-      <c r="E156" s="27" t="s">
-        <v>546</v>
-      </c>
-      <c r="F156" s="29">
-        <v>45517.0</v>
-      </c>
-      <c r="G156" s="30">
-        <v>0.7291666666642413</v>
-      </c>
-      <c r="H156" s="30">
-        <v>0.8333333333357587</v>
-      </c>
-      <c r="I156" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="J156" s="27" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="31">
-        <v>45517.83745584491</v>
-      </c>
-      <c r="B157" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="C157" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="D157" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E157" s="32" t="s">
-        <v>548</v>
-      </c>
-      <c r="F157" s="34">
-        <v>45517.0</v>
-      </c>
-      <c r="G157" s="35">
-        <v>0.7291666666642413</v>
-      </c>
-      <c r="H157" s="35">
-        <v>0.8333333333357587</v>
-      </c>
-      <c r="I157" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="26">
-        <v>45517.837965150466</v>
-      </c>
-      <c r="B158" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="C158" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D158" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E158" s="27" t="s">
-        <v>549</v>
-      </c>
-      <c r="F158" s="29">
-        <v>45517.0</v>
-      </c>
-      <c r="G158" s="30">
-        <v>0.7291666666642413</v>
-      </c>
-      <c r="H158" s="30">
-        <v>0.8333333333357587</v>
-      </c>
-      <c r="I158" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="31">
-        <v>45517.83871653935</v>
-      </c>
-      <c r="B159" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="C159" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="D159" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E159" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="F159" s="34">
-        <v>45517.0</v>
-      </c>
-      <c r="G159" s="35">
-        <v>0.7291666666642413</v>
-      </c>
-      <c r="H159" s="35">
-        <v>0.8333333333357587</v>
-      </c>
-      <c r="I159" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="26">
-        <v>45517.86126445602</v>
-      </c>
-      <c r="B160" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="C160" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="D160" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="F160" s="29">
-        <v>45517.0</v>
-      </c>
-      <c r="G160" s="30">
-        <v>0.7916666666642413</v>
-      </c>
-      <c r="H160" s="30">
-        <v>0.8541666666642413</v>
-      </c>
-      <c r="I160" s="27" t="s">
-        <v>551</v>
-      </c>
-      <c r="J160" s="27" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="31">
-        <v>45517.87722201389</v>
-      </c>
-      <c r="B161" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C161" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D161" s="32" t="s">
-        <v>553</v>
-      </c>
-      <c r="E161" s="32" t="s">
-        <v>554</v>
-      </c>
-      <c r="F161" s="34">
-        <v>45517.0</v>
-      </c>
-      <c r="G161" s="35">
-        <v>0.7916666666642413</v>
-      </c>
-      <c r="H161" s="35">
-        <v>0.875</v>
-      </c>
-      <c r="I161" s="32" t="s">
-        <v>555</v>
-      </c>
-      <c r="J161" s="32" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="37">
-        <v>45517.87846309028</v>
-      </c>
-      <c r="B162" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C162" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D162" s="38" t="s">
-        <v>557</v>
-      </c>
-      <c r="E162" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="F162" s="39">
-        <v>45517.0</v>
-      </c>
-      <c r="G162" s="40">
-        <v>0.7916666666642413</v>
-      </c>
-      <c r="H162" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="I162" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J162" s="38" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="41"/>
-      <c r="B163" s="42"/>
-      <c r="C163" s="42"/>
-      <c r="D163" s="42"/>
-      <c r="E163" s="43"/>
-      <c r="F163" s="44"/>
-      <c r="G163" s="45"/>
-      <c r="H163" s="45"/>
-      <c r="I163" s="46"/>
-      <c r="J163" s="46"/>
-      <c r="K163" s="46"/>
-      <c r="L163" s="47"/>
-      <c r="M163" s="48"/>
-      <c r="N163" s="48"/>
-      <c r="O163" s="48"/>
-      <c r="P163" s="48"/>
-      <c r="Q163" s="48"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="49"/>
-      <c r="B164" s="49"/>
-      <c r="C164" s="49"/>
-      <c r="D164" s="49"/>
-      <c r="E164" s="43"/>
-      <c r="F164" s="50"/>
-      <c r="G164" s="50"/>
-      <c r="H164" s="50"/>
-      <c r="I164" s="50"/>
-      <c r="J164" s="50"/>
-      <c r="K164" s="50"/>
-      <c r="L164" s="51"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="49"/>
-      <c r="B165" s="49"/>
-      <c r="C165" s="49"/>
-      <c r="D165" s="49"/>
-      <c r="E165" s="43"/>
-      <c r="F165" s="50"/>
-      <c r="G165" s="50"/>
-      <c r="H165" s="50"/>
-      <c r="I165" s="50"/>
-      <c r="J165" s="50"/>
-      <c r="K165" s="50"/>
-      <c r="L165" s="51"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="49"/>
-      <c r="B166" s="49"/>
-      <c r="C166" s="49"/>
-      <c r="D166" s="49"/>
-      <c r="E166" s="43"/>
-      <c r="F166" s="50"/>
-      <c r="G166" s="50"/>
-      <c r="H166" s="50"/>
-      <c r="I166" s="50"/>
-      <c r="J166" s="50"/>
-      <c r="K166" s="50"/>
-      <c r="L166" s="51"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="49"/>
-      <c r="B167" s="49"/>
-      <c r="C167" s="49"/>
-      <c r="D167" s="49"/>
-      <c r="E167" s="43"/>
-      <c r="F167" s="50"/>
-      <c r="G167" s="50"/>
-      <c r="H167" s="50"/>
-      <c r="I167" s="50"/>
-      <c r="J167" s="50"/>
-      <c r="K167" s="50"/>
-      <c r="L167" s="51"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="49"/>
-      <c r="B168" s="49"/>
-      <c r="C168" s="49"/>
-      <c r="D168" s="49"/>
-      <c r="E168" s="43"/>
-      <c r="F168" s="50"/>
-      <c r="G168" s="50"/>
-      <c r="H168" s="50"/>
-      <c r="I168" s="50"/>
-      <c r="J168" s="50"/>
-      <c r="K168" s="50"/>
-      <c r="L168" s="51"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="52"/>
-      <c r="B169" s="53"/>
-      <c r="C169" s="53"/>
-      <c r="D169" s="53"/>
-      <c r="E169" s="54"/>
-      <c r="F169" s="50"/>
-      <c r="G169" s="50"/>
-      <c r="H169" s="50"/>
-      <c r="I169" s="50"/>
-      <c r="J169" s="50"/>
-      <c r="K169" s="50"/>
-      <c r="L169" s="51"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="52"/>
-      <c r="B170" s="53"/>
-      <c r="C170" s="53"/>
-      <c r="D170" s="53"/>
-      <c r="E170" s="54"/>
-      <c r="F170" s="50"/>
-      <c r="G170" s="50"/>
-      <c r="H170" s="50"/>
-      <c r="I170" s="50"/>
-      <c r="J170" s="50"/>
-      <c r="K170" s="50"/>
-      <c r="L170" s="51"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="52"/>
-      <c r="B171" s="53"/>
-      <c r="C171" s="53"/>
-      <c r="D171" s="53"/>
-      <c r="E171" s="54"/>
-      <c r="F171" s="50"/>
-      <c r="G171" s="50"/>
-      <c r="H171" s="50"/>
-      <c r="I171" s="50"/>
-      <c r="J171" s="50"/>
-      <c r="K171" s="50"/>
-      <c r="L171" s="51"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="52"/>
-      <c r="B172" s="53"/>
-      <c r="C172" s="53"/>
-      <c r="D172" s="53"/>
-      <c r="E172" s="54"/>
-      <c r="F172" s="50"/>
-      <c r="G172" s="50"/>
-      <c r="H172" s="50"/>
-      <c r="I172" s="50"/>
-      <c r="J172" s="50"/>
-      <c r="K172" s="50"/>
-      <c r="L172" s="51"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="52"/>
-      <c r="B173" s="53"/>
-      <c r="C173" s="53"/>
-      <c r="D173" s="53"/>
-      <c r="E173" s="54"/>
-      <c r="F173" s="55"/>
-      <c r="G173" s="55"/>
-      <c r="H173" s="55"/>
-      <c r="I173" s="53"/>
-      <c r="J173" s="51"/>
-      <c r="K173" s="51"/>
-      <c r="L173" s="51"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="52"/>
-      <c r="B174" s="53"/>
-      <c r="C174" s="53"/>
-      <c r="D174" s="53"/>
-      <c r="E174" s="54"/>
-      <c r="F174" s="55"/>
-      <c r="G174" s="55"/>
-      <c r="H174" s="55"/>
-      <c r="I174" s="53"/>
-      <c r="J174" s="51"/>
-      <c r="K174" s="51"/>
-      <c r="L174" s="51"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="52"/>
-      <c r="B175" s="53"/>
-      <c r="C175" s="53"/>
-      <c r="D175" s="53"/>
-      <c r="E175" s="54"/>
-      <c r="F175" s="55"/>
-      <c r="G175" s="55"/>
-      <c r="H175" s="55"/>
-      <c r="I175" s="53"/>
-      <c r="J175" s="51"/>
-      <c r="K175" s="51"/>
-      <c r="L175" s="51"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="52"/>
-      <c r="B176" s="53"/>
-      <c r="C176" s="53"/>
-      <c r="D176" s="53"/>
-      <c r="E176" s="54"/>
-      <c r="F176" s="55"/>
-      <c r="G176" s="55"/>
-      <c r="H176" s="55"/>
-      <c r="I176" s="53"/>
-      <c r="J176" s="51"/>
-      <c r="K176" s="51"/>
-      <c r="L176" s="51"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="52"/>
-      <c r="B177" s="53"/>
-      <c r="C177" s="53"/>
-      <c r="D177" s="53"/>
-      <c r="E177" s="54"/>
-      <c r="F177" s="55"/>
-      <c r="G177" s="55"/>
-      <c r="H177" s="55"/>
-      <c r="I177" s="56"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="52"/>
-      <c r="B178" s="53"/>
-      <c r="C178" s="53"/>
-      <c r="D178" s="53"/>
-      <c r="E178" s="54"/>
-      <c r="F178" s="55"/>
-      <c r="G178" s="55"/>
-      <c r="H178" s="55"/>
-      <c r="I178" s="56"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="52"/>
-      <c r="B179" s="53"/>
-      <c r="C179" s="53"/>
-      <c r="D179" s="53"/>
-      <c r="E179" s="54"/>
-      <c r="F179" s="55"/>
-      <c r="G179" s="55"/>
-      <c r="H179" s="55"/>
-      <c r="I179" s="56"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="52"/>
-      <c r="B180" s="53"/>
-      <c r="C180" s="53"/>
-      <c r="D180" s="53"/>
-      <c r="E180" s="54"/>
-      <c r="F180" s="55"/>
-      <c r="G180" s="55"/>
-      <c r="H180" s="55"/>
-      <c r="I180" s="56"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="57"/>
-      <c r="B181" s="51"/>
-      <c r="C181" s="51"/>
-      <c r="D181" s="51"/>
-      <c r="E181" s="54"/>
-      <c r="F181" s="55"/>
-      <c r="G181" s="55"/>
-      <c r="H181" s="55"/>
-      <c r="I181" s="56"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="57"/>
-      <c r="B182" s="51"/>
-      <c r="C182" s="51"/>
-      <c r="D182" s="51"/>
-      <c r="E182" s="54"/>
-      <c r="F182" s="55"/>
-      <c r="G182" s="55"/>
-      <c r="H182" s="55"/>
-      <c r="I182" s="56"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="57"/>
-      <c r="B183" s="51"/>
-      <c r="C183" s="51"/>
-      <c r="D183" s="51"/>
-      <c r="E183" s="54"/>
-      <c r="F183" s="55"/>
-      <c r="G183" s="55"/>
-      <c r="H183" s="55"/>
-      <c r="I183" s="56"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="57"/>
-      <c r="B184" s="51"/>
-      <c r="C184" s="51"/>
-      <c r="D184" s="51"/>
-      <c r="E184" s="54"/>
-      <c r="F184" s="55"/>
-      <c r="G184" s="55"/>
-      <c r="H184" s="55"/>
-      <c r="I184" s="56"/>
-    </row>
-    <row r="185">
-      <c r="B185" s="51"/>
-      <c r="C185" s="51"/>
-      <c r="D185" s="51"/>
-      <c r="E185" s="54"/>
-      <c r="F185" s="55"/>
-      <c r="G185" s="55"/>
-      <c r="H185" s="55"/>
-      <c r="I185" s="56"/>
-    </row>
-    <row r="186">
-      <c r="B186" s="51"/>
-      <c r="C186" s="51"/>
-      <c r="D186" s="51"/>
-      <c r="E186" s="54"/>
-      <c r="F186" s="55"/>
-      <c r="G186" s="55"/>
-      <c r="H186" s="55"/>
-      <c r="I186" s="56"/>
-    </row>
-    <row r="187">
-      <c r="B187" s="51"/>
-      <c r="C187" s="51"/>
-      <c r="D187" s="51"/>
-      <c r="E187" s="54"/>
-      <c r="F187" s="55"/>
-      <c r="G187" s="55"/>
-      <c r="H187" s="55"/>
-      <c r="I187" s="56"/>
-    </row>
-    <row r="188">
-      <c r="B188" s="51"/>
-      <c r="C188" s="51"/>
-      <c r="D188" s="51"/>
-      <c r="E188" s="54"/>
-      <c r="F188" s="55"/>
-      <c r="G188" s="55"/>
-      <c r="H188" s="55"/>
-      <c r="I188" s="56"/>
-    </row>
-    <row r="189">
-      <c r="B189" s="51"/>
-      <c r="C189" s="51"/>
-      <c r="D189" s="51"/>
-      <c r="E189" s="54"/>
-      <c r="F189" s="55"/>
-      <c r="G189" s="55"/>
-      <c r="H189" s="55"/>
-      <c r="I189" s="56"/>
+      <c r="I189" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="J189" s="39" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="190">
-      <c r="B190" s="51"/>
-      <c r="C190" s="51"/>
-      <c r="D190" s="51"/>
-      <c r="E190" s="54"/>
-      <c r="F190" s="55"/>
-      <c r="G190" s="55"/>
-      <c r="H190" s="55"/>
-      <c r="I190" s="56"/>
+      <c r="A190" s="42"/>
+      <c r="B190" s="43"/>
+      <c r="C190" s="43"/>
+      <c r="D190" s="43"/>
+      <c r="E190" s="44"/>
+      <c r="F190" s="45"/>
+      <c r="G190" s="46"/>
+      <c r="H190" s="46"/>
+      <c r="I190" s="47"/>
+      <c r="J190" s="47"/>
+      <c r="K190" s="47"/>
+      <c r="L190" s="48"/>
+      <c r="M190" s="49"/>
+      <c r="N190" s="49"/>
+      <c r="O190" s="49"/>
+      <c r="P190" s="49"/>
+      <c r="Q190" s="49"/>
     </row>
     <row r="191">
-      <c r="B191" s="51"/>
-      <c r="C191" s="51"/>
-      <c r="D191" s="51"/>
-      <c r="E191" s="54"/>
-      <c r="F191" s="55"/>
-      <c r="G191" s="55"/>
-      <c r="H191" s="55"/>
-      <c r="I191" s="56"/>
+      <c r="A191" s="50"/>
+      <c r="B191" s="50"/>
+      <c r="C191" s="50"/>
+      <c r="D191" s="50"/>
+      <c r="E191" s="44"/>
+      <c r="F191" s="51"/>
+      <c r="G191" s="51"/>
+      <c r="H191" s="51"/>
+      <c r="I191" s="51"/>
+      <c r="J191" s="51"/>
+      <c r="K191" s="51"/>
+      <c r="L191" s="52"/>
     </row>
     <row r="192">
-      <c r="B192" s="51"/>
-      <c r="C192" s="51"/>
-      <c r="D192" s="51"/>
-      <c r="E192" s="54"/>
-      <c r="F192" s="55"/>
-      <c r="G192" s="55"/>
-      <c r="H192" s="55"/>
-      <c r="I192" s="56"/>
+      <c r="A192" s="50"/>
+      <c r="B192" s="50"/>
+      <c r="C192" s="50"/>
+      <c r="D192" s="50"/>
+      <c r="E192" s="44"/>
+      <c r="F192" s="51"/>
+      <c r="G192" s="51"/>
+      <c r="H192" s="51"/>
+      <c r="I192" s="51"/>
+      <c r="J192" s="51"/>
+      <c r="K192" s="51"/>
+      <c r="L192" s="52"/>
     </row>
     <row r="193">
-      <c r="B193" s="51"/>
-      <c r="C193" s="51"/>
-      <c r="D193" s="51"/>
-      <c r="E193" s="54"/>
-      <c r="F193" s="55"/>
-      <c r="G193" s="55"/>
-      <c r="H193" s="55"/>
-      <c r="I193" s="56"/>
+      <c r="A193" s="50"/>
+      <c r="B193" s="50"/>
+      <c r="C193" s="50"/>
+      <c r="D193" s="50"/>
+      <c r="E193" s="44"/>
+      <c r="F193" s="51"/>
+      <c r="G193" s="51"/>
+      <c r="H193" s="51"/>
+      <c r="I193" s="51"/>
+      <c r="J193" s="51"/>
+      <c r="K193" s="51"/>
+      <c r="L193" s="52"/>
     </row>
     <row r="194">
-      <c r="B194" s="51"/>
-      <c r="C194" s="51"/>
-      <c r="D194" s="51"/>
-      <c r="E194" s="54"/>
-      <c r="F194" s="55"/>
-      <c r="G194" s="55"/>
-      <c r="H194" s="55"/>
-      <c r="I194" s="56"/>
+      <c r="A194" s="50"/>
+      <c r="B194" s="50"/>
+      <c r="C194" s="50"/>
+      <c r="D194" s="50"/>
+      <c r="E194" s="44"/>
+      <c r="F194" s="51"/>
+      <c r="G194" s="51"/>
+      <c r="H194" s="51"/>
+      <c r="I194" s="51"/>
+      <c r="J194" s="51"/>
+      <c r="K194" s="51"/>
+      <c r="L194" s="52"/>
     </row>
     <row r="195">
-      <c r="B195" s="51"/>
-      <c r="C195" s="51"/>
-      <c r="D195" s="51"/>
-      <c r="E195" s="54"/>
-      <c r="F195" s="55"/>
-      <c r="G195" s="55"/>
-      <c r="H195" s="55"/>
-      <c r="I195" s="56"/>
+      <c r="A195" s="50"/>
+      <c r="B195" s="50"/>
+      <c r="C195" s="50"/>
+      <c r="D195" s="50"/>
+      <c r="E195" s="44"/>
+      <c r="F195" s="51"/>
+      <c r="G195" s="51"/>
+      <c r="H195" s="51"/>
+      <c r="I195" s="51"/>
+      <c r="J195" s="51"/>
+      <c r="K195" s="51"/>
+      <c r="L195" s="52"/>
     </row>
     <row r="196">
-      <c r="B196" s="51"/>
-      <c r="C196" s="51"/>
-      <c r="D196" s="51"/>
-      <c r="E196" s="54"/>
-      <c r="F196" s="55"/>
-      <c r="G196" s="55"/>
-      <c r="H196" s="55"/>
-      <c r="I196" s="56"/>
+      <c r="A196" s="53"/>
+      <c r="B196" s="54"/>
+      <c r="C196" s="54"/>
+      <c r="D196" s="54"/>
+      <c r="E196" s="55"/>
+      <c r="F196" s="51"/>
+      <c r="G196" s="51"/>
+      <c r="H196" s="51"/>
+      <c r="I196" s="51"/>
+      <c r="J196" s="51"/>
+      <c r="K196" s="51"/>
+      <c r="L196" s="52"/>
     </row>
     <row r="197">
-      <c r="B197" s="51"/>
-      <c r="C197" s="51"/>
-      <c r="D197" s="51"/>
-      <c r="E197" s="54"/>
-      <c r="F197" s="55"/>
-      <c r="G197" s="55"/>
-      <c r="H197" s="55"/>
-      <c r="I197" s="56"/>
+      <c r="A197" s="53"/>
+      <c r="B197" s="54"/>
+      <c r="C197" s="54"/>
+      <c r="D197" s="54"/>
+      <c r="E197" s="55"/>
+      <c r="F197" s="51"/>
+      <c r="G197" s="51"/>
+      <c r="H197" s="51"/>
+      <c r="I197" s="51"/>
+      <c r="J197" s="51"/>
+      <c r="K197" s="51"/>
+      <c r="L197" s="52"/>
     </row>
     <row r="198">
-      <c r="B198" s="51"/>
-      <c r="C198" s="51"/>
-      <c r="D198" s="51"/>
-      <c r="E198" s="54"/>
-      <c r="F198" s="55"/>
-      <c r="G198" s="55"/>
-      <c r="H198" s="55"/>
-      <c r="I198" s="56"/>
+      <c r="A198" s="53"/>
+      <c r="B198" s="54"/>
+      <c r="C198" s="54"/>
+      <c r="D198" s="54"/>
+      <c r="E198" s="55"/>
+      <c r="F198" s="51"/>
+      <c r="G198" s="51"/>
+      <c r="H198" s="51"/>
+      <c r="I198" s="51"/>
+      <c r="J198" s="51"/>
+      <c r="K198" s="51"/>
+      <c r="L198" s="52"/>
     </row>
     <row r="199">
-      <c r="B199" s="51"/>
-      <c r="C199" s="51"/>
-      <c r="D199" s="51"/>
-      <c r="E199" s="54"/>
-      <c r="F199" s="55"/>
-      <c r="G199" s="55"/>
-      <c r="H199" s="55"/>
-      <c r="I199" s="56"/>
+      <c r="A199" s="53"/>
+      <c r="B199" s="54"/>
+      <c r="C199" s="54"/>
+      <c r="D199" s="54"/>
+      <c r="E199" s="55"/>
+      <c r="F199" s="51"/>
+      <c r="G199" s="51"/>
+      <c r="H199" s="51"/>
+      <c r="I199" s="51"/>
+      <c r="J199" s="51"/>
+      <c r="K199" s="51"/>
+      <c r="L199" s="52"/>
     </row>
     <row r="200">
-      <c r="B200" s="51"/>
-      <c r="C200" s="51"/>
-      <c r="D200" s="51"/>
-      <c r="E200" s="54"/>
-      <c r="F200" s="55"/>
-      <c r="G200" s="55"/>
-      <c r="H200" s="55"/>
-      <c r="I200" s="56"/>
+      <c r="A200" s="53"/>
+      <c r="B200" s="54"/>
+      <c r="C200" s="54"/>
+      <c r="D200" s="54"/>
+      <c r="E200" s="55"/>
+      <c r="F200" s="56"/>
+      <c r="G200" s="56"/>
+      <c r="H200" s="56"/>
+      <c r="I200" s="54"/>
+      <c r="J200" s="52"/>
+      <c r="K200" s="52"/>
+      <c r="L200" s="52"/>
     </row>
     <row r="201">
-      <c r="B201" s="51"/>
-      <c r="C201" s="51"/>
-      <c r="D201" s="51"/>
-      <c r="E201" s="54"/>
-      <c r="F201" s="55"/>
-      <c r="G201" s="55"/>
-      <c r="H201" s="55"/>
-      <c r="I201" s="56"/>
+      <c r="A201" s="53"/>
+      <c r="B201" s="54"/>
+      <c r="C201" s="54"/>
+      <c r="D201" s="54"/>
+      <c r="E201" s="55"/>
+      <c r="F201" s="56"/>
+      <c r="G201" s="56"/>
+      <c r="H201" s="56"/>
+      <c r="I201" s="54"/>
+      <c r="J201" s="52"/>
+      <c r="K201" s="52"/>
+      <c r="L201" s="52"/>
     </row>
     <row r="202">
-      <c r="B202" s="51"/>
-      <c r="C202" s="51"/>
-      <c r="D202" s="51"/>
-      <c r="E202" s="54"/>
-      <c r="F202" s="55"/>
-      <c r="G202" s="55"/>
-      <c r="H202" s="55"/>
-      <c r="I202" s="56"/>
+      <c r="A202" s="53"/>
+      <c r="B202" s="54"/>
+      <c r="C202" s="54"/>
+      <c r="D202" s="54"/>
+      <c r="E202" s="55"/>
+      <c r="F202" s="56"/>
+      <c r="G202" s="56"/>
+      <c r="H202" s="56"/>
+      <c r="I202" s="54"/>
+      <c r="J202" s="52"/>
+      <c r="K202" s="52"/>
+      <c r="L202" s="52"/>
     </row>
     <row r="203">
-      <c r="B203" s="51"/>
-      <c r="C203" s="51"/>
-      <c r="D203" s="51"/>
-      <c r="E203" s="54"/>
-      <c r="F203" s="55"/>
-      <c r="G203" s="55"/>
-      <c r="H203" s="55"/>
-      <c r="I203" s="56"/>
+      <c r="A203" s="53"/>
+      <c r="B203" s="54"/>
+      <c r="C203" s="54"/>
+      <c r="D203" s="54"/>
+      <c r="E203" s="55"/>
+      <c r="F203" s="56"/>
+      <c r="G203" s="56"/>
+      <c r="H203" s="56"/>
+      <c r="I203" s="54"/>
+      <c r="J203" s="52"/>
+      <c r="K203" s="52"/>
+      <c r="L203" s="52"/>
     </row>
     <row r="204">
-      <c r="B204" s="51"/>
-      <c r="C204" s="51"/>
-      <c r="D204" s="51"/>
-      <c r="E204" s="54"/>
-      <c r="F204" s="55"/>
-      <c r="G204" s="55"/>
-      <c r="H204" s="55"/>
-      <c r="I204" s="56"/>
+      <c r="A204" s="53"/>
+      <c r="B204" s="54"/>
+      <c r="C204" s="54"/>
+      <c r="D204" s="54"/>
+      <c r="E204" s="55"/>
+      <c r="F204" s="56"/>
+      <c r="G204" s="56"/>
+      <c r="H204" s="56"/>
+      <c r="I204" s="57"/>
     </row>
     <row r="205">
-      <c r="B205" s="51"/>
-      <c r="C205" s="51"/>
-      <c r="D205" s="51"/>
-      <c r="E205" s="54"/>
-      <c r="F205" s="55"/>
-      <c r="G205" s="55"/>
-      <c r="H205" s="55"/>
-      <c r="I205" s="56"/>
+      <c r="A205" s="53"/>
+      <c r="B205" s="54"/>
+      <c r="C205" s="54"/>
+      <c r="D205" s="54"/>
+      <c r="E205" s="55"/>
+      <c r="F205" s="56"/>
+      <c r="G205" s="56"/>
+      <c r="H205" s="56"/>
+      <c r="I205" s="57"/>
     </row>
     <row r="206">
-      <c r="B206" s="51"/>
-      <c r="C206" s="51"/>
-      <c r="D206" s="51"/>
-      <c r="E206" s="54"/>
-      <c r="F206" s="55"/>
-      <c r="G206" s="55"/>
-      <c r="H206" s="55"/>
-      <c r="I206" s="56"/>
+      <c r="A206" s="53"/>
+      <c r="B206" s="54"/>
+      <c r="C206" s="54"/>
+      <c r="D206" s="54"/>
+      <c r="E206" s="55"/>
+      <c r="F206" s="56"/>
+      <c r="G206" s="56"/>
+      <c r="H206" s="56"/>
+      <c r="I206" s="57"/>
     </row>
     <row r="207">
-      <c r="B207" s="51"/>
-      <c r="C207" s="51"/>
-      <c r="D207" s="51"/>
-      <c r="E207" s="54"/>
-      <c r="F207" s="55"/>
-      <c r="G207" s="55"/>
-      <c r="H207" s="55"/>
-      <c r="I207" s="56"/>
+      <c r="A207" s="53"/>
+      <c r="B207" s="54"/>
+      <c r="C207" s="54"/>
+      <c r="D207" s="54"/>
+      <c r="E207" s="55"/>
+      <c r="F207" s="56"/>
+      <c r="G207" s="56"/>
+      <c r="H207" s="56"/>
+      <c r="I207" s="57"/>
     </row>
     <row r="208">
-      <c r="B208" s="51"/>
-      <c r="C208" s="51"/>
-      <c r="D208" s="51"/>
-      <c r="E208" s="54"/>
-      <c r="F208" s="55"/>
-      <c r="G208" s="55"/>
-      <c r="H208" s="55"/>
-      <c r="I208" s="56"/>
+      <c r="A208" s="58"/>
+      <c r="B208" s="52"/>
+      <c r="C208" s="52"/>
+      <c r="D208" s="52"/>
+      <c r="E208" s="55"/>
+      <c r="F208" s="56"/>
+      <c r="G208" s="56"/>
+      <c r="H208" s="56"/>
+      <c r="I208" s="57"/>
     </row>
     <row r="209">
-      <c r="B209" s="51"/>
-      <c r="C209" s="51"/>
-      <c r="D209" s="51"/>
-      <c r="E209" s="54"/>
-      <c r="F209" s="55"/>
-      <c r="G209" s="55"/>
-      <c r="H209" s="55"/>
-      <c r="I209" s="56"/>
+      <c r="A209" s="58"/>
+      <c r="B209" s="52"/>
+      <c r="C209" s="52"/>
+      <c r="D209" s="52"/>
+      <c r="E209" s="55"/>
+      <c r="F209" s="56"/>
+      <c r="G209" s="56"/>
+      <c r="H209" s="56"/>
+      <c r="I209" s="57"/>
     </row>
     <row r="210">
-      <c r="B210" s="51"/>
-      <c r="C210" s="51"/>
-      <c r="D210" s="51"/>
-      <c r="E210" s="54"/>
-      <c r="F210" s="55"/>
-      <c r="G210" s="55"/>
-      <c r="H210" s="55"/>
-      <c r="I210" s="56"/>
+      <c r="A210" s="58"/>
+      <c r="B210" s="52"/>
+      <c r="C210" s="52"/>
+      <c r="D210" s="52"/>
+      <c r="E210" s="55"/>
+      <c r="F210" s="56"/>
+      <c r="G210" s="56"/>
+      <c r="H210" s="56"/>
+      <c r="I210" s="57"/>
     </row>
     <row r="211">
-      <c r="B211" s="51"/>
-      <c r="C211" s="51"/>
-      <c r="D211" s="51"/>
-      <c r="E211" s="54"/>
-      <c r="F211" s="55"/>
-      <c r="G211" s="55"/>
-      <c r="H211" s="55"/>
-      <c r="I211" s="56"/>
+      <c r="A211" s="58"/>
+      <c r="B211" s="52"/>
+      <c r="C211" s="52"/>
+      <c r="D211" s="52"/>
+      <c r="E211" s="55"/>
+      <c r="F211" s="56"/>
+      <c r="G211" s="56"/>
+      <c r="H211" s="56"/>
+      <c r="I211" s="57"/>
     </row>
     <row r="212">
-      <c r="B212" s="51"/>
-      <c r="C212" s="51"/>
-      <c r="D212" s="51"/>
-      <c r="E212" s="54"/>
-      <c r="F212" s="55"/>
-      <c r="G212" s="55"/>
-      <c r="H212" s="55"/>
-      <c r="I212" s="56"/>
+      <c r="B212" s="52"/>
+      <c r="C212" s="52"/>
+      <c r="D212" s="52"/>
+      <c r="E212" s="55"/>
+      <c r="F212" s="56"/>
+      <c r="G212" s="56"/>
+      <c r="H212" s="56"/>
+      <c r="I212" s="57"/>
     </row>
     <row r="213">
-      <c r="B213" s="51"/>
-      <c r="C213" s="51"/>
-      <c r="D213" s="51"/>
-      <c r="E213" s="54"/>
-      <c r="F213" s="55"/>
-      <c r="G213" s="55"/>
-      <c r="H213" s="55"/>
-      <c r="I213" s="56"/>
+      <c r="B213" s="52"/>
+      <c r="C213" s="52"/>
+      <c r="D213" s="52"/>
+      <c r="E213" s="55"/>
+      <c r="F213" s="56"/>
+      <c r="G213" s="56"/>
+      <c r="H213" s="56"/>
+      <c r="I213" s="57"/>
     </row>
     <row r="214">
-      <c r="B214" s="51"/>
-      <c r="C214" s="51"/>
-      <c r="D214" s="51"/>
-      <c r="E214" s="54"/>
-      <c r="F214" s="55"/>
-      <c r="G214" s="55"/>
-      <c r="H214" s="55"/>
-      <c r="I214" s="56"/>
+      <c r="B214" s="52"/>
+      <c r="C214" s="52"/>
+      <c r="D214" s="52"/>
+      <c r="E214" s="55"/>
+      <c r="F214" s="56"/>
+      <c r="G214" s="56"/>
+      <c r="H214" s="56"/>
+      <c r="I214" s="57"/>
     </row>
     <row r="215">
-      <c r="B215" s="51"/>
-      <c r="C215" s="51"/>
-      <c r="D215" s="51"/>
-      <c r="E215" s="54"/>
-      <c r="F215" s="55"/>
-      <c r="G215" s="55"/>
-      <c r="H215" s="55"/>
-      <c r="I215" s="56"/>
+      <c r="B215" s="52"/>
+      <c r="C215" s="52"/>
+      <c r="D215" s="52"/>
+      <c r="E215" s="55"/>
+      <c r="F215" s="56"/>
+      <c r="G215" s="56"/>
+      <c r="H215" s="56"/>
+      <c r="I215" s="57"/>
     </row>
     <row r="216">
-      <c r="B216" s="51"/>
-      <c r="C216" s="51"/>
-      <c r="D216" s="51"/>
-      <c r="E216" s="54"/>
-      <c r="F216" s="55"/>
-      <c r="G216" s="55"/>
-      <c r="H216" s="55"/>
-      <c r="I216" s="56"/>
+      <c r="B216" s="52"/>
+      <c r="C216" s="52"/>
+      <c r="D216" s="52"/>
+      <c r="E216" s="55"/>
+      <c r="F216" s="56"/>
+      <c r="G216" s="56"/>
+      <c r="H216" s="56"/>
+      <c r="I216" s="57"/>
     </row>
     <row r="217">
-      <c r="B217" s="51"/>
-      <c r="C217" s="51"/>
-      <c r="D217" s="51"/>
-      <c r="E217" s="54"/>
-      <c r="F217" s="55"/>
-      <c r="G217" s="55"/>
-      <c r="H217" s="55"/>
-      <c r="I217" s="56"/>
+      <c r="B217" s="52"/>
+      <c r="C217" s="52"/>
+      <c r="D217" s="52"/>
+      <c r="E217" s="55"/>
+      <c r="F217" s="56"/>
+      <c r="G217" s="56"/>
+      <c r="H217" s="56"/>
+      <c r="I217" s="57"/>
     </row>
     <row r="218">
-      <c r="B218" s="51"/>
-      <c r="C218" s="51"/>
-      <c r="D218" s="51"/>
-      <c r="E218" s="54"/>
-      <c r="F218" s="55"/>
-      <c r="G218" s="55"/>
-      <c r="H218" s="55"/>
-      <c r="I218" s="56"/>
+      <c r="B218" s="52"/>
+      <c r="C218" s="52"/>
+      <c r="D218" s="52"/>
+      <c r="E218" s="55"/>
+      <c r="F218" s="56"/>
+      <c r="G218" s="56"/>
+      <c r="H218" s="56"/>
+      <c r="I218" s="57"/>
     </row>
     <row r="219">
-      <c r="B219" s="51"/>
-      <c r="C219" s="51"/>
-      <c r="D219" s="51"/>
-      <c r="E219" s="54"/>
-      <c r="F219" s="55"/>
-      <c r="G219" s="55"/>
-      <c r="H219" s="55"/>
-      <c r="I219" s="56"/>
+      <c r="B219" s="52"/>
+      <c r="C219" s="52"/>
+      <c r="D219" s="52"/>
+      <c r="E219" s="55"/>
+      <c r="F219" s="56"/>
+      <c r="G219" s="56"/>
+      <c r="H219" s="56"/>
+      <c r="I219" s="57"/>
     </row>
     <row r="220">
-      <c r="B220" s="51"/>
-      <c r="C220" s="51"/>
-      <c r="D220" s="51"/>
-      <c r="E220" s="54"/>
-      <c r="F220" s="55"/>
-      <c r="G220" s="55"/>
-      <c r="H220" s="55"/>
-      <c r="I220" s="56"/>
+      <c r="B220" s="52"/>
+      <c r="C220" s="52"/>
+      <c r="D220" s="52"/>
+      <c r="E220" s="55"/>
+      <c r="F220" s="56"/>
+      <c r="G220" s="56"/>
+      <c r="H220" s="56"/>
+      <c r="I220" s="57"/>
     </row>
     <row r="221">
-      <c r="B221" s="51"/>
-      <c r="C221" s="51"/>
-      <c r="D221" s="51"/>
-      <c r="E221" s="54"/>
-      <c r="F221" s="55"/>
-      <c r="G221" s="55"/>
-      <c r="H221" s="55"/>
-      <c r="I221" s="56"/>
+      <c r="B221" s="52"/>
+      <c r="C221" s="52"/>
+      <c r="D221" s="52"/>
+      <c r="E221" s="55"/>
+      <c r="F221" s="56"/>
+      <c r="G221" s="56"/>
+      <c r="H221" s="56"/>
+      <c r="I221" s="57"/>
     </row>
     <row r="222">
-      <c r="B222" s="51"/>
-      <c r="C222" s="51"/>
-      <c r="D222" s="51"/>
-      <c r="E222" s="54"/>
-      <c r="F222" s="55"/>
-      <c r="G222" s="55"/>
-      <c r="H222" s="55"/>
-      <c r="I222" s="56"/>
+      <c r="B222" s="52"/>
+      <c r="C222" s="52"/>
+      <c r="D222" s="52"/>
+      <c r="E222" s="55"/>
+      <c r="F222" s="56"/>
+      <c r="G222" s="56"/>
+      <c r="H222" s="56"/>
+      <c r="I222" s="57"/>
     </row>
     <row r="223">
-      <c r="B223" s="51"/>
-      <c r="C223" s="51"/>
-      <c r="D223" s="51"/>
-      <c r="E223" s="54"/>
-      <c r="F223" s="55"/>
-      <c r="G223" s="55"/>
-      <c r="H223" s="55"/>
-      <c r="I223" s="56"/>
+      <c r="B223" s="52"/>
+      <c r="C223" s="52"/>
+      <c r="D223" s="52"/>
+      <c r="E223" s="55"/>
+      <c r="F223" s="56"/>
+      <c r="G223" s="56"/>
+      <c r="H223" s="56"/>
+      <c r="I223" s="57"/>
     </row>
     <row r="224">
-      <c r="B224" s="51"/>
-      <c r="C224" s="51"/>
-      <c r="D224" s="51"/>
-      <c r="E224" s="54"/>
-      <c r="F224" s="55"/>
-      <c r="G224" s="55"/>
-      <c r="H224" s="55"/>
-      <c r="I224" s="56"/>
+      <c r="B224" s="52"/>
+      <c r="C224" s="52"/>
+      <c r="D224" s="52"/>
+      <c r="E224" s="55"/>
+      <c r="F224" s="56"/>
+      <c r="G224" s="56"/>
+      <c r="H224" s="56"/>
+      <c r="I224" s="57"/>
     </row>
     <row r="225">
-      <c r="B225" s="51"/>
-      <c r="C225" s="51"/>
-      <c r="D225" s="51"/>
-      <c r="E225" s="54"/>
-      <c r="F225" s="55"/>
-      <c r="G225" s="55"/>
-      <c r="H225" s="55"/>
-      <c r="I225" s="56"/>
+      <c r="B225" s="52"/>
+      <c r="C225" s="52"/>
+      <c r="D225" s="52"/>
+      <c r="E225" s="55"/>
+      <c r="F225" s="56"/>
+      <c r="G225" s="56"/>
+      <c r="H225" s="56"/>
+      <c r="I225" s="57"/>
     </row>
     <row r="226">
-      <c r="B226" s="51"/>
-      <c r="C226" s="51"/>
-      <c r="D226" s="51"/>
-      <c r="E226" s="54"/>
-      <c r="F226" s="55"/>
-      <c r="G226" s="55"/>
-      <c r="H226" s="55"/>
-      <c r="I226" s="56"/>
+      <c r="B226" s="52"/>
+      <c r="C226" s="52"/>
+      <c r="D226" s="52"/>
+      <c r="E226" s="55"/>
+      <c r="F226" s="56"/>
+      <c r="G226" s="56"/>
+      <c r="H226" s="56"/>
+      <c r="I226" s="57"/>
     </row>
     <row r="227">
-      <c r="B227" s="51"/>
-      <c r="C227" s="51"/>
-      <c r="D227" s="51"/>
-      <c r="E227" s="54"/>
-      <c r="F227" s="55"/>
-      <c r="G227" s="55"/>
-      <c r="H227" s="55"/>
-      <c r="I227" s="56"/>
+      <c r="B227" s="52"/>
+      <c r="C227" s="52"/>
+      <c r="D227" s="52"/>
+      <c r="E227" s="55"/>
+      <c r="F227" s="56"/>
+      <c r="G227" s="56"/>
+      <c r="H227" s="56"/>
+      <c r="I227" s="57"/>
     </row>
     <row r="228">
-      <c r="B228" s="51"/>
-      <c r="C228" s="51"/>
-      <c r="D228" s="51"/>
-      <c r="E228" s="54"/>
-      <c r="F228" s="55"/>
-      <c r="G228" s="55"/>
-      <c r="H228" s="55"/>
-      <c r="I228" s="56"/>
+      <c r="B228" s="52"/>
+      <c r="C228" s="52"/>
+      <c r="D228" s="52"/>
+      <c r="E228" s="55"/>
+      <c r="F228" s="56"/>
+      <c r="G228" s="56"/>
+      <c r="H228" s="56"/>
+      <c r="I228" s="57"/>
     </row>
     <row r="229">
-      <c r="B229" s="51"/>
-      <c r="C229" s="51"/>
-      <c r="D229" s="51"/>
-      <c r="E229" s="54"/>
-      <c r="F229" s="55"/>
-      <c r="G229" s="55"/>
-      <c r="H229" s="55"/>
-      <c r="I229" s="56"/>
+      <c r="B229" s="52"/>
+      <c r="C229" s="52"/>
+      <c r="D229" s="52"/>
+      <c r="E229" s="55"/>
+      <c r="F229" s="56"/>
+      <c r="G229" s="56"/>
+      <c r="H229" s="56"/>
+      <c r="I229" s="57"/>
     </row>
     <row r="230">
-      <c r="B230" s="51"/>
-      <c r="C230" s="51"/>
-      <c r="D230" s="51"/>
-      <c r="E230" s="54"/>
-      <c r="F230" s="55"/>
-      <c r="G230" s="55"/>
-      <c r="H230" s="55"/>
-      <c r="I230" s="56"/>
+      <c r="B230" s="52"/>
+      <c r="C230" s="52"/>
+      <c r="D230" s="52"/>
+      <c r="E230" s="55"/>
+      <c r="F230" s="56"/>
+      <c r="G230" s="56"/>
+      <c r="H230" s="56"/>
+      <c r="I230" s="57"/>
     </row>
     <row r="231">
-      <c r="B231" s="51"/>
-      <c r="C231" s="51"/>
-      <c r="D231" s="51"/>
-      <c r="E231" s="54"/>
-      <c r="F231" s="55"/>
-      <c r="G231" s="55"/>
-      <c r="H231" s="55"/>
-      <c r="I231" s="56"/>
+      <c r="B231" s="52"/>
+      <c r="C231" s="52"/>
+      <c r="D231" s="52"/>
+      <c r="E231" s="55"/>
+      <c r="F231" s="56"/>
+      <c r="G231" s="56"/>
+      <c r="H231" s="56"/>
+      <c r="I231" s="57"/>
     </row>
     <row r="232">
-      <c r="B232" s="51"/>
-      <c r="C232" s="51"/>
-      <c r="D232" s="51"/>
-      <c r="E232" s="54"/>
-      <c r="F232" s="55"/>
-      <c r="G232" s="55"/>
-      <c r="H232" s="55"/>
-      <c r="I232" s="56"/>
+      <c r="B232" s="52"/>
+      <c r="C232" s="52"/>
+      <c r="D232" s="52"/>
+      <c r="E232" s="55"/>
+      <c r="F232" s="56"/>
+      <c r="G232" s="56"/>
+      <c r="H232" s="56"/>
+      <c r="I232" s="57"/>
     </row>
     <row r="233">
-      <c r="B233" s="51"/>
-      <c r="C233" s="51"/>
-      <c r="D233" s="51"/>
-      <c r="E233" s="54"/>
-      <c r="F233" s="55"/>
-      <c r="G233" s="55"/>
-      <c r="H233" s="55"/>
-      <c r="I233" s="56"/>
+      <c r="B233" s="52"/>
+      <c r="C233" s="52"/>
+      <c r="D233" s="52"/>
+      <c r="E233" s="55"/>
+      <c r="F233" s="56"/>
+      <c r="G233" s="56"/>
+      <c r="H233" s="56"/>
+      <c r="I233" s="57"/>
     </row>
     <row r="234">
-      <c r="B234" s="51"/>
-      <c r="C234" s="51"/>
-      <c r="D234" s="51"/>
-      <c r="E234" s="54"/>
-      <c r="F234" s="55"/>
-      <c r="G234" s="55"/>
-      <c r="H234" s="55"/>
-      <c r="I234" s="56"/>
+      <c r="B234" s="52"/>
+      <c r="C234" s="52"/>
+      <c r="D234" s="52"/>
+      <c r="E234" s="55"/>
+      <c r="F234" s="56"/>
+      <c r="G234" s="56"/>
+      <c r="H234" s="56"/>
+      <c r="I234" s="57"/>
     </row>
     <row r="235">
-      <c r="B235" s="51"/>
-      <c r="C235" s="51"/>
-      <c r="D235" s="51"/>
-      <c r="E235" s="54"/>
-      <c r="F235" s="55"/>
-      <c r="G235" s="55"/>
-      <c r="H235" s="55"/>
-      <c r="I235" s="56"/>
+      <c r="B235" s="52"/>
+      <c r="C235" s="52"/>
+      <c r="D235" s="52"/>
+      <c r="E235" s="55"/>
+      <c r="F235" s="56"/>
+      <c r="G235" s="56"/>
+      <c r="H235" s="56"/>
+      <c r="I235" s="57"/>
     </row>
     <row r="236">
-      <c r="B236" s="51"/>
-      <c r="C236" s="51"/>
-      <c r="D236" s="51"/>
-      <c r="E236" s="54"/>
-      <c r="F236" s="55"/>
-      <c r="G236" s="55"/>
-      <c r="H236" s="55"/>
-      <c r="I236" s="56"/>
+      <c r="B236" s="52"/>
+      <c r="C236" s="52"/>
+      <c r="D236" s="52"/>
+      <c r="E236" s="55"/>
+      <c r="F236" s="56"/>
+      <c r="G236" s="56"/>
+      <c r="H236" s="56"/>
+      <c r="I236" s="57"/>
     </row>
     <row r="237">
-      <c r="B237" s="51"/>
-      <c r="C237" s="51"/>
-      <c r="D237" s="51"/>
-      <c r="E237" s="54"/>
-      <c r="F237" s="55"/>
-      <c r="G237" s="55"/>
-      <c r="H237" s="55"/>
-      <c r="I237" s="56"/>
+      <c r="B237" s="52"/>
+      <c r="C237" s="52"/>
+      <c r="D237" s="52"/>
+      <c r="E237" s="55"/>
+      <c r="F237" s="56"/>
+      <c r="G237" s="56"/>
+      <c r="H237" s="56"/>
+      <c r="I237" s="57"/>
     </row>
     <row r="238">
-      <c r="B238" s="51"/>
-      <c r="C238" s="51"/>
-      <c r="D238" s="51"/>
-      <c r="E238" s="54"/>
-      <c r="F238" s="55"/>
-      <c r="G238" s="55"/>
-      <c r="H238" s="55"/>
-      <c r="I238" s="56"/>
+      <c r="B238" s="52"/>
+      <c r="C238" s="52"/>
+      <c r="D238" s="52"/>
+      <c r="E238" s="55"/>
+      <c r="F238" s="56"/>
+      <c r="G238" s="56"/>
+      <c r="H238" s="56"/>
+      <c r="I238" s="57"/>
     </row>
     <row r="239">
-      <c r="B239" s="51"/>
-      <c r="C239" s="51"/>
-      <c r="D239" s="51"/>
-      <c r="E239" s="54"/>
-      <c r="F239" s="55"/>
-      <c r="G239" s="55"/>
-      <c r="H239" s="55"/>
-      <c r="I239" s="56"/>
+      <c r="B239" s="52"/>
+      <c r="C239" s="52"/>
+      <c r="D239" s="52"/>
+      <c r="E239" s="55"/>
+      <c r="F239" s="56"/>
+      <c r="G239" s="56"/>
+      <c r="H239" s="56"/>
+      <c r="I239" s="57"/>
     </row>
     <row r="240">
-      <c r="B240" s="51"/>
-      <c r="C240" s="51"/>
-      <c r="D240" s="51"/>
-      <c r="E240" s="54"/>
-      <c r="F240" s="55"/>
-      <c r="G240" s="55"/>
-      <c r="H240" s="55"/>
-      <c r="I240" s="56"/>
+      <c r="B240" s="52"/>
+      <c r="C240" s="52"/>
+      <c r="D240" s="52"/>
+      <c r="E240" s="55"/>
+      <c r="F240" s="56"/>
+      <c r="G240" s="56"/>
+      <c r="H240" s="56"/>
+      <c r="I240" s="57"/>
     </row>
     <row r="241">
-      <c r="B241" s="51"/>
-      <c r="C241" s="51"/>
-      <c r="D241" s="51"/>
-      <c r="E241" s="54"/>
-      <c r="F241" s="55"/>
-      <c r="G241" s="55"/>
-      <c r="H241" s="55"/>
-      <c r="I241" s="56"/>
+      <c r="B241" s="52"/>
+      <c r="C241" s="52"/>
+      <c r="D241" s="52"/>
+      <c r="E241" s="55"/>
+      <c r="F241" s="56"/>
+      <c r="G241" s="56"/>
+      <c r="H241" s="56"/>
+      <c r="I241" s="57"/>
     </row>
     <row r="242">
-      <c r="B242" s="51"/>
-      <c r="C242" s="51"/>
-      <c r="D242" s="51"/>
-      <c r="E242" s="54"/>
-      <c r="F242" s="55"/>
-      <c r="G242" s="55"/>
-      <c r="H242" s="55"/>
-      <c r="I242" s="56"/>
+      <c r="B242" s="52"/>
+      <c r="C242" s="52"/>
+      <c r="D242" s="52"/>
+      <c r="E242" s="55"/>
+      <c r="F242" s="56"/>
+      <c r="G242" s="56"/>
+      <c r="H242" s="56"/>
+      <c r="I242" s="57"/>
     </row>
     <row r="243">
-      <c r="B243" s="51"/>
-      <c r="C243" s="51"/>
-      <c r="D243" s="51"/>
-      <c r="E243" s="54"/>
-      <c r="F243" s="55"/>
-      <c r="G243" s="55"/>
-      <c r="H243" s="55"/>
-      <c r="I243" s="56"/>
+      <c r="B243" s="52"/>
+      <c r="C243" s="52"/>
+      <c r="D243" s="52"/>
+      <c r="E243" s="55"/>
+      <c r="F243" s="56"/>
+      <c r="G243" s="56"/>
+      <c r="H243" s="56"/>
+      <c r="I243" s="57"/>
     </row>
     <row r="244">
-      <c r="B244" s="51"/>
-      <c r="C244" s="51"/>
-      <c r="D244" s="51"/>
-      <c r="E244" s="54"/>
-      <c r="F244" s="55"/>
-      <c r="G244" s="55"/>
-      <c r="H244" s="55"/>
-      <c r="I244" s="56"/>
+      <c r="B244" s="52"/>
+      <c r="C244" s="52"/>
+      <c r="D244" s="52"/>
+      <c r="E244" s="55"/>
+      <c r="F244" s="56"/>
+      <c r="G244" s="56"/>
+      <c r="H244" s="56"/>
+      <c r="I244" s="57"/>
     </row>
     <row r="245">
-      <c r="B245" s="51"/>
-      <c r="C245" s="51"/>
-      <c r="D245" s="51"/>
-      <c r="E245" s="54"/>
-      <c r="F245" s="55"/>
-      <c r="G245" s="55"/>
-      <c r="H245" s="55"/>
-      <c r="I245" s="56"/>
+      <c r="B245" s="52"/>
+      <c r="C245" s="52"/>
+      <c r="D245" s="52"/>
+      <c r="E245" s="55"/>
+      <c r="F245" s="56"/>
+      <c r="G245" s="56"/>
+      <c r="H245" s="56"/>
+      <c r="I245" s="57"/>
     </row>
     <row r="246">
-      <c r="B246" s="51"/>
-      <c r="C246" s="51"/>
-      <c r="D246" s="51"/>
-      <c r="E246" s="54"/>
-      <c r="F246" s="55"/>
-      <c r="G246" s="55"/>
-      <c r="H246" s="55"/>
-      <c r="I246" s="56"/>
+      <c r="B246" s="52"/>
+      <c r="C246" s="52"/>
+      <c r="D246" s="52"/>
+      <c r="E246" s="55"/>
+      <c r="F246" s="56"/>
+      <c r="G246" s="56"/>
+      <c r="H246" s="56"/>
+      <c r="I246" s="57"/>
     </row>
     <row r="247">
-      <c r="B247" s="51"/>
-      <c r="C247" s="51"/>
-      <c r="D247" s="51"/>
-      <c r="E247" s="54"/>
-      <c r="F247" s="55"/>
-      <c r="G247" s="55"/>
-      <c r="H247" s="55"/>
-      <c r="I247" s="56"/>
+      <c r="B247" s="52"/>
+      <c r="C247" s="52"/>
+      <c r="D247" s="52"/>
+      <c r="E247" s="55"/>
+      <c r="F247" s="56"/>
+      <c r="G247" s="56"/>
+      <c r="H247" s="56"/>
+      <c r="I247" s="57"/>
     </row>
     <row r="248">
-      <c r="B248" s="51"/>
-      <c r="C248" s="51"/>
-      <c r="D248" s="51"/>
-      <c r="E248" s="54"/>
-      <c r="F248" s="55"/>
-      <c r="G248" s="55"/>
-      <c r="H248" s="55"/>
-      <c r="I248" s="56"/>
+      <c r="B248" s="52"/>
+      <c r="C248" s="52"/>
+      <c r="D248" s="52"/>
+      <c r="E248" s="55"/>
+      <c r="F248" s="56"/>
+      <c r="G248" s="56"/>
+      <c r="H248" s="56"/>
+      <c r="I248" s="57"/>
     </row>
     <row r="249">
-      <c r="B249" s="51"/>
-      <c r="C249" s="51"/>
-      <c r="D249" s="51"/>
-      <c r="E249" s="54"/>
-      <c r="F249" s="55"/>
-      <c r="G249" s="55"/>
-      <c r="H249" s="55"/>
-      <c r="I249" s="56"/>
+      <c r="B249" s="52"/>
+      <c r="C249" s="52"/>
+      <c r="D249" s="52"/>
+      <c r="E249" s="55"/>
+      <c r="F249" s="56"/>
+      <c r="G249" s="56"/>
+      <c r="H249" s="56"/>
+      <c r="I249" s="57"/>
     </row>
     <row r="250">
-      <c r="B250" s="51"/>
-      <c r="C250" s="51"/>
-      <c r="D250" s="51"/>
-      <c r="E250" s="54"/>
-      <c r="F250" s="55"/>
-      <c r="G250" s="55"/>
-      <c r="H250" s="55"/>
-      <c r="I250" s="56"/>
+      <c r="B250" s="52"/>
+      <c r="C250" s="52"/>
+      <c r="D250" s="52"/>
+      <c r="E250" s="55"/>
+      <c r="F250" s="56"/>
+      <c r="G250" s="56"/>
+      <c r="H250" s="56"/>
+      <c r="I250" s="57"/>
     </row>
     <row r="251">
-      <c r="B251" s="51"/>
-      <c r="C251" s="51"/>
-      <c r="D251" s="51"/>
-      <c r="E251" s="54"/>
-      <c r="F251" s="55"/>
-      <c r="G251" s="55"/>
-      <c r="H251" s="55"/>
-      <c r="I251" s="56"/>
+      <c r="B251" s="52"/>
+      <c r="C251" s="52"/>
+      <c r="D251" s="52"/>
+      <c r="E251" s="55"/>
+      <c r="F251" s="56"/>
+      <c r="G251" s="56"/>
+      <c r="H251" s="56"/>
+      <c r="I251" s="57"/>
     </row>
     <row r="252">
-      <c r="B252" s="51"/>
-      <c r="C252" s="51"/>
-      <c r="D252" s="51"/>
-      <c r="E252" s="54"/>
-      <c r="F252" s="55"/>
-      <c r="G252" s="55"/>
-      <c r="H252" s="55"/>
-      <c r="I252" s="56"/>
+      <c r="B252" s="52"/>
+      <c r="C252" s="52"/>
+      <c r="D252" s="52"/>
+      <c r="E252" s="55"/>
+      <c r="F252" s="56"/>
+      <c r="G252" s="56"/>
+      <c r="H252" s="56"/>
+      <c r="I252" s="57"/>
     </row>
     <row r="253">
-      <c r="B253" s="51"/>
-      <c r="C253" s="51"/>
-      <c r="D253" s="51"/>
-      <c r="E253" s="54"/>
-      <c r="F253" s="55"/>
-      <c r="G253" s="55"/>
-      <c r="H253" s="55"/>
-      <c r="I253" s="56"/>
+      <c r="B253" s="52"/>
+      <c r="C253" s="52"/>
+      <c r="D253" s="52"/>
+      <c r="E253" s="55"/>
+      <c r="F253" s="56"/>
+      <c r="G253" s="56"/>
+      <c r="H253" s="56"/>
+      <c r="I253" s="57"/>
     </row>
     <row r="254">
-      <c r="B254" s="51"/>
-      <c r="C254" s="51"/>
-      <c r="D254" s="51"/>
-      <c r="E254" s="54"/>
-      <c r="F254" s="55"/>
-      <c r="G254" s="55"/>
-      <c r="H254" s="55"/>
-      <c r="I254" s="56"/>
+      <c r="B254" s="52"/>
+      <c r="C254" s="52"/>
+      <c r="D254" s="52"/>
+      <c r="E254" s="55"/>
+      <c r="F254" s="56"/>
+      <c r="G254" s="56"/>
+      <c r="H254" s="56"/>
+      <c r="I254" s="57"/>
     </row>
     <row r="255">
-      <c r="B255" s="51"/>
-      <c r="C255" s="51"/>
-      <c r="D255" s="51"/>
-      <c r="E255" s="54"/>
-      <c r="F255" s="55"/>
-      <c r="G255" s="55"/>
-      <c r="H255" s="55"/>
-      <c r="I255" s="56"/>
+      <c r="B255" s="52"/>
+      <c r="C255" s="52"/>
+      <c r="D255" s="52"/>
+      <c r="E255" s="55"/>
+      <c r="F255" s="56"/>
+      <c r="G255" s="56"/>
+      <c r="H255" s="56"/>
+      <c r="I255" s="57"/>
     </row>
     <row r="256">
-      <c r="B256" s="51"/>
-      <c r="C256" s="51"/>
-      <c r="D256" s="51"/>
-      <c r="E256" s="54"/>
-      <c r="F256" s="55"/>
-      <c r="G256" s="55"/>
-      <c r="H256" s="55"/>
-      <c r="I256" s="56"/>
+      <c r="B256" s="52"/>
+      <c r="C256" s="52"/>
+      <c r="D256" s="52"/>
+      <c r="E256" s="55"/>
+      <c r="F256" s="56"/>
+      <c r="G256" s="56"/>
+      <c r="H256" s="56"/>
+      <c r="I256" s="57"/>
     </row>
     <row r="257">
-      <c r="B257" s="51"/>
-      <c r="C257" s="51"/>
-      <c r="D257" s="51"/>
-      <c r="E257" s="54"/>
-      <c r="F257" s="55"/>
-      <c r="G257" s="55"/>
-      <c r="H257" s="55"/>
-      <c r="I257" s="56"/>
+      <c r="B257" s="52"/>
+      <c r="C257" s="52"/>
+      <c r="D257" s="52"/>
+      <c r="E257" s="55"/>
+      <c r="F257" s="56"/>
+      <c r="G257" s="56"/>
+      <c r="H257" s="56"/>
+      <c r="I257" s="57"/>
     </row>
     <row r="258">
-      <c r="B258" s="51"/>
-      <c r="C258" s="51"/>
-      <c r="D258" s="51"/>
-      <c r="E258" s="54"/>
-      <c r="F258" s="55"/>
-      <c r="G258" s="55"/>
-      <c r="H258" s="55"/>
-      <c r="I258" s="56"/>
+      <c r="B258" s="52"/>
+      <c r="C258" s="52"/>
+      <c r="D258" s="52"/>
+      <c r="E258" s="55"/>
+      <c r="F258" s="56"/>
+      <c r="G258" s="56"/>
+      <c r="H258" s="56"/>
+      <c r="I258" s="57"/>
     </row>
     <row r="259">
-      <c r="B259" s="51"/>
-      <c r="C259" s="51"/>
-      <c r="D259" s="51"/>
-      <c r="E259" s="54"/>
-      <c r="F259" s="55"/>
-      <c r="G259" s="55"/>
-      <c r="H259" s="55"/>
-      <c r="I259" s="56"/>
+      <c r="B259" s="52"/>
+      <c r="C259" s="52"/>
+      <c r="D259" s="52"/>
+      <c r="E259" s="55"/>
+      <c r="F259" s="56"/>
+      <c r="G259" s="56"/>
+      <c r="H259" s="56"/>
+      <c r="I259" s="57"/>
     </row>
     <row r="260">
-      <c r="B260" s="51"/>
-      <c r="C260" s="51"/>
-      <c r="D260" s="51"/>
-      <c r="E260" s="54"/>
-      <c r="F260" s="55"/>
-      <c r="G260" s="55"/>
-      <c r="H260" s="55"/>
-      <c r="I260" s="56"/>
+      <c r="B260" s="52"/>
+      <c r="C260" s="52"/>
+      <c r="D260" s="52"/>
+      <c r="E260" s="55"/>
+      <c r="F260" s="56"/>
+      <c r="G260" s="56"/>
+      <c r="H260" s="56"/>
+      <c r="I260" s="57"/>
     </row>
     <row r="261">
-      <c r="B261" s="51"/>
-      <c r="C261" s="51"/>
-      <c r="D261" s="51"/>
-      <c r="E261" s="54"/>
-      <c r="F261" s="55"/>
-      <c r="G261" s="55"/>
-      <c r="H261" s="55"/>
-      <c r="I261" s="56"/>
+      <c r="B261" s="52"/>
+      <c r="C261" s="52"/>
+      <c r="D261" s="52"/>
+      <c r="E261" s="55"/>
+      <c r="F261" s="56"/>
+      <c r="G261" s="56"/>
+      <c r="H261" s="56"/>
+      <c r="I261" s="57"/>
     </row>
     <row r="262">
-      <c r="B262" s="51"/>
-      <c r="C262" s="51"/>
-      <c r="D262" s="51"/>
-      <c r="E262" s="54"/>
-      <c r="F262" s="55"/>
-      <c r="G262" s="55"/>
-      <c r="H262" s="55"/>
-      <c r="I262" s="56"/>
+      <c r="B262" s="52"/>
+      <c r="C262" s="52"/>
+      <c r="D262" s="52"/>
+      <c r="E262" s="55"/>
+      <c r="F262" s="56"/>
+      <c r="G262" s="56"/>
+      <c r="H262" s="56"/>
+      <c r="I262" s="57"/>
+    </row>
+    <row r="263">
+      <c r="B263" s="52"/>
+      <c r="C263" s="52"/>
+      <c r="D263" s="52"/>
+      <c r="E263" s="55"/>
+      <c r="F263" s="56"/>
+      <c r="G263" s="56"/>
+      <c r="H263" s="56"/>
+      <c r="I263" s="57"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="52"/>
+      <c r="C264" s="52"/>
+      <c r="D264" s="52"/>
+      <c r="E264" s="55"/>
+      <c r="F264" s="56"/>
+      <c r="G264" s="56"/>
+      <c r="H264" s="56"/>
+      <c r="I264" s="57"/>
+    </row>
+    <row r="265">
+      <c r="B265" s="52"/>
+      <c r="C265" s="52"/>
+      <c r="D265" s="52"/>
+      <c r="E265" s="55"/>
+      <c r="F265" s="56"/>
+      <c r="G265" s="56"/>
+      <c r="H265" s="56"/>
+      <c r="I265" s="57"/>
+    </row>
+    <row r="266">
+      <c r="B266" s="52"/>
+      <c r="C266" s="52"/>
+      <c r="D266" s="52"/>
+      <c r="E266" s="55"/>
+      <c r="F266" s="56"/>
+      <c r="G266" s="56"/>
+      <c r="H266" s="56"/>
+      <c r="I266" s="57"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="52"/>
+      <c r="C267" s="52"/>
+      <c r="D267" s="52"/>
+      <c r="E267" s="55"/>
+      <c r="F267" s="56"/>
+      <c r="G267" s="56"/>
+      <c r="H267" s="56"/>
+      <c r="I267" s="57"/>
+    </row>
+    <row r="268">
+      <c r="B268" s="52"/>
+      <c r="C268" s="52"/>
+      <c r="D268" s="52"/>
+      <c r="E268" s="55"/>
+      <c r="F268" s="56"/>
+      <c r="G268" s="56"/>
+      <c r="H268" s="56"/>
+      <c r="I268" s="57"/>
+    </row>
+    <row r="269">
+      <c r="B269" s="52"/>
+      <c r="C269" s="52"/>
+      <c r="D269" s="52"/>
+      <c r="E269" s="55"/>
+      <c r="F269" s="56"/>
+      <c r="G269" s="56"/>
+      <c r="H269" s="56"/>
+      <c r="I269" s="57"/>
+    </row>
+    <row r="270">
+      <c r="B270" s="52"/>
+      <c r="C270" s="52"/>
+      <c r="D270" s="52"/>
+      <c r="E270" s="55"/>
+      <c r="F270" s="56"/>
+      <c r="G270" s="56"/>
+      <c r="H270" s="56"/>
+      <c r="I270" s="57"/>
+    </row>
+    <row r="271">
+      <c r="B271" s="52"/>
+      <c r="C271" s="52"/>
+      <c r="D271" s="52"/>
+      <c r="E271" s="55"/>
+      <c r="F271" s="56"/>
+      <c r="G271" s="56"/>
+      <c r="H271" s="56"/>
+      <c r="I271" s="57"/>
+    </row>
+    <row r="272">
+      <c r="B272" s="52"/>
+      <c r="C272" s="52"/>
+      <c r="D272" s="52"/>
+      <c r="E272" s="55"/>
+      <c r="F272" s="56"/>
+      <c r="G272" s="56"/>
+      <c r="H272" s="56"/>
+      <c r="I272" s="57"/>
+    </row>
+    <row r="273">
+      <c r="B273" s="52"/>
+      <c r="C273" s="52"/>
+      <c r="D273" s="52"/>
+      <c r="E273" s="55"/>
+      <c r="F273" s="56"/>
+      <c r="G273" s="56"/>
+      <c r="H273" s="56"/>
+      <c r="I273" s="57"/>
+    </row>
+    <row r="274">
+      <c r="B274" s="52"/>
+      <c r="C274" s="52"/>
+      <c r="D274" s="52"/>
+      <c r="E274" s="55"/>
+      <c r="F274" s="56"/>
+      <c r="G274" s="56"/>
+      <c r="H274" s="56"/>
+      <c r="I274" s="57"/>
+    </row>
+    <row r="275">
+      <c r="B275" s="52"/>
+      <c r="C275" s="52"/>
+      <c r="D275" s="52"/>
+      <c r="E275" s="55"/>
+      <c r="F275" s="56"/>
+      <c r="G275" s="56"/>
+      <c r="H275" s="56"/>
+      <c r="I275" s="57"/>
+    </row>
+    <row r="276">
+      <c r="B276" s="52"/>
+      <c r="C276" s="52"/>
+      <c r="D276" s="52"/>
+      <c r="E276" s="55"/>
+      <c r="F276" s="56"/>
+      <c r="G276" s="56"/>
+      <c r="H276" s="56"/>
+      <c r="I276" s="57"/>
+    </row>
+    <row r="277">
+      <c r="B277" s="52"/>
+      <c r="C277" s="52"/>
+      <c r="D277" s="52"/>
+      <c r="E277" s="55"/>
+      <c r="F277" s="56"/>
+      <c r="G277" s="56"/>
+      <c r="H277" s="56"/>
+      <c r="I277" s="57"/>
+    </row>
+    <row r="278">
+      <c r="B278" s="52"/>
+      <c r="C278" s="52"/>
+      <c r="D278" s="52"/>
+      <c r="E278" s="55"/>
+      <c r="F278" s="56"/>
+      <c r="G278" s="56"/>
+      <c r="H278" s="56"/>
+      <c r="I278" s="57"/>
+    </row>
+    <row r="279">
+      <c r="B279" s="52"/>
+      <c r="C279" s="52"/>
+      <c r="D279" s="52"/>
+      <c r="E279" s="55"/>
+      <c r="F279" s="56"/>
+      <c r="G279" s="56"/>
+      <c r="H279" s="56"/>
+      <c r="I279" s="57"/>
+    </row>
+    <row r="280">
+      <c r="B280" s="52"/>
+      <c r="C280" s="52"/>
+      <c r="D280" s="52"/>
+      <c r="E280" s="55"/>
+      <c r="F280" s="56"/>
+      <c r="G280" s="56"/>
+      <c r="H280" s="56"/>
+      <c r="I280" s="57"/>
+    </row>
+    <row r="281">
+      <c r="B281" s="52"/>
+      <c r="C281" s="52"/>
+      <c r="D281" s="52"/>
+      <c r="E281" s="55"/>
+      <c r="F281" s="56"/>
+      <c r="G281" s="56"/>
+      <c r="H281" s="56"/>
+      <c r="I281" s="57"/>
+    </row>
+    <row r="282">
+      <c r="B282" s="52"/>
+      <c r="C282" s="52"/>
+      <c r="D282" s="52"/>
+      <c r="E282" s="55"/>
+      <c r="F282" s="56"/>
+      <c r="G282" s="56"/>
+      <c r="H282" s="56"/>
+      <c r="I282" s="57"/>
+    </row>
+    <row r="283">
+      <c r="B283" s="52"/>
+      <c r="C283" s="52"/>
+      <c r="D283" s="52"/>
+      <c r="E283" s="55"/>
+      <c r="F283" s="56"/>
+      <c r="G283" s="56"/>
+      <c r="H283" s="56"/>
+      <c r="I283" s="57"/>
+    </row>
+    <row r="284">
+      <c r="B284" s="52"/>
+      <c r="C284" s="52"/>
+      <c r="D284" s="52"/>
+      <c r="E284" s="55"/>
+      <c r="F284" s="56"/>
+      <c r="G284" s="56"/>
+      <c r="H284" s="56"/>
+      <c r="I284" s="57"/>
+    </row>
+    <row r="285">
+      <c r="B285" s="52"/>
+      <c r="C285" s="52"/>
+      <c r="D285" s="52"/>
+      <c r="E285" s="55"/>
+      <c r="F285" s="56"/>
+      <c r="G285" s="56"/>
+      <c r="H285" s="56"/>
+      <c r="I285" s="57"/>
+    </row>
+    <row r="286">
+      <c r="B286" s="52"/>
+      <c r="C286" s="52"/>
+      <c r="D286" s="52"/>
+      <c r="E286" s="55"/>
+      <c r="F286" s="56"/>
+      <c r="G286" s="56"/>
+      <c r="H286" s="56"/>
+      <c r="I286" s="57"/>
+    </row>
+    <row r="287">
+      <c r="B287" s="52"/>
+      <c r="C287" s="52"/>
+      <c r="D287" s="52"/>
+      <c r="E287" s="55"/>
+      <c r="F287" s="56"/>
+      <c r="G287" s="56"/>
+      <c r="H287" s="56"/>
+      <c r="I287" s="57"/>
+    </row>
+    <row r="288">
+      <c r="B288" s="52"/>
+      <c r="C288" s="52"/>
+      <c r="D288" s="52"/>
+      <c r="E288" s="55"/>
+      <c r="F288" s="56"/>
+      <c r="G288" s="56"/>
+      <c r="H288" s="56"/>
+      <c r="I288" s="57"/>
+    </row>
+    <row r="289">
+      <c r="B289" s="52"/>
+      <c r="C289" s="52"/>
+      <c r="D289" s="52"/>
+      <c r="E289" s="55"/>
+      <c r="F289" s="56"/>
+      <c r="G289" s="56"/>
+      <c r="H289" s="56"/>
+      <c r="I289" s="57"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G2:H162">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G2:H189">
       <formula1>OR(TIMEVALUE(TEXT(G2, "hh:mm:ss"))=G2, AND(ISNUMBER(G2), LEFT(CELL("format", G2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="F2:F162">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="F2:F189">
       <formula1>OR(NOT(ISERROR(DATEVALUE(F2))), AND(ISNUMBER(F2), LEFT(CELL("format", F2))="D"))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:B162"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:B189"/>
   </dataValidations>
   <drawing r:id="rId1"/>
   <tableParts count="1">

--- a/input/上課記錄 (回覆).xlsx
+++ b/input/上課記錄 (回覆).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="668">
   <si>
     <t>時間戳記</t>
   </si>
@@ -1864,6 +1864,186 @@
   </si>
   <si>
     <t>還行，但基本公式要背熟</t>
+  </si>
+  <si>
+    <t>數學第一冊2-4完 題目練習</t>
+  </si>
+  <si>
+    <t>作業 93</t>
+  </si>
+  <si>
+    <t>2-4剩下的成效驗收題目跟2-3的成效驗收</t>
+  </si>
+  <si>
+    <t>這邊計算還蠻容易出錯的，角度或正負號帶錯之類的情況</t>
+  </si>
+  <si>
+    <t>作業檢討，平面向量到範例5</t>
+  </si>
+  <si>
+    <t>回家作業分數77</t>
+  </si>
+  <si>
+    <t>很好，很專心</t>
+  </si>
+  <si>
+    <t>111題目檢討</t>
+  </si>
+  <si>
+    <t>112作文、複習112-109題目</t>
+  </si>
+  <si>
+    <t>上課沒有很專心</t>
+  </si>
+  <si>
+    <t>112作文還是沒完成，字跡太潦草，連自己寫的字都看不懂</t>
+  </si>
+  <si>
+    <t>一模進度複習</t>
+  </si>
+  <si>
+    <t>講義後面習題</t>
+  </si>
+  <si>
+    <t>很好不要在粗心了</t>
+  </si>
+  <si>
+    <t>電子學第三張張複習</t>
+  </si>
+  <si>
+    <t>公式要在記熟 觀念要清楚</t>
+  </si>
+  <si>
+    <t>基電第四單元</t>
+  </si>
+  <si>
+    <t>考試:90/回家作業:85</t>
+  </si>
+  <si>
+    <t>節點30題</t>
+  </si>
+  <si>
+    <t>數學三角3-1全</t>
+  </si>
+  <si>
+    <t>講義練習，考卷填充</t>
+  </si>
+  <si>
+    <t>計算速度太慢</t>
+  </si>
+  <si>
+    <t>電工機械第二章</t>
+  </si>
+  <si>
+    <t>電工機械第二章20題</t>
+  </si>
+  <si>
+    <t>良好,作業要記得寫</t>
+  </si>
+  <si>
+    <t>基電迴路</t>
+  </si>
+  <si>
+    <t>回家作業分數85分、90分、測驗90分</t>
+  </si>
+  <si>
+    <t>計算速度要加快</t>
+  </si>
+  <si>
+    <t>數位邏輯第四章</t>
+  </si>
+  <si>
+    <t>回家作業分數83分 80分</t>
+  </si>
+  <si>
+    <t>第四章全</t>
+  </si>
+  <si>
+    <t>第三章歷屆試題沒寫，需補寫。第四章卡諾圖圈選化簡不熟練</t>
+  </si>
+  <si>
+    <t>基本電學 戴維寧</t>
+  </si>
+  <si>
+    <t>0801考卷後20題</t>
+  </si>
+  <si>
+    <t>計算速度需要加油，Eth要多練習</t>
+  </si>
+  <si>
+    <t>電子學 第四章</t>
+  </si>
+  <si>
+    <t>電子學 第四章講義題目</t>
+  </si>
+  <si>
+    <t>整流電路、濾波電路介紹</t>
+  </si>
+  <si>
+    <t>66(20/30) 但寫的速度有變快</t>
+  </si>
+  <si>
+    <t>測驗卷31~50 2-6隨堂練習 歷屆試題</t>
+  </si>
+  <si>
+    <t>狀況比之前好很多蠻多東西都說得出來，感覺得到交代要背的東西有背，寫題目的速度也有變快</t>
+  </si>
+  <si>
+    <t>檢討 模擬考</t>
+  </si>
+  <si>
+    <t>電磁</t>
+  </si>
+  <si>
+    <t>良好</t>
+  </si>
+  <si>
+    <t>電工第二章</t>
+  </si>
+  <si>
+    <t>剩餘考卷完成</t>
+  </si>
+  <si>
+    <t>認真還不錯</t>
+  </si>
+  <si>
+    <t>認真上進，但希望能改變讀書態度</t>
+  </si>
+  <si>
+    <t>正餘弦的應用</t>
+  </si>
+  <si>
+    <t>25/33</t>
+  </si>
+  <si>
+    <t>107 112-114</t>
+  </si>
+  <si>
+    <t>計算常出錯</t>
+  </si>
+  <si>
+    <t>數位邏輯第四單元完</t>
+  </si>
+  <si>
+    <t>作業 50</t>
+  </si>
+  <si>
+    <t>綜合模擬測驗完</t>
+  </si>
+  <si>
+    <t>回答及寫題狀況ok，更熟悉之後解題速度可以再快一點</t>
+  </si>
+  <si>
+    <t>數位邏輯ch4-3</t>
+  </si>
+  <si>
+    <t>score:2/3（2分鐘）+4/5（8mins)，上次回家作業：4/5</t>
+  </si>
+  <si>
+    <t>ch4-3-3*4</t>
+  </si>
+  <si>
+    <t>最簡積之和跟最簡和之積常常搞混，請多多練習</t>
   </si>
 </sst>
 </file>
@@ -2052,10 +2232,10 @@
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -2063,13 +2243,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -2307,7 +2487,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Q189" displayName="表_1" name="表_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Q210" displayName="表_1" name="表_1" id="1">
   <tableColumns count="17">
     <tableColumn name="時間戳記" id="1"/>
     <tableColumn name="老師姓名" id="2"/>
@@ -8998,7 +9178,7 @@
         <v>0.44791666666424135</v>
       </c>
       <c r="H174" s="35">
-        <v>0.03125</v>
+        <v>0.53125</v>
       </c>
       <c r="I174" s="32" t="s">
         <v>559</v>
@@ -9029,8 +9209,8 @@
       <c r="G175" s="30">
         <v>0.5416666666642413</v>
       </c>
-      <c r="H175" s="30">
-        <v>0.125</v>
+      <c r="H175" s="16">
+        <v>0.625</v>
       </c>
       <c r="I175" s="27" t="s">
         <v>563</v>
@@ -9452,460 +9632,894 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="38">
+      <c r="A189" s="26">
         <v>45519.58629415509</v>
       </c>
-      <c r="B189" s="39" t="s">
+      <c r="B189" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C189" s="39" t="s">
+      <c r="C189" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D189" s="39" t="s">
+      <c r="D189" s="27" t="s">
         <v>605</v>
       </c>
-      <c r="E189" s="39" t="s">
+      <c r="E189" s="27" t="s">
         <v>598</v>
       </c>
-      <c r="F189" s="40">
+      <c r="F189" s="29">
         <v>45519.0</v>
       </c>
-      <c r="G189" s="41">
+      <c r="G189" s="30">
         <v>0.41666666666424135</v>
       </c>
-      <c r="H189" s="41">
+      <c r="H189" s="30">
         <v>0.5</v>
       </c>
-      <c r="I189" s="39" t="s">
+      <c r="I189" s="27" t="s">
         <v>606</v>
       </c>
-      <c r="J189" s="39" t="s">
+      <c r="J189" s="27" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="42"/>
-      <c r="B190" s="43"/>
-      <c r="C190" s="43"/>
-      <c r="D190" s="43"/>
-      <c r="E190" s="44"/>
-      <c r="F190" s="45"/>
-      <c r="G190" s="46"/>
-      <c r="H190" s="46"/>
-      <c r="I190" s="47"/>
-      <c r="J190" s="47"/>
-      <c r="K190" s="47"/>
-      <c r="L190" s="48"/>
-      <c r="M190" s="49"/>
-      <c r="N190" s="49"/>
-      <c r="O190" s="49"/>
-      <c r="P190" s="49"/>
-      <c r="Q190" s="49"/>
+      <c r="A190" s="31">
+        <v>45519.630296284726</v>
+      </c>
+      <c r="B190" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C190" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D190" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="E190" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="F190" s="34">
+        <v>45519.0</v>
+      </c>
+      <c r="G190" s="35">
+        <v>0.5416666666642413</v>
+      </c>
+      <c r="H190" s="35">
+        <v>0.625</v>
+      </c>
+      <c r="I190" s="32" t="s">
+        <v>610</v>
+      </c>
+      <c r="J190" s="32" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" s="50"/>
-      <c r="B191" s="50"/>
-      <c r="C191" s="50"/>
-      <c r="D191" s="50"/>
-      <c r="E191" s="44"/>
-      <c r="F191" s="51"/>
-      <c r="G191" s="51"/>
-      <c r="H191" s="51"/>
-      <c r="I191" s="51"/>
-      <c r="J191" s="51"/>
-      <c r="K191" s="51"/>
-      <c r="L191" s="52"/>
+      <c r="A191" s="26">
+        <v>45519.631872928236</v>
+      </c>
+      <c r="B191" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C191" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="D191" s="27" t="s">
+        <v>612</v>
+      </c>
+      <c r="E191" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="F191" s="29">
+        <v>45519.0</v>
+      </c>
+      <c r="G191" s="30">
+        <v>0.5416666666642413</v>
+      </c>
+      <c r="H191" s="30">
+        <v>0.625</v>
+      </c>
+      <c r="I191" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="J191" s="27" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="192">
-      <c r="A192" s="50"/>
-      <c r="B192" s="50"/>
-      <c r="C192" s="50"/>
-      <c r="D192" s="50"/>
-      <c r="E192" s="44"/>
-      <c r="F192" s="51"/>
-      <c r="G192" s="51"/>
-      <c r="H192" s="51"/>
-      <c r="I192" s="51"/>
-      <c r="J192" s="51"/>
-      <c r="K192" s="51"/>
-      <c r="L192" s="52"/>
+      <c r="A192" s="31">
+        <v>45519.65078469907</v>
+      </c>
+      <c r="B192" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C192" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D192" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="F192" s="34">
+        <v>45519.0</v>
+      </c>
+      <c r="G192" s="35">
+        <v>0.5625</v>
+      </c>
+      <c r="H192" s="35">
+        <v>0.6493055555547471</v>
+      </c>
+      <c r="I192" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="J192" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="K192" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="L192" s="32" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="193">
-      <c r="A193" s="50"/>
-      <c r="B193" s="50"/>
-      <c r="C193" s="50"/>
-      <c r="D193" s="50"/>
-      <c r="E193" s="44"/>
-      <c r="F193" s="51"/>
-      <c r="G193" s="51"/>
-      <c r="H193" s="51"/>
-      <c r="I193" s="51"/>
-      <c r="J193" s="51"/>
-      <c r="K193" s="51"/>
-      <c r="L193" s="52"/>
+      <c r="A193" s="26">
+        <v>45519.67028144676</v>
+      </c>
+      <c r="B193" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="C193" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D193" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="E193" s="27">
+        <v>84.0</v>
+      </c>
+      <c r="F193" s="29">
+        <v>45519.0</v>
+      </c>
+      <c r="G193" s="30">
+        <v>0.5625</v>
+      </c>
+      <c r="H193" s="30">
+        <v>0.6666666666642413</v>
+      </c>
+      <c r="I193" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="J193" s="27" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="194">
-      <c r="A194" s="50"/>
-      <c r="B194" s="50"/>
-      <c r="C194" s="50"/>
-      <c r="D194" s="50"/>
-      <c r="E194" s="44"/>
-      <c r="F194" s="51"/>
-      <c r="G194" s="51"/>
-      <c r="H194" s="51"/>
-      <c r="I194" s="51"/>
-      <c r="J194" s="51"/>
-      <c r="K194" s="51"/>
-      <c r="L194" s="52"/>
+      <c r="A194" s="31">
+        <v>45519.67134231482</v>
+      </c>
+      <c r="B194" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="C194" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D194" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="E194" s="32">
+        <v>50.0</v>
+      </c>
+      <c r="F194" s="34">
+        <v>45519.0</v>
+      </c>
+      <c r="G194" s="35">
+        <v>0.5625</v>
+      </c>
+      <c r="H194" s="35">
+        <v>0.6666666666642413</v>
+      </c>
+      <c r="I194" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J194" s="32" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="195">
-      <c r="A195" s="50"/>
-      <c r="B195" s="50"/>
-      <c r="C195" s="50"/>
-      <c r="D195" s="50"/>
-      <c r="E195" s="44"/>
-      <c r="F195" s="51"/>
-      <c r="G195" s="51"/>
-      <c r="H195" s="51"/>
-      <c r="I195" s="51"/>
-      <c r="J195" s="51"/>
-      <c r="K195" s="51"/>
-      <c r="L195" s="52"/>
+      <c r="A195" s="26">
+        <v>45519.70296730324</v>
+      </c>
+      <c r="B195" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C195" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="D195" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="E195" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="F195" s="29">
+        <v>45519.0</v>
+      </c>
+      <c r="G195" s="30">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="H195" s="30">
+        <v>0.6875</v>
+      </c>
+      <c r="I195" s="27" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" s="53"/>
-      <c r="B196" s="54"/>
-      <c r="C196" s="54"/>
-      <c r="D196" s="54"/>
-      <c r="E196" s="55"/>
-      <c r="F196" s="51"/>
-      <c r="G196" s="51"/>
-      <c r="H196" s="51"/>
-      <c r="I196" s="51"/>
-      <c r="J196" s="51"/>
-      <c r="K196" s="51"/>
-      <c r="L196" s="52"/>
+      <c r="A196" s="31">
+        <v>45519.70084138889</v>
+      </c>
+      <c r="B196" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C196" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D196" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="E196" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="F196" s="34">
+        <v>45519.0</v>
+      </c>
+      <c r="G196" s="35">
+        <v>0.08333333333575865</v>
+      </c>
+      <c r="H196" s="35">
+        <v>0.1875</v>
+      </c>
+      <c r="I196" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="J196" s="32" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="197">
-      <c r="A197" s="53"/>
-      <c r="B197" s="54"/>
-      <c r="C197" s="54"/>
-      <c r="D197" s="54"/>
-      <c r="E197" s="55"/>
-      <c r="F197" s="51"/>
-      <c r="G197" s="51"/>
-      <c r="H197" s="51"/>
-      <c r="I197" s="51"/>
-      <c r="J197" s="51"/>
-      <c r="K197" s="51"/>
-      <c r="L197" s="52"/>
+      <c r="A197" s="26">
+        <v>45519.70723402778</v>
+      </c>
+      <c r="B197" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C197" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="D197" s="27" t="s">
+        <v>630</v>
+      </c>
+      <c r="E197" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F197" s="29">
+        <v>45519.0</v>
+      </c>
+      <c r="G197" s="30">
+        <v>0.6458333333357587</v>
+      </c>
+      <c r="H197" s="30">
+        <v>0.7083333333357587</v>
+      </c>
+      <c r="I197" s="27" t="s">
+        <v>631</v>
+      </c>
+      <c r="J197" s="27" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="198">
-      <c r="A198" s="53"/>
-      <c r="B198" s="54"/>
-      <c r="C198" s="54"/>
-      <c r="D198" s="54"/>
-      <c r="E198" s="55"/>
-      <c r="F198" s="51"/>
-      <c r="G198" s="51"/>
-      <c r="H198" s="51"/>
-      <c r="I198" s="51"/>
-      <c r="J198" s="51"/>
-      <c r="K198" s="51"/>
-      <c r="L198" s="52"/>
+      <c r="A198" s="31">
+        <v>45519.70933878473</v>
+      </c>
+      <c r="B198" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C198" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D198" s="32" t="s">
+        <v>633</v>
+      </c>
+      <c r="E198" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="F198" s="34">
+        <v>45519.0</v>
+      </c>
+      <c r="G198" s="35">
+        <v>0.6145833333357587</v>
+      </c>
+      <c r="H198" s="35">
+        <v>0.7083333333357587</v>
+      </c>
+      <c r="I198" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="J198" s="32" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="199">
-      <c r="A199" s="53"/>
-      <c r="B199" s="54"/>
-      <c r="C199" s="54"/>
-      <c r="D199" s="54"/>
-      <c r="E199" s="55"/>
-      <c r="F199" s="51"/>
-      <c r="G199" s="51"/>
-      <c r="H199" s="51"/>
-      <c r="I199" s="51"/>
-      <c r="J199" s="51"/>
-      <c r="K199" s="51"/>
-      <c r="L199" s="52"/>
+      <c r="A199" s="26">
+        <v>45519.82466462963</v>
+      </c>
+      <c r="B199" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C199" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199" s="27" t="s">
+        <v>636</v>
+      </c>
+      <c r="E199" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="F199" s="29">
+        <v>45519.0</v>
+      </c>
+      <c r="G199" s="30">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H199" s="30">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I199" s="27" t="s">
+        <v>638</v>
+      </c>
+      <c r="J199" s="27" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" s="53"/>
-      <c r="B200" s="54"/>
-      <c r="C200" s="54"/>
-      <c r="D200" s="54"/>
-      <c r="E200" s="55"/>
-      <c r="F200" s="56"/>
-      <c r="G200" s="56"/>
-      <c r="H200" s="56"/>
-      <c r="I200" s="54"/>
-      <c r="J200" s="52"/>
-      <c r="K200" s="52"/>
-      <c r="L200" s="52"/>
+      <c r="A200" s="31">
+        <v>45519.84019137731</v>
+      </c>
+      <c r="B200" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C200" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D200" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F200" s="34">
+        <v>45519.0</v>
+      </c>
+      <c r="G200" s="35">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H200" s="35">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I200" s="32" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="201">
-      <c r="A201" s="53"/>
-      <c r="B201" s="54"/>
-      <c r="C201" s="54"/>
-      <c r="D201" s="54"/>
-      <c r="E201" s="55"/>
-      <c r="F201" s="56"/>
-      <c r="G201" s="56"/>
-      <c r="H201" s="56"/>
-      <c r="I201" s="54"/>
-      <c r="J201" s="52"/>
-      <c r="K201" s="52"/>
-      <c r="L201" s="52"/>
+      <c r="A201" s="26">
+        <v>45519.841130810186</v>
+      </c>
+      <c r="B201" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C201" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D201" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F201" s="29">
+        <v>45519.0</v>
+      </c>
+      <c r="G201" s="30">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H201" s="30">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I201" s="27" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="202">
-      <c r="A202" s="53"/>
-      <c r="B202" s="54"/>
-      <c r="C202" s="54"/>
-      <c r="D202" s="54"/>
-      <c r="E202" s="55"/>
-      <c r="F202" s="56"/>
-      <c r="G202" s="56"/>
-      <c r="H202" s="56"/>
-      <c r="I202" s="54"/>
-      <c r="J202" s="52"/>
-      <c r="K202" s="52"/>
-      <c r="L202" s="52"/>
+      <c r="A202" s="31">
+        <v>45519.846384675926</v>
+      </c>
+      <c r="B202" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C202" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D202" s="32" t="s">
+        <v>640</v>
+      </c>
+      <c r="F202" s="34">
+        <v>45519.0</v>
+      </c>
+      <c r="G202" s="35">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H202" s="35">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I202" s="32" t="s">
+        <v>641</v>
+      </c>
+      <c r="J202" s="32" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="203">
-      <c r="A203" s="53"/>
-      <c r="B203" s="54"/>
-      <c r="C203" s="54"/>
-      <c r="D203" s="54"/>
-      <c r="E203" s="55"/>
-      <c r="F203" s="56"/>
-      <c r="G203" s="56"/>
-      <c r="H203" s="56"/>
-      <c r="I203" s="54"/>
-      <c r="J203" s="52"/>
-      <c r="K203" s="52"/>
-      <c r="L203" s="52"/>
+      <c r="A203" s="26">
+        <v>45519.8482484375</v>
+      </c>
+      <c r="B203" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C203" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D203" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F203" s="29">
+        <v>45519.0</v>
+      </c>
+      <c r="G203" s="30">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H203" s="30">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="I203" s="27" t="s">
+        <v>644</v>
+      </c>
+      <c r="J203" s="27" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="204">
-      <c r="A204" s="53"/>
-      <c r="B204" s="54"/>
-      <c r="C204" s="54"/>
-      <c r="D204" s="54"/>
-      <c r="E204" s="55"/>
-      <c r="F204" s="56"/>
-      <c r="G204" s="56"/>
-      <c r="H204" s="56"/>
-      <c r="I204" s="57"/>
+      <c r="A204" s="31">
+        <v>45519.85758427084</v>
+      </c>
+      <c r="B204" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C204" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D204" s="32" t="s">
+        <v>645</v>
+      </c>
+      <c r="E204" s="32" t="s">
+        <v>646</v>
+      </c>
+      <c r="F204" s="34">
+        <v>45519.0</v>
+      </c>
+      <c r="G204" s="35">
+        <v>0.7708333333357587</v>
+      </c>
+      <c r="H204" s="35">
+        <v>0.8541666666642413</v>
+      </c>
+      <c r="I204" s="32" t="s">
+        <v>647</v>
+      </c>
+      <c r="J204" s="32" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="205">
-      <c r="A205" s="53"/>
-      <c r="B205" s="54"/>
-      <c r="C205" s="54"/>
-      <c r="D205" s="54"/>
-      <c r="E205" s="55"/>
-      <c r="F205" s="56"/>
-      <c r="G205" s="56"/>
-      <c r="H205" s="56"/>
-      <c r="I205" s="57"/>
+      <c r="A205" s="26">
+        <v>45519.86405041667</v>
+      </c>
+      <c r="B205" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C205" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D205" s="27" t="s">
+        <v>649</v>
+      </c>
+      <c r="F205" s="29">
+        <v>45519.0</v>
+      </c>
+      <c r="G205" s="30">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H205" s="30">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="I205" s="27" t="s">
+        <v>650</v>
+      </c>
+      <c r="J205" s="27" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" s="53"/>
-      <c r="B206" s="54"/>
-      <c r="C206" s="54"/>
-      <c r="D206" s="54"/>
-      <c r="E206" s="55"/>
-      <c r="F206" s="56"/>
-      <c r="G206" s="56"/>
-      <c r="H206" s="56"/>
-      <c r="I206" s="57"/>
+      <c r="A206" s="31">
+        <v>45519.86601100695</v>
+      </c>
+      <c r="B206" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="C206" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D206" s="32" t="s">
+        <v>652</v>
+      </c>
+      <c r="E206" s="32">
+        <v>90.0</v>
+      </c>
+      <c r="F206" s="34">
+        <v>45519.0</v>
+      </c>
+      <c r="G206" s="35">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H206" s="35">
+        <v>0.8472222222189885</v>
+      </c>
+      <c r="I206" s="32" t="s">
+        <v>653</v>
+      </c>
+      <c r="J206" s="32" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="207">
-      <c r="A207" s="53"/>
-      <c r="B207" s="54"/>
-      <c r="C207" s="54"/>
-      <c r="D207" s="54"/>
-      <c r="E207" s="55"/>
-      <c r="F207" s="56"/>
-      <c r="G207" s="56"/>
-      <c r="H207" s="56"/>
-      <c r="I207" s="57"/>
+      <c r="A207" s="26">
+        <v>45519.867381689815</v>
+      </c>
+      <c r="B207" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="C207" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="D207" s="27" t="s">
+        <v>652</v>
+      </c>
+      <c r="E207" s="27">
+        <v>90.0</v>
+      </c>
+      <c r="F207" s="29">
+        <v>45519.0</v>
+      </c>
+      <c r="G207" s="30">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="H207" s="30">
+        <v>0.8611111111094942</v>
+      </c>
+      <c r="I207" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="J207" s="27" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="208">
-      <c r="A208" s="58"/>
-      <c r="B208" s="52"/>
-      <c r="C208" s="52"/>
-      <c r="D208" s="52"/>
-      <c r="E208" s="55"/>
-      <c r="F208" s="56"/>
-      <c r="G208" s="56"/>
-      <c r="H208" s="56"/>
-      <c r="I208" s="57"/>
+      <c r="A208" s="31">
+        <v>45519.86913765046</v>
+      </c>
+      <c r="B208" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C208" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D208" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E208" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="F208" s="34">
+        <v>45519.0</v>
+      </c>
+      <c r="G208" s="35">
+        <v>0.7777777777810115</v>
+      </c>
+      <c r="H208" s="35">
+        <v>0.8611111111094942</v>
+      </c>
+      <c r="I208" s="32" t="s">
+        <v>658</v>
+      </c>
+      <c r="J208" s="32" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" s="58"/>
-      <c r="B209" s="52"/>
-      <c r="C209" s="52"/>
-      <c r="D209" s="52"/>
-      <c r="E209" s="55"/>
-      <c r="F209" s="56"/>
-      <c r="G209" s="56"/>
-      <c r="H209" s="56"/>
-      <c r="I209" s="57"/>
+      <c r="A209" s="26">
+        <v>45519.88049297454</v>
+      </c>
+      <c r="B209" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C209" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D209" s="27" t="s">
+        <v>660</v>
+      </c>
+      <c r="E209" s="27" t="s">
+        <v>661</v>
+      </c>
+      <c r="F209" s="29">
+        <v>45519.0</v>
+      </c>
+      <c r="G209" s="30">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="H209" s="30">
+        <v>0.875</v>
+      </c>
+      <c r="I209" s="27" t="s">
+        <v>662</v>
+      </c>
+      <c r="J209" s="27" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="210">
-      <c r="A210" s="58"/>
-      <c r="B210" s="52"/>
-      <c r="C210" s="52"/>
-      <c r="D210" s="52"/>
-      <c r="E210" s="55"/>
-      <c r="F210" s="56"/>
-      <c r="G210" s="56"/>
-      <c r="H210" s="56"/>
-      <c r="I210" s="57"/>
+      <c r="A210" s="38">
+        <v>45519.900501805554</v>
+      </c>
+      <c r="B210" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C210" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D210" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="E210" s="39" t="s">
+        <v>665</v>
+      </c>
+      <c r="F210" s="40">
+        <v>45519.0</v>
+      </c>
+      <c r="G210" s="41">
+        <v>0.8125</v>
+      </c>
+      <c r="H210" s="41">
+        <v>0.8958333333357587</v>
+      </c>
+      <c r="I210" s="39" t="s">
+        <v>666</v>
+      </c>
+      <c r="J210" s="39" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" s="58"/>
-      <c r="B211" s="52"/>
-      <c r="C211" s="52"/>
-      <c r="D211" s="52"/>
-      <c r="E211" s="55"/>
-      <c r="F211" s="56"/>
-      <c r="G211" s="56"/>
-      <c r="H211" s="56"/>
-      <c r="I211" s="57"/>
+      <c r="A211" s="42"/>
+      <c r="B211" s="43"/>
+      <c r="C211" s="43"/>
+      <c r="D211" s="43"/>
+      <c r="E211" s="44"/>
+      <c r="F211" s="45"/>
+      <c r="G211" s="46"/>
+      <c r="H211" s="46"/>
+      <c r="I211" s="47"/>
+      <c r="J211" s="47"/>
+      <c r="K211" s="47"/>
+      <c r="L211" s="48"/>
+      <c r="M211" s="49"/>
+      <c r="N211" s="49"/>
+      <c r="O211" s="49"/>
+      <c r="P211" s="49"/>
+      <c r="Q211" s="49"/>
     </row>
     <row r="212">
-      <c r="B212" s="52"/>
-      <c r="C212" s="52"/>
-      <c r="D212" s="52"/>
-      <c r="E212" s="55"/>
-      <c r="F212" s="56"/>
-      <c r="G212" s="56"/>
-      <c r="H212" s="56"/>
-      <c r="I212" s="57"/>
+      <c r="A212" s="50"/>
+      <c r="B212" s="50"/>
+      <c r="C212" s="50"/>
+      <c r="D212" s="50"/>
+      <c r="E212" s="44"/>
+      <c r="F212" s="51"/>
+      <c r="G212" s="51"/>
+      <c r="H212" s="51"/>
+      <c r="I212" s="51"/>
+      <c r="J212" s="51"/>
+      <c r="K212" s="51"/>
+      <c r="L212" s="52"/>
     </row>
     <row r="213">
-      <c r="B213" s="52"/>
-      <c r="C213" s="52"/>
-      <c r="D213" s="52"/>
-      <c r="E213" s="55"/>
-      <c r="F213" s="56"/>
-      <c r="G213" s="56"/>
-      <c r="H213" s="56"/>
-      <c r="I213" s="57"/>
+      <c r="A213" s="50"/>
+      <c r="B213" s="50"/>
+      <c r="C213" s="50"/>
+      <c r="D213" s="50"/>
+      <c r="E213" s="44"/>
+      <c r="F213" s="51"/>
+      <c r="G213" s="51"/>
+      <c r="H213" s="51"/>
+      <c r="I213" s="51"/>
+      <c r="J213" s="51"/>
+      <c r="K213" s="51"/>
+      <c r="L213" s="52"/>
     </row>
     <row r="214">
-      <c r="B214" s="52"/>
-      <c r="C214" s="52"/>
-      <c r="D214" s="52"/>
-      <c r="E214" s="55"/>
-      <c r="F214" s="56"/>
-      <c r="G214" s="56"/>
-      <c r="H214" s="56"/>
-      <c r="I214" s="57"/>
+      <c r="A214" s="50"/>
+      <c r="B214" s="50"/>
+      <c r="C214" s="50"/>
+      <c r="D214" s="50"/>
+      <c r="E214" s="44"/>
+      <c r="F214" s="51"/>
+      <c r="G214" s="51"/>
+      <c r="H214" s="51"/>
+      <c r="I214" s="51"/>
+      <c r="J214" s="51"/>
+      <c r="K214" s="51"/>
+      <c r="L214" s="52"/>
     </row>
     <row r="215">
-      <c r="B215" s="52"/>
-      <c r="C215" s="52"/>
-      <c r="D215" s="52"/>
-      <c r="E215" s="55"/>
-      <c r="F215" s="56"/>
-      <c r="G215" s="56"/>
-      <c r="H215" s="56"/>
-      <c r="I215" s="57"/>
+      <c r="A215" s="50"/>
+      <c r="B215" s="50"/>
+      <c r="C215" s="50"/>
+      <c r="D215" s="50"/>
+      <c r="E215" s="44"/>
+      <c r="F215" s="51"/>
+      <c r="G215" s="51"/>
+      <c r="H215" s="51"/>
+      <c r="I215" s="51"/>
+      <c r="J215" s="51"/>
+      <c r="K215" s="51"/>
+      <c r="L215" s="52"/>
     </row>
     <row r="216">
-      <c r="B216" s="52"/>
-      <c r="C216" s="52"/>
-      <c r="D216" s="52"/>
-      <c r="E216" s="55"/>
-      <c r="F216" s="56"/>
-      <c r="G216" s="56"/>
-      <c r="H216" s="56"/>
-      <c r="I216" s="57"/>
+      <c r="A216" s="50"/>
+      <c r="B216" s="50"/>
+      <c r="C216" s="50"/>
+      <c r="D216" s="50"/>
+      <c r="E216" s="44"/>
+      <c r="F216" s="51"/>
+      <c r="G216" s="51"/>
+      <c r="H216" s="51"/>
+      <c r="I216" s="51"/>
+      <c r="J216" s="51"/>
+      <c r="K216" s="51"/>
+      <c r="L216" s="52"/>
     </row>
     <row r="217">
-      <c r="B217" s="52"/>
-      <c r="C217" s="52"/>
-      <c r="D217" s="52"/>
+      <c r="A217" s="53"/>
+      <c r="B217" s="54"/>
+      <c r="C217" s="54"/>
+      <c r="D217" s="54"/>
       <c r="E217" s="55"/>
-      <c r="F217" s="56"/>
-      <c r="G217" s="56"/>
-      <c r="H217" s="56"/>
-      <c r="I217" s="57"/>
+      <c r="F217" s="51"/>
+      <c r="G217" s="51"/>
+      <c r="H217" s="51"/>
+      <c r="I217" s="51"/>
+      <c r="J217" s="51"/>
+      <c r="K217" s="51"/>
+      <c r="L217" s="52"/>
     </row>
     <row r="218">
-      <c r="B218" s="52"/>
-      <c r="C218" s="52"/>
-      <c r="D218" s="52"/>
+      <c r="A218" s="53"/>
+      <c r="B218" s="54"/>
+      <c r="C218" s="54"/>
+      <c r="D218" s="54"/>
       <c r="E218" s="55"/>
-      <c r="F218" s="56"/>
-      <c r="G218" s="56"/>
-      <c r="H218" s="56"/>
-      <c r="I218" s="57"/>
+      <c r="F218" s="51"/>
+      <c r="G218" s="51"/>
+      <c r="H218" s="51"/>
+      <c r="I218" s="51"/>
+      <c r="J218" s="51"/>
+      <c r="K218" s="51"/>
+      <c r="L218" s="52"/>
     </row>
     <row r="219">
-      <c r="B219" s="52"/>
-      <c r="C219" s="52"/>
-      <c r="D219" s="52"/>
+      <c r="A219" s="53"/>
+      <c r="B219" s="54"/>
+      <c r="C219" s="54"/>
+      <c r="D219" s="54"/>
       <c r="E219" s="55"/>
-      <c r="F219" s="56"/>
-      <c r="G219" s="56"/>
-      <c r="H219" s="56"/>
-      <c r="I219" s="57"/>
+      <c r="F219" s="51"/>
+      <c r="G219" s="51"/>
+      <c r="H219" s="51"/>
+      <c r="I219" s="51"/>
+      <c r="J219" s="51"/>
+      <c r="K219" s="51"/>
+      <c r="L219" s="52"/>
     </row>
     <row r="220">
-      <c r="B220" s="52"/>
-      <c r="C220" s="52"/>
-      <c r="D220" s="52"/>
+      <c r="A220" s="53"/>
+      <c r="B220" s="54"/>
+      <c r="C220" s="54"/>
+      <c r="D220" s="54"/>
       <c r="E220" s="55"/>
-      <c r="F220" s="56"/>
-      <c r="G220" s="56"/>
-      <c r="H220" s="56"/>
-      <c r="I220" s="57"/>
+      <c r="F220" s="51"/>
+      <c r="G220" s="51"/>
+      <c r="H220" s="51"/>
+      <c r="I220" s="51"/>
+      <c r="J220" s="51"/>
+      <c r="K220" s="51"/>
+      <c r="L220" s="52"/>
     </row>
     <row r="221">
-      <c r="B221" s="52"/>
-      <c r="C221" s="52"/>
-      <c r="D221" s="52"/>
+      <c r="A221" s="53"/>
+      <c r="B221" s="54"/>
+      <c r="C221" s="54"/>
+      <c r="D221" s="54"/>
       <c r="E221" s="55"/>
       <c r="F221" s="56"/>
       <c r="G221" s="56"/>
       <c r="H221" s="56"/>
-      <c r="I221" s="57"/>
+      <c r="I221" s="54"/>
+      <c r="J221" s="52"/>
+      <c r="K221" s="52"/>
+      <c r="L221" s="52"/>
     </row>
     <row r="222">
-      <c r="B222" s="52"/>
-      <c r="C222" s="52"/>
-      <c r="D222" s="52"/>
+      <c r="A222" s="53"/>
+      <c r="B222" s="54"/>
+      <c r="C222" s="54"/>
+      <c r="D222" s="54"/>
       <c r="E222" s="55"/>
       <c r="F222" s="56"/>
       <c r="G222" s="56"/>
       <c r="H222" s="56"/>
-      <c r="I222" s="57"/>
+      <c r="I222" s="54"/>
+      <c r="J222" s="52"/>
+      <c r="K222" s="52"/>
+      <c r="L222" s="52"/>
     </row>
     <row r="223">
-      <c r="B223" s="52"/>
-      <c r="C223" s="52"/>
-      <c r="D223" s="52"/>
+      <c r="A223" s="53"/>
+      <c r="B223" s="54"/>
+      <c r="C223" s="54"/>
+      <c r="D223" s="54"/>
       <c r="E223" s="55"/>
       <c r="F223" s="56"/>
       <c r="G223" s="56"/>
       <c r="H223" s="56"/>
-      <c r="I223" s="57"/>
+      <c r="I223" s="54"/>
+      <c r="J223" s="52"/>
+      <c r="K223" s="52"/>
+      <c r="L223" s="52"/>
     </row>
     <row r="224">
-      <c r="B224" s="52"/>
-      <c r="C224" s="52"/>
-      <c r="D224" s="52"/>
+      <c r="A224" s="53"/>
+      <c r="B224" s="54"/>
+      <c r="C224" s="54"/>
+      <c r="D224" s="54"/>
       <c r="E224" s="55"/>
       <c r="F224" s="56"/>
       <c r="G224" s="56"/>
       <c r="H224" s="56"/>
-      <c r="I224" s="57"/>
+      <c r="I224" s="54"/>
+      <c r="J224" s="52"/>
+      <c r="K224" s="52"/>
+      <c r="L224" s="52"/>
     </row>
     <row r="225">
-      <c r="B225" s="52"/>
-      <c r="C225" s="52"/>
-      <c r="D225" s="52"/>
+      <c r="A225" s="53"/>
+      <c r="B225" s="54"/>
+      <c r="C225" s="54"/>
+      <c r="D225" s="54"/>
       <c r="E225" s="55"/>
       <c r="F225" s="56"/>
       <c r="G225" s="56"/>
@@ -9913,9 +10527,10 @@
       <c r="I225" s="57"/>
     </row>
     <row r="226">
-      <c r="B226" s="52"/>
-      <c r="C226" s="52"/>
-      <c r="D226" s="52"/>
+      <c r="A226" s="53"/>
+      <c r="B226" s="54"/>
+      <c r="C226" s="54"/>
+      <c r="D226" s="54"/>
       <c r="E226" s="55"/>
       <c r="F226" s="56"/>
       <c r="G226" s="56"/>
@@ -9923,9 +10538,10 @@
       <c r="I226" s="57"/>
     </row>
     <row r="227">
-      <c r="B227" s="52"/>
-      <c r="C227" s="52"/>
-      <c r="D227" s="52"/>
+      <c r="A227" s="53"/>
+      <c r="B227" s="54"/>
+      <c r="C227" s="54"/>
+      <c r="D227" s="54"/>
       <c r="E227" s="55"/>
       <c r="F227" s="56"/>
       <c r="G227" s="56"/>
@@ -9933,9 +10549,10 @@
       <c r="I227" s="57"/>
     </row>
     <row r="228">
-      <c r="B228" s="52"/>
-      <c r="C228" s="52"/>
-      <c r="D228" s="52"/>
+      <c r="A228" s="53"/>
+      <c r="B228" s="54"/>
+      <c r="C228" s="54"/>
+      <c r="D228" s="54"/>
       <c r="E228" s="55"/>
       <c r="F228" s="56"/>
       <c r="G228" s="56"/>
@@ -9943,6 +10560,7 @@
       <c r="I228" s="57"/>
     </row>
     <row r="229">
+      <c r="A229" s="58"/>
       <c r="B229" s="52"/>
       <c r="C229" s="52"/>
       <c r="D229" s="52"/>
@@ -9953,6 +10571,7 @@
       <c r="I229" s="57"/>
     </row>
     <row r="230">
+      <c r="A230" s="58"/>
       <c r="B230" s="52"/>
       <c r="C230" s="52"/>
       <c r="D230" s="52"/>
@@ -9963,6 +10582,7 @@
       <c r="I230" s="57"/>
     </row>
     <row r="231">
+      <c r="A231" s="58"/>
       <c r="B231" s="52"/>
       <c r="C231" s="52"/>
       <c r="D231" s="52"/>
@@ -9973,6 +10593,7 @@
       <c r="I231" s="57"/>
     </row>
     <row r="232">
+      <c r="A232" s="58"/>
       <c r="B232" s="52"/>
       <c r="C232" s="52"/>
       <c r="D232" s="52"/>
@@ -10552,15 +11173,225 @@
       <c r="H289" s="56"/>
       <c r="I289" s="57"/>
     </row>
+    <row r="290">
+      <c r="B290" s="52"/>
+      <c r="C290" s="52"/>
+      <c r="D290" s="52"/>
+      <c r="E290" s="55"/>
+      <c r="F290" s="56"/>
+      <c r="G290" s="56"/>
+      <c r="H290" s="56"/>
+      <c r="I290" s="57"/>
+    </row>
+    <row r="291">
+      <c r="B291" s="52"/>
+      <c r="C291" s="52"/>
+      <c r="D291" s="52"/>
+      <c r="E291" s="55"/>
+      <c r="F291" s="56"/>
+      <c r="G291" s="56"/>
+      <c r="H291" s="56"/>
+      <c r="I291" s="57"/>
+    </row>
+    <row r="292">
+      <c r="B292" s="52"/>
+      <c r="C292" s="52"/>
+      <c r="D292" s="52"/>
+      <c r="E292" s="55"/>
+      <c r="F292" s="56"/>
+      <c r="G292" s="56"/>
+      <c r="H292" s="56"/>
+      <c r="I292" s="57"/>
+    </row>
+    <row r="293">
+      <c r="B293" s="52"/>
+      <c r="C293" s="52"/>
+      <c r="D293" s="52"/>
+      <c r="E293" s="55"/>
+      <c r="F293" s="56"/>
+      <c r="G293" s="56"/>
+      <c r="H293" s="56"/>
+      <c r="I293" s="57"/>
+    </row>
+    <row r="294">
+      <c r="B294" s="52"/>
+      <c r="C294" s="52"/>
+      <c r="D294" s="52"/>
+      <c r="E294" s="55"/>
+      <c r="F294" s="56"/>
+      <c r="G294" s="56"/>
+      <c r="H294" s="56"/>
+      <c r="I294" s="57"/>
+    </row>
+    <row r="295">
+      <c r="B295" s="52"/>
+      <c r="C295" s="52"/>
+      <c r="D295" s="52"/>
+      <c r="E295" s="55"/>
+      <c r="F295" s="56"/>
+      <c r="G295" s="56"/>
+      <c r="H295" s="56"/>
+      <c r="I295" s="57"/>
+    </row>
+    <row r="296">
+      <c r="B296" s="52"/>
+      <c r="C296" s="52"/>
+      <c r="D296" s="52"/>
+      <c r="E296" s="55"/>
+      <c r="F296" s="56"/>
+      <c r="G296" s="56"/>
+      <c r="H296" s="56"/>
+      <c r="I296" s="57"/>
+    </row>
+    <row r="297">
+      <c r="B297" s="52"/>
+      <c r="C297" s="52"/>
+      <c r="D297" s="52"/>
+      <c r="E297" s="55"/>
+      <c r="F297" s="56"/>
+      <c r="G297" s="56"/>
+      <c r="H297" s="56"/>
+      <c r="I297" s="57"/>
+    </row>
+    <row r="298">
+      <c r="B298" s="52"/>
+      <c r="C298" s="52"/>
+      <c r="D298" s="52"/>
+      <c r="E298" s="55"/>
+      <c r="F298" s="56"/>
+      <c r="G298" s="56"/>
+      <c r="H298" s="56"/>
+      <c r="I298" s="57"/>
+    </row>
+    <row r="299">
+      <c r="B299" s="52"/>
+      <c r="C299" s="52"/>
+      <c r="D299" s="52"/>
+      <c r="E299" s="55"/>
+      <c r="F299" s="56"/>
+      <c r="G299" s="56"/>
+      <c r="H299" s="56"/>
+      <c r="I299" s="57"/>
+    </row>
+    <row r="300">
+      <c r="B300" s="52"/>
+      <c r="C300" s="52"/>
+      <c r="D300" s="52"/>
+      <c r="E300" s="55"/>
+      <c r="F300" s="56"/>
+      <c r="G300" s="56"/>
+      <c r="H300" s="56"/>
+      <c r="I300" s="57"/>
+    </row>
+    <row r="301">
+      <c r="B301" s="52"/>
+      <c r="C301" s="52"/>
+      <c r="D301" s="52"/>
+      <c r="E301" s="55"/>
+      <c r="F301" s="56"/>
+      <c r="G301" s="56"/>
+      <c r="H301" s="56"/>
+      <c r="I301" s="57"/>
+    </row>
+    <row r="302">
+      <c r="B302" s="52"/>
+      <c r="C302" s="52"/>
+      <c r="D302" s="52"/>
+      <c r="E302" s="55"/>
+      <c r="F302" s="56"/>
+      <c r="G302" s="56"/>
+      <c r="H302" s="56"/>
+      <c r="I302" s="57"/>
+    </row>
+    <row r="303">
+      <c r="B303" s="52"/>
+      <c r="C303" s="52"/>
+      <c r="D303" s="52"/>
+      <c r="E303" s="55"/>
+      <c r="F303" s="56"/>
+      <c r="G303" s="56"/>
+      <c r="H303" s="56"/>
+      <c r="I303" s="57"/>
+    </row>
+    <row r="304">
+      <c r="B304" s="52"/>
+      <c r="C304" s="52"/>
+      <c r="D304" s="52"/>
+      <c r="E304" s="55"/>
+      <c r="F304" s="56"/>
+      <c r="G304" s="56"/>
+      <c r="H304" s="56"/>
+      <c r="I304" s="57"/>
+    </row>
+    <row r="305">
+      <c r="B305" s="52"/>
+      <c r="C305" s="52"/>
+      <c r="D305" s="52"/>
+      <c r="E305" s="55"/>
+      <c r="F305" s="56"/>
+      <c r="G305" s="56"/>
+      <c r="H305" s="56"/>
+      <c r="I305" s="57"/>
+    </row>
+    <row r="306">
+      <c r="B306" s="52"/>
+      <c r="C306" s="52"/>
+      <c r="D306" s="52"/>
+      <c r="E306" s="55"/>
+      <c r="F306" s="56"/>
+      <c r="G306" s="56"/>
+      <c r="H306" s="56"/>
+      <c r="I306" s="57"/>
+    </row>
+    <row r="307">
+      <c r="B307" s="52"/>
+      <c r="C307" s="52"/>
+      <c r="D307" s="52"/>
+      <c r="E307" s="55"/>
+      <c r="F307" s="56"/>
+      <c r="G307" s="56"/>
+      <c r="H307" s="56"/>
+      <c r="I307" s="57"/>
+    </row>
+    <row r="308">
+      <c r="B308" s="52"/>
+      <c r="C308" s="52"/>
+      <c r="D308" s="52"/>
+      <c r="E308" s="55"/>
+      <c r="F308" s="56"/>
+      <c r="G308" s="56"/>
+      <c r="H308" s="56"/>
+      <c r="I308" s="57"/>
+    </row>
+    <row r="309">
+      <c r="B309" s="52"/>
+      <c r="C309" s="52"/>
+      <c r="D309" s="52"/>
+      <c r="E309" s="55"/>
+      <c r="F309" s="56"/>
+      <c r="G309" s="56"/>
+      <c r="H309" s="56"/>
+      <c r="I309" s="57"/>
+    </row>
+    <row r="310">
+      <c r="B310" s="52"/>
+      <c r="C310" s="52"/>
+      <c r="D310" s="52"/>
+      <c r="E310" s="55"/>
+      <c r="F310" s="56"/>
+      <c r="G310" s="56"/>
+      <c r="H310" s="56"/>
+      <c r="I310" s="57"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G2:H189">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G2:H210">
       <formula1>OR(TIMEVALUE(TEXT(G2, "hh:mm:ss"))=G2, AND(ISNUMBER(G2), LEFT(CELL("format", G2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="F2:F189">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="F2:F210">
       <formula1>OR(NOT(ISERROR(DATEVALUE(F2))), AND(ISNUMBER(F2), LEFT(CELL("format", F2))="D"))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:B189"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:B210"/>
   </dataValidations>
   <drawing r:id="rId1"/>
   <tableParts count="1">

--- a/input/上課記錄 (回覆).xlsx
+++ b/input/上課記錄 (回覆).xlsx
@@ -5,7 +5,9 @@
   <sheets>
     <sheet state="visible" name="表單回應 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'表單回應 1'!$A$1:$Q$210</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
@@ -2332,6 +2334,9 @@
     <xf quotePrefix="1" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2363,9 +2368,6 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2488,6 +2490,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Q210" displayName="表_1" name="表_1" id="1">
+  <autoFilter ref="$A$1:$Q$210"/>
   <tableColumns count="17">
     <tableColumn name="時間戳記" id="1"/>
     <tableColumn name="老師姓名" id="2"/>
@@ -6493,8 +6496,8 @@
       <c r="G98" s="9">
         <v>0.8125</v>
       </c>
-      <c r="H98" s="9">
-        <v>0.8125</v>
+      <c r="H98" s="24">
+        <v>0.8958333333357587</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>373</v>
@@ -7182,7 +7185,7 @@
         <v>0.4375</v>
       </c>
       <c r="H116" s="9">
-        <v>0.020833333335758653</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="I116" s="6" t="s">
         <v>416</v>
@@ -7221,7 +7224,7 @@
         <v>0.4375</v>
       </c>
       <c r="H117" s="16">
-        <v>0.020833333335758653</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="I117" s="13" t="s">
         <v>416</v>
@@ -7260,7 +7263,7 @@
         <v>0.4375</v>
       </c>
       <c r="H118" s="9">
-        <v>0.020833333335758653</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>416</v>
@@ -7277,7 +7280,7 @@
       <c r="Q118" s="11"/>
     </row>
     <row r="119">
-      <c r="A119" s="24">
+      <c r="A119" s="25">
         <v>45509.0</v>
       </c>
       <c r="B119" s="13" t="s">
@@ -7509,7 +7512,7 @@
       <c r="Q124" s="11"/>
     </row>
     <row r="125">
-      <c r="A125" s="24">
+      <c r="A125" s="25">
         <v>45509.0</v>
       </c>
       <c r="B125" s="13" t="s">
@@ -7548,7 +7551,7 @@
       <c r="Q125" s="18"/>
     </row>
     <row r="126">
-      <c r="A126" s="25">
+      <c r="A126" s="26">
         <v>45509.0</v>
       </c>
       <c r="B126" s="6" t="s">
@@ -7587,7 +7590,7 @@
       <c r="Q126" s="11"/>
     </row>
     <row r="127">
-      <c r="A127" s="24">
+      <c r="A127" s="25">
         <v>45509.0</v>
       </c>
       <c r="B127" s="13" t="s">
@@ -7626,7 +7629,7 @@
       <c r="Q127" s="18"/>
     </row>
     <row r="128">
-      <c r="A128" s="25">
+      <c r="A128" s="26">
         <v>45509.0</v>
       </c>
       <c r="B128" s="6" t="s">
@@ -7665,7 +7668,7 @@
       <c r="Q128" s="11"/>
     </row>
     <row r="129">
-      <c r="A129" s="24">
+      <c r="A129" s="25">
         <v>45509.0</v>
       </c>
       <c r="B129" s="13" t="s">
@@ -7704,7 +7707,7 @@
       <c r="Q129" s="18"/>
     </row>
     <row r="130">
-      <c r="A130" s="25">
+      <c r="A130" s="26">
         <v>45509.0</v>
       </c>
       <c r="B130" s="6" t="s">
@@ -8055,2230 +8058,2230 @@
       <c r="Q138" s="11"/>
     </row>
     <row r="139">
-      <c r="A139" s="26">
+      <c r="A139" s="27">
         <v>45514.89057618055</v>
       </c>
-      <c r="B139" s="27" t="s">
+      <c r="B139" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C139" s="27" t="s">
+      <c r="C139" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D139" s="27" t="s">
+      <c r="D139" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="E139" s="28" t="s">
+      <c r="E139" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="F139" s="29">
+      <c r="F139" s="30">
         <v>45514.0</v>
       </c>
-      <c r="G139" s="30">
+      <c r="G139" s="31">
         <v>0.7916666666642413</v>
       </c>
-      <c r="H139" s="30">
+      <c r="H139" s="31">
         <v>0.875</v>
       </c>
-      <c r="I139" s="27" t="s">
+      <c r="I139" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="J139" s="27" t="s">
+      <c r="J139" s="28" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="31">
+      <c r="A140" s="32">
         <v>45516.648869282406</v>
       </c>
-      <c r="B140" s="32" t="s">
+      <c r="B140" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C140" s="32" t="s">
+      <c r="C140" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D140" s="32" t="s">
+      <c r="D140" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="E140" s="33"/>
-      <c r="F140" s="34">
+      <c r="E140" s="34"/>
+      <c r="F140" s="35">
         <v>45516.0</v>
       </c>
-      <c r="G140" s="35">
+      <c r="G140" s="24">
         <v>0.5625</v>
       </c>
-      <c r="H140" s="35">
+      <c r="H140" s="24">
         <v>0.6493055555547471</v>
       </c>
-      <c r="I140" s="32" t="s">
+      <c r="I140" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="J140" s="32" t="s">
+      <c r="J140" s="33" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="26">
+      <c r="A141" s="27">
         <v>45516.71282509259</v>
       </c>
-      <c r="B141" s="27" t="s">
+      <c r="B141" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C141" s="27" t="s">
+      <c r="C141" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D141" s="27" t="s">
+      <c r="D141" s="28" t="s">
         <v>466</v>
       </c>
-      <c r="E141" s="28" t="s">
+      <c r="E141" s="29" t="s">
         <v>467</v>
       </c>
-      <c r="F141" s="29">
+      <c r="F141" s="30">
         <v>45516.0</v>
       </c>
-      <c r="G141" s="30">
+      <c r="G141" s="31">
         <v>0.5416666666642413</v>
       </c>
-      <c r="H141" s="30">
+      <c r="H141" s="31">
         <v>0.625</v>
       </c>
-      <c r="I141" s="27" t="s">
+      <c r="I141" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="J141" s="27" t="s">
+      <c r="J141" s="28" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="31">
+      <c r="A142" s="32">
         <v>45516.714361018516</v>
       </c>
-      <c r="B142" s="32" t="s">
+      <c r="B142" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C142" s="32" t="s">
+      <c r="C142" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="D142" s="32" t="s">
+      <c r="D142" s="33" t="s">
         <v>469</v>
       </c>
       <c r="E142" s="36" t="s">
         <v>470</v>
       </c>
-      <c r="F142" s="34">
+      <c r="F142" s="35">
         <v>45516.0</v>
       </c>
-      <c r="G142" s="35">
+      <c r="G142" s="24">
         <v>0.625</v>
       </c>
-      <c r="H142" s="35">
+      <c r="H142" s="24">
         <v>0.7083333333357587</v>
       </c>
-      <c r="I142" s="32" t="s">
+      <c r="I142" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="J142" s="32" t="s">
+      <c r="J142" s="33" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="26">
+      <c r="A143" s="27">
         <v>45516.81033378472</v>
       </c>
-      <c r="B143" s="27" t="s">
+      <c r="B143" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="C143" s="27" t="s">
+      <c r="C143" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D143" s="27" t="s">
+      <c r="D143" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="E143" s="28" t="s">
+      <c r="E143" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="F143" s="29">
+      <c r="F143" s="30">
         <v>45516.0</v>
       </c>
-      <c r="G143" s="30">
+      <c r="G143" s="31">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H143" s="30">
+      <c r="H143" s="31">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I143" s="27" t="s">
+      <c r="I143" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="J143" s="27" t="s">
+      <c r="J143" s="28" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="31">
+      <c r="A144" s="32">
         <v>45516.811678240745</v>
       </c>
-      <c r="B144" s="32" t="s">
+      <c r="B144" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="C144" s="32" t="s">
+      <c r="C144" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="D144" s="32" t="s">
+      <c r="D144" s="33" t="s">
         <v>473</v>
       </c>
       <c r="E144" s="36" t="s">
         <v>477</v>
       </c>
-      <c r="F144" s="34">
+      <c r="F144" s="35">
         <v>45516.0</v>
       </c>
-      <c r="G144" s="35">
+      <c r="G144" s="24">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H144" s="35">
+      <c r="H144" s="24">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I144" s="32" t="s">
+      <c r="I144" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="J144" s="32" t="s">
+      <c r="J144" s="33" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="26">
+      <c r="A145" s="27">
         <v>45516.84125747685</v>
       </c>
-      <c r="B145" s="27" t="s">
+      <c r="B145" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C145" s="27" t="s">
+      <c r="C145" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D145" s="27" t="s">
+      <c r="D145" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="E145" s="28" t="s">
+      <c r="E145" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="F145" s="29">
+      <c r="F145" s="30">
         <v>45516.0</v>
       </c>
-      <c r="G145" s="30">
+      <c r="G145" s="31">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H145" s="30">
+      <c r="H145" s="31">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I145" s="27" t="s">
+      <c r="I145" s="28" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="31">
+      <c r="A146" s="32">
         <v>45516.84203814815</v>
       </c>
-      <c r="B146" s="32" t="s">
+      <c r="B146" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C146" s="32" t="s">
+      <c r="C146" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D146" s="32" t="s">
+      <c r="D146" s="33" t="s">
         <v>209</v>
       </c>
       <c r="E146" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="F146" s="34">
+      <c r="F146" s="35">
         <v>45516.0</v>
       </c>
-      <c r="G146" s="35">
+      <c r="G146" s="24">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H146" s="35">
+      <c r="H146" s="24">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I146" s="32" t="s">
+      <c r="I146" s="33" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="26">
+      <c r="A147" s="27">
         <v>45516.855319814815</v>
       </c>
-      <c r="B147" s="27" t="s">
+      <c r="B147" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="C147" s="27" t="s">
+      <c r="C147" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="D147" s="27" t="s">
+      <c r="D147" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="E147" s="28" t="s">
+      <c r="E147" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="F147" s="29">
+      <c r="F147" s="30">
         <v>45516.0</v>
       </c>
-      <c r="G147" s="30">
+      <c r="G147" s="31">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H147" s="30">
+      <c r="H147" s="31">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I147" s="27" t="s">
+      <c r="I147" s="28" t="s">
         <v>484</v>
       </c>
-      <c r="J147" s="27" t="s">
+      <c r="J147" s="28" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="31">
+      <c r="A148" s="32">
         <v>45516.856278437495</v>
       </c>
-      <c r="B148" s="32" t="s">
+      <c r="B148" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="C148" s="32" t="s">
+      <c r="C148" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D148" s="32" t="s">
+      <c r="D148" s="33" t="s">
         <v>212</v>
       </c>
       <c r="E148" s="36" t="s">
         <v>483</v>
       </c>
-      <c r="F148" s="34">
+      <c r="F148" s="35">
         <v>45516.0</v>
       </c>
-      <c r="G148" s="35">
+      <c r="G148" s="24">
         <v>0.22916666666424135</v>
       </c>
-      <c r="H148" s="35">
+      <c r="H148" s="24">
         <v>0.33333333333575865</v>
       </c>
-      <c r="I148" s="32" t="s">
+      <c r="I148" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="J148" s="32" t="s">
+      <c r="J148" s="33" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="26">
+      <c r="A149" s="27">
         <v>45516.86252967593</v>
       </c>
-      <c r="B149" s="27" t="s">
+      <c r="B149" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="C149" s="27" t="s">
+      <c r="C149" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D149" s="27" t="s">
+      <c r="D149" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="E149" s="28">
+      <c r="E149" s="29">
         <v>64.0</v>
       </c>
-      <c r="F149" s="29">
+      <c r="F149" s="30">
         <v>45516.0</v>
       </c>
-      <c r="G149" s="30">
+      <c r="G149" s="31">
         <v>0.7708333333357587</v>
       </c>
-      <c r="H149" s="30">
+      <c r="H149" s="31">
         <v>0.8541666666642413</v>
       </c>
-      <c r="I149" s="27" t="s">
+      <c r="I149" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="J149" s="27" t="s">
+      <c r="J149" s="28" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="31">
+      <c r="A150" s="32">
         <v>45516.86600916667</v>
       </c>
-      <c r="B150" s="32" t="s">
+      <c r="B150" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C150" s="32" t="s">
+      <c r="C150" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="D150" s="32" t="s">
+      <c r="D150" s="33" t="s">
         <v>490</v>
       </c>
       <c r="E150" s="36" t="s">
         <v>491</v>
       </c>
-      <c r="F150" s="34">
+      <c r="F150" s="35">
         <v>45516.0</v>
       </c>
-      <c r="G150" s="35">
+      <c r="G150" s="24">
         <v>0.7986111111094942</v>
       </c>
-      <c r="H150" s="35">
+      <c r="H150" s="24">
         <v>0.8611111111094942</v>
       </c>
-      <c r="I150" s="32" t="s">
+      <c r="I150" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="J150" s="32" t="s">
+      <c r="J150" s="33" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="26">
+      <c r="A151" s="27">
         <v>45516.87146578704</v>
       </c>
-      <c r="B151" s="27" t="s">
+      <c r="B151" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C151" s="27" t="s">
+      <c r="C151" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="D151" s="27" t="s">
+      <c r="D151" s="28" t="s">
         <v>494</v>
       </c>
-      <c r="E151" s="28" t="s">
+      <c r="E151" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="F151" s="29">
+      <c r="F151" s="30">
         <v>45516.0</v>
       </c>
-      <c r="G151" s="30">
+      <c r="G151" s="31">
         <v>0.41666666666424135</v>
       </c>
-      <c r="H151" s="30">
+      <c r="H151" s="31">
         <v>0.5</v>
       </c>
-      <c r="I151" s="27" t="s">
+      <c r="I151" s="28" t="s">
         <v>496</v>
       </c>
-      <c r="J151" s="27" t="s">
+      <c r="J151" s="28" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="31">
+      <c r="A152" s="32">
         <v>45516.87527689815</v>
       </c>
-      <c r="B152" s="32" t="s">
+      <c r="B152" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C152" s="32" t="s">
+      <c r="C152" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D152" s="32" t="s">
+      <c r="D152" s="33" t="s">
         <v>498</v>
       </c>
       <c r="E152" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="F152" s="34">
+      <c r="F152" s="35">
         <v>45516.0</v>
       </c>
-      <c r="G152" s="35">
+      <c r="G152" s="24">
         <v>0.7916666666642413</v>
       </c>
-      <c r="H152" s="35">
+      <c r="H152" s="24">
         <v>0.875</v>
       </c>
-      <c r="I152" s="32" t="s">
+      <c r="I152" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="J152" s="32" t="s">
+      <c r="J152" s="33" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="26">
+      <c r="A153" s="27">
         <v>45516.89688393519</v>
       </c>
-      <c r="B153" s="27" t="s">
+      <c r="B153" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C153" s="27" t="s">
+      <c r="C153" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D153" s="27" t="s">
+      <c r="D153" s="28" t="s">
         <v>502</v>
       </c>
-      <c r="E153" s="28" t="s">
+      <c r="E153" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="F153" s="29">
+      <c r="F153" s="30">
         <v>45516.0</v>
       </c>
-      <c r="G153" s="30">
+      <c r="G153" s="31">
         <v>0.8125</v>
       </c>
-      <c r="H153" s="30">
+      <c r="H153" s="31">
         <v>0.8958333333357587</v>
       </c>
-      <c r="I153" s="27" t="s">
+      <c r="I153" s="28" t="s">
         <v>504</v>
       </c>
-      <c r="J153" s="27" t="s">
+      <c r="J153" s="28" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="31">
+      <c r="A154" s="32">
         <v>45517.65541280093</v>
       </c>
-      <c r="B154" s="32" t="s">
+      <c r="B154" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C154" s="32" t="s">
+      <c r="C154" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D154" s="32" t="s">
+      <c r="D154" s="33" t="s">
         <v>506</v>
       </c>
       <c r="E154" s="36" t="s">
         <v>507</v>
       </c>
-      <c r="F154" s="34">
+      <c r="F154" s="35">
         <v>45517.0</v>
       </c>
-      <c r="G154" s="35">
+      <c r="G154" s="24">
         <v>0.5625</v>
       </c>
-      <c r="H154" s="35">
+      <c r="H154" s="24">
         <v>0.6527777777810115</v>
       </c>
-      <c r="I154" s="32" t="s">
+      <c r="I154" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="J154" s="32" t="s">
+      <c r="J154" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="K154" s="32" t="s">
+      <c r="K154" s="33" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="26">
+      <c r="A155" s="27">
         <v>45517.71076173611</v>
       </c>
-      <c r="B155" s="27" t="s">
+      <c r="B155" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C155" s="27" t="s">
+      <c r="C155" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D155" s="27" t="s">
+      <c r="D155" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="E155" s="28" t="s">
+      <c r="E155" s="29" t="s">
         <v>512</v>
       </c>
-      <c r="F155" s="29">
+      <c r="F155" s="30">
         <v>45517.0</v>
       </c>
-      <c r="G155" s="30">
+      <c r="G155" s="31">
         <v>0.625</v>
       </c>
-      <c r="H155" s="30">
+      <c r="H155" s="31">
         <v>0.7083333333357587</v>
       </c>
-      <c r="I155" s="27" t="s">
+      <c r="I155" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="J155" s="27" t="s">
+      <c r="J155" s="28" t="s">
         <v>514</v>
       </c>
-      <c r="K155" s="27" t="s">
+      <c r="K155" s="28" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="31">
+      <c r="A156" s="32">
         <v>45517.75225017361</v>
       </c>
-      <c r="B156" s="32" t="s">
+      <c r="B156" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C156" s="32" t="s">
+      <c r="C156" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D156" s="32" t="s">
+      <c r="D156" s="33" t="s">
         <v>516</v>
       </c>
       <c r="E156" s="36" t="s">
         <v>517</v>
       </c>
-      <c r="F156" s="34">
+      <c r="F156" s="35">
         <v>45517.0</v>
       </c>
-      <c r="G156" s="35">
+      <c r="G156" s="24">
         <v>0.6666666666642413</v>
       </c>
-      <c r="H156" s="35">
+      <c r="H156" s="24">
         <v>0.75</v>
       </c>
-      <c r="I156" s="32" t="s">
+      <c r="I156" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="J156" s="32" t="s">
+      <c r="J156" s="33" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="26">
+      <c r="A157" s="27">
         <v>45517.77386902778</v>
       </c>
-      <c r="B157" s="27" t="s">
+      <c r="B157" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C157" s="27" t="s">
+      <c r="C157" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="D157" s="27" t="s">
+      <c r="D157" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="E157" s="28" t="s">
+      <c r="E157" s="29" t="s">
         <v>521</v>
       </c>
-      <c r="F157" s="29">
+      <c r="F157" s="30">
         <v>45517.0</v>
       </c>
-      <c r="G157" s="30">
+      <c r="G157" s="31">
         <v>0.5833333333357587</v>
       </c>
-      <c r="H157" s="30">
+      <c r="H157" s="31">
         <v>0.6875</v>
       </c>
-      <c r="I157" s="27" t="s">
+      <c r="I157" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="J157" s="27" t="s">
+      <c r="J157" s="28" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="31">
+      <c r="A158" s="32">
         <v>45517.7750893287</v>
       </c>
-      <c r="B158" s="32" t="s">
+      <c r="B158" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="C158" s="32" t="s">
+      <c r="C158" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="D158" s="32" t="s">
+      <c r="D158" s="33" t="s">
         <v>520</v>
       </c>
       <c r="E158" s="36" t="s">
         <v>521</v>
       </c>
-      <c r="F158" s="34">
+      <c r="F158" s="35">
         <v>45517.0</v>
       </c>
-      <c r="G158" s="35">
+      <c r="G158" s="24">
         <v>0.5833333333357587</v>
       </c>
-      <c r="H158" s="35">
+      <c r="H158" s="24">
         <v>0.6875</v>
       </c>
-      <c r="I158" s="32" t="s">
+      <c r="I158" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="J158" s="32" t="s">
+      <c r="J158" s="33" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="26">
+      <c r="A159" s="27">
         <v>45517.77706332176</v>
       </c>
-      <c r="B159" s="27" t="s">
+      <c r="B159" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C159" s="27" t="s">
+      <c r="C159" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="D159" s="27" t="s">
+      <c r="D159" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="E159" s="28" t="s">
+      <c r="E159" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="F159" s="29">
+      <c r="F159" s="30">
         <v>45517.0</v>
       </c>
-      <c r="G159" s="30">
+      <c r="G159" s="31">
         <v>0.5833333333357587</v>
       </c>
-      <c r="H159" s="30">
+      <c r="H159" s="31">
         <v>0.6875</v>
       </c>
-      <c r="I159" s="27" t="s">
+      <c r="I159" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="J159" s="27" t="s">
+      <c r="J159" s="28" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="31">
+      <c r="A160" s="32">
         <v>45517.77767351852</v>
       </c>
-      <c r="B160" s="32" t="s">
+      <c r="B160" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="C160" s="32" t="s">
+      <c r="C160" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="D160" s="32" t="s">
+      <c r="D160" s="33" t="s">
         <v>520</v>
       </c>
       <c r="E160" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="F160" s="34">
+      <c r="F160" s="35">
         <v>45517.0</v>
       </c>
-      <c r="G160" s="35">
+      <c r="G160" s="24">
         <v>0.5833333333357587</v>
       </c>
-      <c r="H160" s="35">
+      <c r="H160" s="24">
         <v>0.6875</v>
       </c>
-      <c r="I160" s="32" t="s">
+      <c r="I160" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="J160" s="32" t="s">
+      <c r="J160" s="33" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="26">
+      <c r="A161" s="27">
         <v>45517.778264016204</v>
       </c>
-      <c r="B161" s="27" t="s">
+      <c r="B161" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C161" s="27" t="s">
+      <c r="C161" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="D161" s="27" t="s">
+      <c r="D161" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="E161" s="28" t="s">
+      <c r="E161" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="F161" s="29">
+      <c r="F161" s="30">
         <v>45517.0</v>
       </c>
-      <c r="G161" s="30">
+      <c r="G161" s="31">
         <v>0.5833333333357587</v>
       </c>
-      <c r="H161" s="30">
+      <c r="H161" s="31">
         <v>0.6875</v>
       </c>
-      <c r="I161" s="27" t="s">
+      <c r="I161" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="J161" s="27" t="s">
+      <c r="J161" s="28" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="31">
+      <c r="A162" s="32">
         <v>45517.778748067125</v>
       </c>
-      <c r="B162" s="32" t="s">
+      <c r="B162" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="C162" s="32" t="s">
+      <c r="C162" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D162" s="32" t="s">
+      <c r="D162" s="33" t="s">
         <v>520</v>
       </c>
       <c r="E162" s="36" t="s">
         <v>529</v>
       </c>
-      <c r="F162" s="34">
+      <c r="F162" s="35">
         <v>45517.0</v>
       </c>
-      <c r="G162" s="35">
+      <c r="G162" s="24">
         <v>0.5833333333357587</v>
       </c>
-      <c r="H162" s="35">
+      <c r="H162" s="24">
         <v>0.6875</v>
       </c>
-      <c r="I162" s="32" t="s">
+      <c r="I162" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="J162" s="32" t="s">
+      <c r="J162" s="33" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="26">
+      <c r="A163" s="27">
         <v>45517.821123229165</v>
       </c>
-      <c r="B163" s="27" t="s">
+      <c r="B163" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C163" s="27" t="s">
+      <c r="C163" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="D163" s="27" t="s">
+      <c r="D163" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="E163" s="28" t="s">
+      <c r="E163" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="F163" s="29">
+      <c r="F163" s="30">
         <v>45517.0</v>
       </c>
-      <c r="G163" s="30">
+      <c r="G163" s="31">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H163" s="30">
+      <c r="H163" s="31">
         <v>0.8125</v>
       </c>
-      <c r="I163" s="27" t="s">
+      <c r="I163" s="28" t="s">
         <v>401</v>
       </c>
-      <c r="J163" s="27" t="s">
+      <c r="J163" s="28" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="31">
+      <c r="A164" s="32">
         <v>45517.822803125004</v>
       </c>
-      <c r="B164" s="32" t="s">
+      <c r="B164" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C164" s="32" t="s">
+      <c r="C164" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="D164" s="32" t="s">
+      <c r="D164" s="33" t="s">
         <v>533</v>
       </c>
-      <c r="E164" s="33"/>
-      <c r="F164" s="34">
+      <c r="E164" s="34"/>
+      <c r="F164" s="35">
         <v>45517.0</v>
       </c>
-      <c r="G164" s="35">
+      <c r="G164" s="24">
         <v>0.5833333333357587</v>
       </c>
-      <c r="H164" s="35">
+      <c r="H164" s="24">
         <v>0.6875</v>
       </c>
-      <c r="I164" s="32" t="s">
+      <c r="I164" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="J164" s="32" t="s">
+      <c r="J164" s="33" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="26">
+      <c r="A165" s="27">
         <v>45517.82645143519</v>
       </c>
-      <c r="B165" s="27" t="s">
+      <c r="B165" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C165" s="27" t="s">
+      <c r="C165" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D165" s="27" t="s">
+      <c r="D165" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="E165" s="28" t="s">
+      <c r="E165" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="F165" s="29">
+      <c r="F165" s="30">
         <v>45517.0</v>
       </c>
-      <c r="G165" s="30">
+      <c r="G165" s="31">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H165" s="30">
+      <c r="H165" s="31">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I165" s="27" t="s">
+      <c r="I165" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="J165" s="27" t="s">
+      <c r="J165" s="28" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="31">
+      <c r="A166" s="32">
         <v>45517.82822041667</v>
       </c>
-      <c r="B166" s="32" t="s">
+      <c r="B166" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C166" s="32" t="s">
+      <c r="C166" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D166" s="32" t="s">
+      <c r="D166" s="33" t="s">
         <v>536</v>
       </c>
       <c r="E166" s="36" t="s">
         <v>540</v>
       </c>
-      <c r="F166" s="34">
+      <c r="F166" s="35">
         <v>45517.0</v>
       </c>
-      <c r="G166" s="35">
+      <c r="G166" s="24">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H166" s="35">
+      <c r="H166" s="24">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I166" s="32" t="s">
+      <c r="I166" s="33" t="s">
         <v>541</v>
       </c>
-      <c r="J166" s="32" t="s">
+      <c r="J166" s="33" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="26">
+      <c r="A167" s="27">
         <v>45517.83464716435</v>
       </c>
-      <c r="B167" s="27" t="s">
+      <c r="B167" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="C167" s="27" t="s">
+      <c r="C167" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="D167" s="27" t="s">
+      <c r="D167" s="28" t="s">
         <v>543</v>
       </c>
-      <c r="E167" s="28" t="s">
+      <c r="E167" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="F167" s="29">
+      <c r="F167" s="30">
         <v>45517.0</v>
       </c>
-      <c r="G167" s="30">
+      <c r="G167" s="31">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H167" s="30">
+      <c r="H167" s="31">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I167" s="27" t="s">
+      <c r="I167" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="J167" s="27" t="s">
+      <c r="J167" s="28" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="31">
+      <c r="A168" s="32">
         <v>45517.83745584491</v>
       </c>
-      <c r="B168" s="32" t="s">
+      <c r="B168" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="C168" s="32" t="s">
+      <c r="C168" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="D168" s="32" t="s">
+      <c r="D168" s="33" t="s">
         <v>36</v>
       </c>
       <c r="E168" s="36" t="s">
         <v>546</v>
       </c>
-      <c r="F168" s="34">
+      <c r="F168" s="35">
         <v>45517.0</v>
       </c>
-      <c r="G168" s="35">
+      <c r="G168" s="24">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H168" s="35">
+      <c r="H168" s="24">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I168" s="32" t="s">
+      <c r="I168" s="33" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="26">
+      <c r="A169" s="27">
         <v>45517.837965150466</v>
       </c>
-      <c r="B169" s="27" t="s">
+      <c r="B169" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="C169" s="27" t="s">
+      <c r="C169" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="D169" s="27" t="s">
+      <c r="D169" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E169" s="28" t="s">
+      <c r="E169" s="29" t="s">
         <v>547</v>
       </c>
-      <c r="F169" s="29">
+      <c r="F169" s="30">
         <v>45517.0</v>
       </c>
-      <c r="G169" s="30">
+      <c r="G169" s="31">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H169" s="30">
+      <c r="H169" s="31">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I169" s="27" t="s">
+      <c r="I169" s="28" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="31">
+      <c r="A170" s="32">
         <v>45517.83871653935</v>
       </c>
-      <c r="B170" s="32" t="s">
+      <c r="B170" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="C170" s="32" t="s">
+      <c r="C170" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="D170" s="32" t="s">
+      <c r="D170" s="33" t="s">
         <v>36</v>
       </c>
       <c r="E170" s="36" t="s">
         <v>548</v>
       </c>
-      <c r="F170" s="34">
+      <c r="F170" s="35">
         <v>45517.0</v>
       </c>
-      <c r="G170" s="35">
+      <c r="G170" s="24">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H170" s="35">
+      <c r="H170" s="24">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I170" s="32" t="s">
+      <c r="I170" s="33" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="26">
+      <c r="A171" s="27">
         <v>45517.86126445602</v>
       </c>
-      <c r="B171" s="27" t="s">
+      <c r="B171" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C171" s="27" t="s">
+      <c r="C171" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="D171" s="27" t="s">
+      <c r="D171" s="28" t="s">
         <v>212</v>
       </c>
       <c r="E171" s="37"/>
-      <c r="F171" s="29">
+      <c r="F171" s="30">
         <v>45517.0</v>
       </c>
-      <c r="G171" s="30">
+      <c r="G171" s="31">
         <v>0.7916666666642413</v>
       </c>
-      <c r="H171" s="30">
+      <c r="H171" s="31">
         <v>0.8541666666642413</v>
       </c>
-      <c r="I171" s="27" t="s">
+      <c r="I171" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="J171" s="27" t="s">
+      <c r="J171" s="28" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="31">
+      <c r="A172" s="32">
         <v>45517.87722201389</v>
       </c>
-      <c r="B172" s="32" t="s">
+      <c r="B172" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C172" s="32" t="s">
+      <c r="C172" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D172" s="32" t="s">
+      <c r="D172" s="33" t="s">
         <v>551</v>
       </c>
       <c r="E172" s="36" t="s">
         <v>552</v>
       </c>
-      <c r="F172" s="34">
+      <c r="F172" s="35">
         <v>45517.0</v>
       </c>
-      <c r="G172" s="35">
+      <c r="G172" s="24">
         <v>0.7916666666642413</v>
       </c>
-      <c r="H172" s="35">
+      <c r="H172" s="24">
         <v>0.875</v>
       </c>
-      <c r="I172" s="32" t="s">
+      <c r="I172" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="J172" s="32" t="s">
+      <c r="J172" s="33" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="26">
+      <c r="A173" s="27">
         <v>45517.87846309028</v>
       </c>
-      <c r="B173" s="27" t="s">
+      <c r="B173" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="C173" s="27" t="s">
+      <c r="C173" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D173" s="27" t="s">
+      <c r="D173" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="E173" s="28"/>
-      <c r="F173" s="29">
+      <c r="E173" s="29"/>
+      <c r="F173" s="30">
         <v>45517.0</v>
       </c>
-      <c r="G173" s="30">
+      <c r="G173" s="31">
         <v>0.7916666666642413</v>
       </c>
-      <c r="H173" s="30">
+      <c r="H173" s="31">
         <v>0.875</v>
       </c>
-      <c r="I173" s="27" t="s">
+      <c r="I173" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="J173" s="27" t="s">
+      <c r="J173" s="28" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="31">
+      <c r="A174" s="32">
         <v>45518.633394502314</v>
       </c>
-      <c r="B174" s="32" t="s">
+      <c r="B174" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C174" s="32" t="s">
+      <c r="C174" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D174" s="32" t="s">
+      <c r="D174" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="E174" s="33"/>
-      <c r="F174" s="34">
+      <c r="E174" s="34"/>
+      <c r="F174" s="35">
         <v>45518.0</v>
       </c>
-      <c r="G174" s="35">
+      <c r="G174" s="24">
         <v>0.44791666666424135</v>
       </c>
-      <c r="H174" s="35">
+      <c r="H174" s="24">
         <v>0.53125</v>
       </c>
-      <c r="I174" s="32" t="s">
+      <c r="I174" s="33" t="s">
         <v>559</v>
       </c>
-      <c r="J174" s="32" t="s">
+      <c r="J174" s="33" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="26">
+      <c r="A175" s="27">
         <v>45518.63520597223</v>
       </c>
-      <c r="B175" s="27" t="s">
+      <c r="B175" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="C175" s="27" t="s">
+      <c r="C175" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="D175" s="27" t="s">
+      <c r="D175" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="E175" s="28" t="s">
+      <c r="E175" s="29" t="s">
         <v>562</v>
       </c>
-      <c r="F175" s="29">
+      <c r="F175" s="30">
         <v>45518.0</v>
       </c>
-      <c r="G175" s="30">
+      <c r="G175" s="31">
         <v>0.5416666666642413</v>
       </c>
       <c r="H175" s="16">
         <v>0.625</v>
       </c>
-      <c r="I175" s="27" t="s">
+      <c r="I175" s="28" t="s">
         <v>563</v>
       </c>
-      <c r="J175" s="27" t="s">
+      <c r="J175" s="28" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="31">
+      <c r="A176" s="32">
         <v>45518.64749122685</v>
       </c>
-      <c r="B176" s="32" t="s">
+      <c r="B176" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C176" s="32" t="s">
+      <c r="C176" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D176" s="32" t="s">
+      <c r="D176" s="33" t="s">
         <v>565</v>
       </c>
       <c r="E176" s="36">
         <v>90.0</v>
       </c>
-      <c r="F176" s="34">
+      <c r="F176" s="35">
         <v>45518.0</v>
       </c>
-      <c r="G176" s="35">
+      <c r="G176" s="24">
         <v>0.5625</v>
       </c>
-      <c r="H176" s="35">
+      <c r="H176" s="24">
         <v>0.6458333333357587</v>
       </c>
-      <c r="I176" s="32" t="s">
+      <c r="I176" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="J176" s="32" t="s">
+      <c r="J176" s="33" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="26">
+      <c r="A177" s="27">
         <v>45518.66104313657</v>
       </c>
-      <c r="B177" s="27" t="s">
+      <c r="B177" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="C177" s="27" t="s">
+      <c r="C177" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="D177" s="27" t="s">
+      <c r="D177" s="28" t="s">
         <v>568</v>
       </c>
       <c r="E177" s="37"/>
-      <c r="F177" s="29">
+      <c r="F177" s="30">
         <v>45518.0</v>
       </c>
-      <c r="G177" s="30">
+      <c r="G177" s="31">
         <v>0.5625</v>
       </c>
-      <c r="H177" s="30">
+      <c r="H177" s="31">
         <v>0.6458333333357587</v>
       </c>
-      <c r="I177" s="27" t="s">
+      <c r="I177" s="28" t="s">
         <v>569</v>
       </c>
-      <c r="J177" s="27" t="s">
+      <c r="J177" s="28" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="31">
+      <c r="A178" s="32">
         <v>45518.6923365625</v>
       </c>
-      <c r="B178" s="32" t="s">
+      <c r="B178" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="C178" s="32" t="s">
+      <c r="C178" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="D178" s="32" t="s">
+      <c r="D178" s="33" t="s">
         <v>571</v>
       </c>
-      <c r="E178" s="33"/>
-      <c r="F178" s="34">
+      <c r="E178" s="34"/>
+      <c r="F178" s="35">
         <v>45518.0</v>
       </c>
-      <c r="G178" s="35">
+      <c r="G178" s="24">
         <v>0.5833333333357587</v>
       </c>
-      <c r="H178" s="35">
+      <c r="H178" s="24">
         <v>0.6875</v>
       </c>
-      <c r="I178" s="32" t="s">
+      <c r="I178" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="J178" s="32" t="s">
+      <c r="J178" s="33" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="26">
+      <c r="A179" s="27">
         <v>45518.837842141205</v>
       </c>
-      <c r="B179" s="27" t="s">
+      <c r="B179" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C179" s="27" t="s">
+      <c r="C179" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D179" s="27" t="s">
+      <c r="D179" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="E179" s="27" t="s">
+      <c r="E179" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="F179" s="29">
+      <c r="F179" s="30">
         <v>45518.0</v>
       </c>
-      <c r="G179" s="30">
+      <c r="G179" s="31">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H179" s="30">
+      <c r="H179" s="31">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I179" s="27" t="s">
+      <c r="I179" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="J179" s="27" t="s">
+      <c r="J179" s="28" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="31">
+      <c r="A180" s="32">
         <v>45518.83897322917</v>
       </c>
-      <c r="B180" s="32" t="s">
+      <c r="B180" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C180" s="32" t="s">
+      <c r="C180" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="D180" s="32" t="s">
+      <c r="D180" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="E180" s="32" t="s">
+      <c r="E180" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="F180" s="34">
+      <c r="F180" s="35">
         <v>45518.0</v>
       </c>
-      <c r="G180" s="35">
+      <c r="G180" s="24">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H180" s="35">
+      <c r="H180" s="24">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I180" s="32" t="s">
+      <c r="I180" s="33" t="s">
         <v>576</v>
       </c>
-      <c r="J180" s="32" t="s">
+      <c r="J180" s="33" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="26">
+      <c r="A181" s="27">
         <v>45518.83982435185</v>
       </c>
-      <c r="B181" s="27" t="s">
+      <c r="B181" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C181" s="27" t="s">
+      <c r="C181" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="D181" s="27" t="s">
+      <c r="D181" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="E181" s="27" t="s">
+      <c r="E181" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="F181" s="29">
+      <c r="F181" s="30">
         <v>45518.0</v>
       </c>
-      <c r="G181" s="30">
+      <c r="G181" s="31">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H181" s="30">
+      <c r="H181" s="31">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I181" s="27" t="s">
+      <c r="I181" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="J181" s="27" t="s">
+      <c r="J181" s="28" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="31">
+      <c r="A182" s="32">
         <v>45518.84678337963</v>
       </c>
-      <c r="B182" s="32" t="s">
+      <c r="B182" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C182" s="32" t="s">
+      <c r="C182" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D182" s="32" t="s">
+      <c r="D182" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="E182" s="32" t="s">
+      <c r="E182" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="F182" s="34">
+      <c r="F182" s="35">
         <v>45518.0</v>
       </c>
-      <c r="G182" s="35">
+      <c r="G182" s="24">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H182" s="35">
+      <c r="H182" s="24">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I182" s="32" t="s">
+      <c r="I182" s="33" t="s">
         <v>585</v>
       </c>
-      <c r="J182" s="32" t="s">
+      <c r="J182" s="33" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="26">
+      <c r="A183" s="27">
         <v>45518.848245243054</v>
       </c>
-      <c r="B183" s="27" t="s">
+      <c r="B183" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C183" s="27" t="s">
+      <c r="C183" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="D183" s="27" t="s">
+      <c r="D183" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="E183" s="27" t="s">
+      <c r="E183" s="28" t="s">
         <v>588</v>
       </c>
-      <c r="F183" s="29">
+      <c r="F183" s="30">
         <v>45518.0</v>
       </c>
-      <c r="G183" s="30">
+      <c r="G183" s="31">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H183" s="30">
+      <c r="H183" s="31">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I183" s="27" t="s">
+      <c r="I183" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="J183" s="27" t="s">
+      <c r="J183" s="28" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="31">
+      <c r="A184" s="32">
         <v>45518.84974282407</v>
       </c>
-      <c r="B184" s="32" t="s">
+      <c r="B184" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C184" s="32" t="s">
+      <c r="C184" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="D184" s="32" t="s">
+      <c r="D184" s="33" t="s">
         <v>587</v>
       </c>
-      <c r="E184" s="32" t="s">
+      <c r="E184" s="33" t="s">
         <v>591</v>
       </c>
-      <c r="F184" s="34">
+      <c r="F184" s="35">
         <v>45518.0</v>
       </c>
-      <c r="G184" s="35">
+      <c r="G184" s="24">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H184" s="35">
+      <c r="H184" s="24">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I184" s="32" t="s">
+      <c r="I184" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="J184" s="32" t="s">
+      <c r="J184" s="33" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="26">
+      <c r="A185" s="27">
         <v>45518.85262627315</v>
       </c>
-      <c r="B185" s="27" t="s">
+      <c r="B185" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C185" s="27" t="s">
+      <c r="C185" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="D185" s="27" t="s">
+      <c r="D185" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="E185" s="27" t="s">
+      <c r="E185" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="F185" s="29">
+      <c r="F185" s="30">
         <v>45518.0</v>
       </c>
-      <c r="G185" s="30">
+      <c r="G185" s="31">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H185" s="30">
+      <c r="H185" s="31">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I185" s="27" t="s">
+      <c r="I185" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="J185" s="27" t="s">
+      <c r="J185" s="28" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="31">
+      <c r="A186" s="32">
         <v>45518.85438916666</v>
       </c>
-      <c r="B186" s="32" t="s">
+      <c r="B186" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C186" s="32" t="s">
+      <c r="C186" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="D186" s="32" t="s">
+      <c r="D186" s="33" t="s">
         <v>587</v>
       </c>
-      <c r="E186" s="32" t="s">
+      <c r="E186" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="F186" s="34">
+      <c r="F186" s="35">
         <v>45518.0</v>
       </c>
-      <c r="G186" s="35">
+      <c r="G186" s="24">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H186" s="35">
+      <c r="H186" s="24">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I186" s="32" t="s">
+      <c r="I186" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="J186" s="32" t="s">
+      <c r="J186" s="33" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="26">
+      <c r="A187" s="27">
         <v>45518.89217371528</v>
       </c>
-      <c r="B187" s="27" t="s">
+      <c r="B187" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C187" s="27" t="s">
+      <c r="C187" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D187" s="27" t="s">
+      <c r="D187" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="E187" s="27" t="s">
+      <c r="E187" s="28" t="s">
         <v>598</v>
       </c>
-      <c r="F187" s="29">
+      <c r="F187" s="30">
         <v>45518.0</v>
       </c>
-      <c r="G187" s="30">
+      <c r="G187" s="31">
         <v>0.7916666666642413</v>
       </c>
-      <c r="H187" s="30">
+      <c r="H187" s="31">
         <v>0.875</v>
       </c>
-      <c r="I187" s="27" t="s">
+      <c r="I187" s="28" t="s">
         <v>599</v>
       </c>
-      <c r="J187" s="27" t="s">
+      <c r="J187" s="28" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="31">
+      <c r="A188" s="32">
         <v>45518.8993009838</v>
       </c>
-      <c r="B188" s="32" t="s">
+      <c r="B188" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C188" s="32" t="s">
+      <c r="C188" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D188" s="32" t="s">
+      <c r="D188" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="E188" s="32" t="s">
+      <c r="E188" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="F188" s="34">
+      <c r="F188" s="35">
         <v>45518.0</v>
       </c>
-      <c r="G188" s="35">
+      <c r="G188" s="24">
         <v>0.8125</v>
       </c>
-      <c r="H188" s="35">
+      <c r="H188" s="24">
         <v>0.8958333333357587</v>
       </c>
-      <c r="I188" s="32" t="s">
+      <c r="I188" s="33" t="s">
         <v>603</v>
       </c>
-      <c r="J188" s="32" t="s">
+      <c r="J188" s="33" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="26">
+      <c r="A189" s="27">
         <v>45519.58629415509</v>
       </c>
-      <c r="B189" s="27" t="s">
+      <c r="B189" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C189" s="27" t="s">
+      <c r="C189" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="D189" s="27" t="s">
+      <c r="D189" s="28" t="s">
         <v>605</v>
       </c>
-      <c r="E189" s="27" t="s">
+      <c r="E189" s="28" t="s">
         <v>598</v>
       </c>
-      <c r="F189" s="29">
+      <c r="F189" s="30">
         <v>45519.0</v>
       </c>
-      <c r="G189" s="30">
+      <c r="G189" s="31">
         <v>0.41666666666424135</v>
       </c>
-      <c r="H189" s="30">
+      <c r="H189" s="31">
         <v>0.5</v>
       </c>
-      <c r="I189" s="27" t="s">
+      <c r="I189" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="J189" s="27" t="s">
+      <c r="J189" s="28" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="31">
+      <c r="A190" s="32">
         <v>45519.630296284726</v>
       </c>
-      <c r="B190" s="32" t="s">
+      <c r="B190" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C190" s="32" t="s">
+      <c r="C190" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="D190" s="32" t="s">
+      <c r="D190" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="E190" s="32" t="s">
+      <c r="E190" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="F190" s="34">
+      <c r="F190" s="35">
         <v>45519.0</v>
       </c>
-      <c r="G190" s="35">
+      <c r="G190" s="24">
         <v>0.5416666666642413</v>
       </c>
-      <c r="H190" s="35">
+      <c r="H190" s="24">
         <v>0.625</v>
       </c>
-      <c r="I190" s="32" t="s">
+      <c r="I190" s="33" t="s">
         <v>610</v>
       </c>
-      <c r="J190" s="32" t="s">
+      <c r="J190" s="33" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="26">
+      <c r="A191" s="27">
         <v>45519.631872928236</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B191" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="C191" s="27" t="s">
+      <c r="C191" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="D191" s="27" t="s">
+      <c r="D191" s="28" t="s">
         <v>612</v>
       </c>
-      <c r="E191" s="27" t="s">
+      <c r="E191" s="28" t="s">
         <v>613</v>
       </c>
-      <c r="F191" s="29">
+      <c r="F191" s="30">
         <v>45519.0</v>
       </c>
-      <c r="G191" s="30">
+      <c r="G191" s="31">
         <v>0.5416666666642413</v>
       </c>
-      <c r="H191" s="30">
+      <c r="H191" s="31">
         <v>0.625</v>
       </c>
-      <c r="I191" s="27" t="s">
+      <c r="I191" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="J191" s="27" t="s">
+      <c r="J191" s="28" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="31">
+      <c r="A192" s="32">
         <v>45519.65078469907</v>
       </c>
-      <c r="B192" s="32" t="s">
+      <c r="B192" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C192" s="32" t="s">
+      <c r="C192" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D192" s="32" t="s">
+      <c r="D192" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="F192" s="34">
+      <c r="F192" s="35">
         <v>45519.0</v>
       </c>
-      <c r="G192" s="35">
+      <c r="G192" s="24">
         <v>0.5625</v>
       </c>
-      <c r="H192" s="35">
+      <c r="H192" s="24">
         <v>0.6493055555547471</v>
       </c>
-      <c r="I192" s="32" t="s">
+      <c r="I192" s="33" t="s">
         <v>616</v>
       </c>
-      <c r="J192" s="32" t="s">
+      <c r="J192" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="K192" s="32" t="s">
+      <c r="K192" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="L192" s="32" t="s">
+      <c r="L192" s="33" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="26">
+      <c r="A193" s="27">
         <v>45519.67028144676</v>
       </c>
-      <c r="B193" s="27" t="s">
+      <c r="B193" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="C193" s="27" t="s">
+      <c r="C193" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="D193" s="27" t="s">
+      <c r="D193" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="E193" s="27">
+      <c r="E193" s="28">
         <v>84.0</v>
       </c>
-      <c r="F193" s="29">
+      <c r="F193" s="30">
         <v>45519.0</v>
       </c>
-      <c r="G193" s="30">
+      <c r="G193" s="31">
         <v>0.5625</v>
       </c>
-      <c r="H193" s="30">
+      <c r="H193" s="31">
         <v>0.6666666666642413</v>
       </c>
-      <c r="I193" s="27" t="s">
+      <c r="I193" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="J193" s="27" t="s">
+      <c r="J193" s="28" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="31">
+      <c r="A194" s="32">
         <v>45519.67134231482</v>
       </c>
-      <c r="B194" s="32" t="s">
+      <c r="B194" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="C194" s="32" t="s">
+      <c r="C194" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D194" s="32" t="s">
+      <c r="D194" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="E194" s="32">
+      <c r="E194" s="33">
         <v>50.0</v>
       </c>
-      <c r="F194" s="34">
+      <c r="F194" s="35">
         <v>45519.0</v>
       </c>
-      <c r="G194" s="35">
+      <c r="G194" s="24">
         <v>0.5625</v>
       </c>
-      <c r="H194" s="35">
+      <c r="H194" s="24">
         <v>0.6666666666642413</v>
       </c>
-      <c r="I194" s="32" t="s">
+      <c r="I194" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="J194" s="32" t="s">
+      <c r="J194" s="33" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="26">
+      <c r="A195" s="27">
         <v>45519.70296730324</v>
       </c>
-      <c r="B195" s="27" t="s">
+      <c r="B195" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C195" s="27" t="s">
+      <c r="C195" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="D195" s="27" t="s">
+      <c r="D195" s="28" t="s">
         <v>624</v>
       </c>
-      <c r="E195" s="27" t="s">
+      <c r="E195" s="28" t="s">
         <v>625</v>
       </c>
-      <c r="F195" s="29">
+      <c r="F195" s="30">
         <v>45519.0</v>
       </c>
-      <c r="G195" s="30">
+      <c r="G195" s="31">
         <v>0.5833333333357587</v>
       </c>
-      <c r="H195" s="30">
+      <c r="H195" s="31">
         <v>0.6875</v>
       </c>
-      <c r="I195" s="27" t="s">
+      <c r="I195" s="28" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="31">
+      <c r="A196" s="32">
         <v>45519.70084138889</v>
       </c>
-      <c r="B196" s="32" t="s">
+      <c r="B196" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C196" s="32" t="s">
+      <c r="C196" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="D196" s="32" t="s">
+      <c r="D196" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="E196" s="32" t="s">
+      <c r="E196" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="F196" s="34">
+      <c r="F196" s="35">
         <v>45519.0</v>
       </c>
-      <c r="G196" s="35">
+      <c r="G196" s="24">
         <v>0.08333333333575865</v>
       </c>
-      <c r="H196" s="35">
+      <c r="H196" s="24">
         <v>0.1875</v>
       </c>
-      <c r="I196" s="32" t="s">
+      <c r="I196" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="J196" s="32" t="s">
+      <c r="J196" s="33" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="26">
+      <c r="A197" s="27">
         <v>45519.70723402778</v>
       </c>
-      <c r="B197" s="27" t="s">
+      <c r="B197" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="C197" s="27" t="s">
+      <c r="C197" s="28" t="s">
         <v>578</v>
       </c>
-      <c r="D197" s="27" t="s">
+      <c r="D197" s="28" t="s">
         <v>630</v>
       </c>
-      <c r="E197" s="27" t="s">
+      <c r="E197" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F197" s="29">
+      <c r="F197" s="30">
         <v>45519.0</v>
       </c>
-      <c r="G197" s="30">
+      <c r="G197" s="31">
         <v>0.6458333333357587</v>
       </c>
-      <c r="H197" s="30">
+      <c r="H197" s="31">
         <v>0.7083333333357587</v>
       </c>
-      <c r="I197" s="27" t="s">
+      <c r="I197" s="28" t="s">
         <v>631</v>
       </c>
-      <c r="J197" s="27" t="s">
+      <c r="J197" s="28" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="31">
+      <c r="A198" s="32">
         <v>45519.70933878473</v>
       </c>
-      <c r="B198" s="32" t="s">
+      <c r="B198" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C198" s="32" t="s">
+      <c r="C198" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D198" s="32" t="s">
+      <c r="D198" s="33" t="s">
         <v>633</v>
       </c>
-      <c r="E198" s="32" t="s">
+      <c r="E198" s="33" t="s">
         <v>634</v>
       </c>
-      <c r="F198" s="34">
+      <c r="F198" s="35">
         <v>45519.0</v>
       </c>
-      <c r="G198" s="35">
+      <c r="G198" s="24">
         <v>0.6145833333357587</v>
       </c>
-      <c r="H198" s="35">
+      <c r="H198" s="24">
         <v>0.7083333333357587</v>
       </c>
-      <c r="I198" s="32" t="s">
+      <c r="I198" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="J198" s="32" t="s">
+      <c r="J198" s="33" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="26">
+      <c r="A199" s="27">
         <v>45519.82466462963</v>
       </c>
-      <c r="B199" s="27" t="s">
+      <c r="B199" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C199" s="27" t="s">
+      <c r="C199" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D199" s="27" t="s">
+      <c r="D199" s="28" t="s">
         <v>636</v>
       </c>
-      <c r="E199" s="27" t="s">
+      <c r="E199" s="28" t="s">
         <v>637</v>
       </c>
-      <c r="F199" s="29">
+      <c r="F199" s="30">
         <v>45519.0</v>
       </c>
-      <c r="G199" s="30">
+      <c r="G199" s="31">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H199" s="30">
+      <c r="H199" s="31">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I199" s="27" t="s">
+      <c r="I199" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="J199" s="27" t="s">
+      <c r="J199" s="28" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="31">
+      <c r="A200" s="32">
         <v>45519.84019137731</v>
       </c>
-      <c r="B200" s="32" t="s">
+      <c r="B200" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C200" s="32" t="s">
+      <c r="C200" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D200" s="32" t="s">
+      <c r="D200" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F200" s="34">
+      <c r="F200" s="35">
         <v>45519.0</v>
       </c>
-      <c r="G200" s="35">
+      <c r="G200" s="24">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H200" s="35">
+      <c r="H200" s="24">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I200" s="32" t="s">
+      <c r="I200" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="26">
+      <c r="A201" s="27">
         <v>45519.841130810186</v>
       </c>
-      <c r="B201" s="27" t="s">
+      <c r="B201" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C201" s="27" t="s">
+      <c r="C201" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D201" s="27" t="s">
+      <c r="D201" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F201" s="29">
+      <c r="F201" s="30">
         <v>45519.0</v>
       </c>
-      <c r="G201" s="30">
+      <c r="G201" s="31">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H201" s="30">
+      <c r="H201" s="31">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I201" s="27" t="s">
+      <c r="I201" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="31">
+      <c r="A202" s="32">
         <v>45519.846384675926</v>
       </c>
-      <c r="B202" s="32" t="s">
+      <c r="B202" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C202" s="32" t="s">
+      <c r="C202" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D202" s="32" t="s">
+      <c r="D202" s="33" t="s">
         <v>640</v>
       </c>
-      <c r="F202" s="34">
+      <c r="F202" s="35">
         <v>45519.0</v>
       </c>
-      <c r="G202" s="35">
+      <c r="G202" s="24">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H202" s="35">
+      <c r="H202" s="24">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I202" s="32" t="s">
+      <c r="I202" s="33" t="s">
         <v>641</v>
       </c>
-      <c r="J202" s="32" t="s">
+      <c r="J202" s="33" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="26">
+      <c r="A203" s="27">
         <v>45519.8482484375</v>
       </c>
-      <c r="B203" s="27" t="s">
+      <c r="B203" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C203" s="27" t="s">
+      <c r="C203" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D203" s="27" t="s">
+      <c r="D203" s="28" t="s">
         <v>643</v>
       </c>
-      <c r="F203" s="29">
+      <c r="F203" s="30">
         <v>45519.0</v>
       </c>
-      <c r="G203" s="30">
+      <c r="G203" s="31">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H203" s="30">
+      <c r="H203" s="31">
         <v>0.8333333333357587</v>
       </c>
-      <c r="I203" s="27" t="s">
+      <c r="I203" s="28" t="s">
         <v>644</v>
       </c>
-      <c r="J203" s="27" t="s">
+      <c r="J203" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="31">
+      <c r="A204" s="32">
         <v>45519.85758427084</v>
       </c>
-      <c r="B204" s="32" t="s">
+      <c r="B204" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C204" s="32" t="s">
+      <c r="C204" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D204" s="32" t="s">
+      <c r="D204" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="E204" s="32" t="s">
+      <c r="E204" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="F204" s="34">
+      <c r="F204" s="35">
         <v>45519.0</v>
       </c>
-      <c r="G204" s="35">
+      <c r="G204" s="24">
         <v>0.7708333333357587</v>
       </c>
-      <c r="H204" s="35">
+      <c r="H204" s="24">
         <v>0.8541666666642413</v>
       </c>
-      <c r="I204" s="32" t="s">
+      <c r="I204" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="J204" s="32" t="s">
+      <c r="J204" s="33" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="26">
+      <c r="A205" s="27">
         <v>45519.86405041667</v>
       </c>
-      <c r="B205" s="27" t="s">
+      <c r="B205" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C205" s="27" t="s">
+      <c r="C205" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D205" s="27" t="s">
+      <c r="D205" s="28" t="s">
         <v>649</v>
       </c>
-      <c r="F205" s="29">
+      <c r="F205" s="30">
         <v>45519.0</v>
       </c>
-      <c r="G205" s="30">
+      <c r="G205" s="31">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H205" s="30">
+      <c r="H205" s="31">
         <v>0.7708333333333334</v>
       </c>
-      <c r="I205" s="27" t="s">
+      <c r="I205" s="28" t="s">
         <v>650</v>
       </c>
-      <c r="J205" s="27" t="s">
+      <c r="J205" s="28" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="31">
+      <c r="A206" s="32">
         <v>45519.86601100695</v>
       </c>
-      <c r="B206" s="32" t="s">
+      <c r="B206" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="C206" s="32" t="s">
+      <c r="C206" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D206" s="32" t="s">
+      <c r="D206" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="E206" s="32">
+      <c r="E206" s="33">
         <v>90.0</v>
       </c>
-      <c r="F206" s="34">
+      <c r="F206" s="35">
         <v>45519.0</v>
       </c>
-      <c r="G206" s="35">
+      <c r="G206" s="24">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H206" s="35">
+      <c r="H206" s="24">
         <v>0.8472222222189885</v>
       </c>
-      <c r="I206" s="32" t="s">
+      <c r="I206" s="33" t="s">
         <v>653</v>
       </c>
-      <c r="J206" s="32" t="s">
+      <c r="J206" s="33" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="26">
+      <c r="A207" s="27">
         <v>45519.867381689815</v>
       </c>
-      <c r="B207" s="27" t="s">
+      <c r="B207" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="C207" s="27" t="s">
+      <c r="C207" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="D207" s="27" t="s">
+      <c r="D207" s="28" t="s">
         <v>652</v>
       </c>
-      <c r="E207" s="27">
+      <c r="E207" s="28">
         <v>90.0</v>
       </c>
-      <c r="F207" s="29">
+      <c r="F207" s="30">
         <v>45519.0</v>
       </c>
-      <c r="G207" s="30">
+      <c r="G207" s="31">
         <v>0.7291666666642413</v>
       </c>
-      <c r="H207" s="30">
+      <c r="H207" s="31">
         <v>0.8611111111094942</v>
       </c>
-      <c r="I207" s="27" t="s">
+      <c r="I207" s="28" t="s">
         <v>653</v>
       </c>
-      <c r="J207" s="27" t="s">
+      <c r="J207" s="28" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="31">
+      <c r="A208" s="32">
         <v>45519.86913765046</v>
       </c>
-      <c r="B208" s="32" t="s">
+      <c r="B208" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C208" s="32" t="s">
+      <c r="C208" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D208" s="32" t="s">
+      <c r="D208" s="33" t="s">
         <v>656</v>
       </c>
-      <c r="E208" s="32" t="s">
+      <c r="E208" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="F208" s="34">
+      <c r="F208" s="35">
         <v>45519.0</v>
       </c>
-      <c r="G208" s="35">
+      <c r="G208" s="24">
         <v>0.7777777777810115</v>
       </c>
-      <c r="H208" s="35">
+      <c r="H208" s="24">
         <v>0.8611111111094942</v>
       </c>
-      <c r="I208" s="32" t="s">
+      <c r="I208" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="J208" s="32" t="s">
+      <c r="J208" s="33" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="26">
+      <c r="A209" s="27">
         <v>45519.88049297454</v>
       </c>
-      <c r="B209" s="27" t="s">
+      <c r="B209" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C209" s="27" t="s">
+      <c r="C209" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D209" s="27" t="s">
+      <c r="D209" s="28" t="s">
         <v>660</v>
       </c>
-      <c r="E209" s="27" t="s">
+      <c r="E209" s="28" t="s">
         <v>661</v>
       </c>
-      <c r="F209" s="29">
+      <c r="F209" s="30">
         <v>45519.0</v>
       </c>
-      <c r="G209" s="30">
+      <c r="G209" s="31">
         <v>0.7916666666642413</v>
       </c>
-      <c r="H209" s="30">
+      <c r="H209" s="31">
         <v>0.875</v>
       </c>
-      <c r="I209" s="27" t="s">
+      <c r="I209" s="28" t="s">
         <v>662</v>
       </c>
-      <c r="J209" s="27" t="s">
+      <c r="J209" s="28" t="s">
         <v>663</v>
       </c>
     </row>
